--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -349,6 +349,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -429,6 +432,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -554,6 +560,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -633,6 +642,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
@@ -759,6 +771,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -838,6 +853,9 @@
                   <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
@@ -964,6 +982,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1043,6 +1064,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1167,6 +1191,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1247,6 +1274,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1261,8 +1291,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="449187264"/>
-        <c:axId val="449187656"/>
+        <c:axId val="376111088"/>
+        <c:axId val="376111480"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1383,6 +1413,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1463,6 +1496,9 @@
                 </c:pt>
                 <c:pt idx="23" formatCode="General">
                   <c:v>0.94482758620689655</c:v>
+                </c:pt>
+                <c:pt idx="24" formatCode="General">
+                  <c:v>0.96478873239436624</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1477,11 +1513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="449188440"/>
-        <c:axId val="449188048"/>
+        <c:axId val="376112264"/>
+        <c:axId val="376111872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="449187264"/>
+        <c:axId val="376111088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1595,12 +1631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449187656"/>
+        <c:crossAx val="376111480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449187656"/>
+        <c:axId val="376111480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1713,12 +1749,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449187264"/>
+        <c:crossAx val="376111088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449188048"/>
+        <c:axId val="376111872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1814,12 +1850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449188440"/>
+        <c:crossAx val="376112264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449188440"/>
+        <c:axId val="376112264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1829,7 +1865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="449188048"/>
+        <c:crossAx val="376111872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2100,6 +2136,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2180,6 +2219,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>42.282068966026038</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.825352112787222</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2305,6 +2347,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2385,6 +2430,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>34.999999998835847</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>36.116666675079614</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2510,6 +2558,9 @@
                 <c:pt idx="23">
                   <c:v>42498</c:v>
                 </c:pt>
+                <c:pt idx="24">
+                  <c:v>42499</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2590,6 +2641,9 @@
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>57.783333335537463</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>58.833333340007812</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2604,11 +2658,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="449189224"/>
-        <c:axId val="449189616"/>
+        <c:axId val="376112656"/>
+        <c:axId val="376113048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="449189224"/>
+        <c:axId val="376112656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2722,12 +2776,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449189616"/>
+        <c:crossAx val="376113048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449189616"/>
+        <c:axId val="376113048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2840,7 +2894,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449189224"/>
+        <c:crossAx val="376112656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4032,7 +4086,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4043,7 +4097,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4054,7 +4108,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8666189" cy="6292746"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4081,7 +4135,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8666189" cy="6292746"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4367,10 +4421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25:J25"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5217,6 +5271,38 @@
         <v>57.783333335537463</v>
       </c>
     </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42499</v>
+      </c>
+      <c r="B26">
+        <v>142</v>
+      </c>
+      <c r="C26">
+        <v>137</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>5</v>
+      </c>
+      <c r="F26">
+        <v>137</v>
+      </c>
+      <c r="G26">
+        <v>0.96478873239436624</v>
+      </c>
+      <c r="H26" s="2">
+        <v>43.825352112787222</v>
+      </c>
+      <c r="I26" s="2">
+        <v>36.116666675079614</v>
+      </c>
+      <c r="J26" s="2">
+        <v>58.833333340007812</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
                   <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>142</c:v>
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1276,7 +1276,7 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,8 +1291,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376111088"/>
-        <c:axId val="376111480"/>
+        <c:axId val="249351776"/>
+        <c:axId val="249352168"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1498,7 +1498,7 @@
                   <c:v>0.94482758620689655</c:v>
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
-                  <c:v>0.96478873239436624</c:v>
+                  <c:v>0.95804195804195802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,11 +1513,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376112264"/>
-        <c:axId val="376111872"/>
+        <c:axId val="249352952"/>
+        <c:axId val="249352560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376111088"/>
+        <c:axId val="249351776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1631,12 +1631,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376111480"/>
+        <c:crossAx val="249352168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376111480"/>
+        <c:axId val="249352168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1749,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376111088"/>
+        <c:crossAx val="249351776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376111872"/>
+        <c:axId val="249352560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1850,12 +1850,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376112264"/>
+        <c:crossAx val="249352952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376112264"/>
+        <c:axId val="249352952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1865,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="376111872"/>
+        <c:crossAx val="249352560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1981,7 +1981,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2221,7 +2220,7 @@
                   <c:v>42.282068966026038</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43.825352112787222</c:v>
+                  <c:v>43.519580419690811</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2658,11 +2657,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376112656"/>
-        <c:axId val="376113048"/>
+        <c:axId val="249353736"/>
+        <c:axId val="249354128"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376112656"/>
+        <c:axId val="249353736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2709,7 +2708,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2776,12 +2774,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376113048"/>
+        <c:crossAx val="249354128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376113048"/>
+        <c:axId val="249354128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2827,7 +2825,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2894,7 +2891,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376112656"/>
+        <c:crossAx val="249353736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2908,7 +2905,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4086,7 +4082,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4108,7 +4104,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666189" cy="6292746"/>
+    <xdr:ext cx="8662883" cy="6292062"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4423,8 +4419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5276,7 +5272,7 @@
         <v>42499</v>
       </c>
       <c r="B26">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C26">
         <v>137</v>
@@ -5285,16 +5281,16 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F26">
         <v>137</v>
       </c>
       <c r="G26">
-        <v>0.96478873239436624</v>
+        <v>0.95804195804195802</v>
       </c>
       <c r="H26" s="2">
-        <v>43.825352112787222</v>
+        <v>43.519580419690811</v>
       </c>
       <c r="I26" s="2">
         <v>36.116666675079614</v>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -352,6 +352,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -435,6 +438,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -563,6 +569,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -646,6 +655,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,6 +786,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -857,6 +872,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -985,6 +1003,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1067,6 +1088,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1194,6 +1218,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1277,6 +1304,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1291,8 +1321,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249351776"/>
-        <c:axId val="249352168"/>
+        <c:axId val="272555456"/>
+        <c:axId val="272555848"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1416,6 +1446,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1499,6 +1532,9 @@
                 </c:pt>
                 <c:pt idx="24" formatCode="General">
                   <c:v>0.95804195804195802</c:v>
+                </c:pt>
+                <c:pt idx="25" formatCode="General">
+                  <c:v>0.93661971830985913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1513,11 +1549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249352952"/>
-        <c:axId val="249352560"/>
+        <c:axId val="272556632"/>
+        <c:axId val="272556240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249351776"/>
+        <c:axId val="272555456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1631,12 +1667,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249352168"/>
+        <c:crossAx val="272555848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249352168"/>
+        <c:axId val="272555848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1749,12 +1785,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249351776"/>
+        <c:crossAx val="272555456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249352560"/>
+        <c:axId val="272556240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1850,12 +1886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249352952"/>
+        <c:crossAx val="272556632"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249352952"/>
+        <c:axId val="272556632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1901,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="249352560"/>
+        <c:crossAx val="272556240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1981,6 +2017,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2138,6 +2175,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2221,6 +2261,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>43.519580419690811</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.142253521112664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2349,6 +2392,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2432,6 +2478,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>36.116666675079614</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>34.983333328273147</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2560,6 +2609,9 @@
                 <c:pt idx="24">
                   <c:v>42499</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>42500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2643,6 +2695,9 @@
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>58.833333340007812</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>58.716666667023674</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2657,11 +2712,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="249353736"/>
-        <c:axId val="249354128"/>
+        <c:axId val="272557416"/>
+        <c:axId val="272557808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="249353736"/>
+        <c:axId val="272557416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2708,6 +2763,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2774,12 +2830,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249354128"/>
+        <c:crossAx val="272557808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="249354128"/>
+        <c:axId val="272557808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2825,6 +2881,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2891,7 +2948,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="249353736"/>
+        <c:crossAx val="272557416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2905,6 +2962,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4082,7 +4140,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="137" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4093,7 +4151,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4104,7 +4162,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662883" cy="6292062"/>
+    <xdr:ext cx="8682935" cy="6308587"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4131,7 +4189,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8666189" cy="6292746"/>
+    <xdr:ext cx="8682935" cy="6308587"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4417,10 +4475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26:J26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5299,6 +5357,38 @@
         <v>58.833333340007812</v>
       </c>
     </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42500</v>
+      </c>
+      <c r="B27">
+        <v>142</v>
+      </c>
+      <c r="C27">
+        <v>133</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>9</v>
+      </c>
+      <c r="F27">
+        <v>133</v>
+      </c>
+      <c r="G27">
+        <v>0.93661971830985913</v>
+      </c>
+      <c r="H27" s="2">
+        <v>43.142253521112664</v>
+      </c>
+      <c r="I27" s="2">
+        <v>34.983333328273147</v>
+      </c>
+      <c r="J27" s="2">
+        <v>58.716666667023674</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -117,7 +117,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -136,6 +136,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -355,6 +357,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -441,6 +446,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -572,6 +580,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -658,6 +669,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -789,6 +803,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -875,6 +892,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,6 +1026,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1091,6 +1114,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="25">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1221,6 +1247,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1307,6 +1336,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1321,8 +1353,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272555456"/>
-        <c:axId val="272555848"/>
+        <c:axId val="456904200"/>
+        <c:axId val="456904592"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1449,6 +1481,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1521,20 +1556,23 @@
                 <c:pt idx="20">
                   <c:v>0.96527777777777779</c:v>
                 </c:pt>
-                <c:pt idx="21" formatCode="General">
+                <c:pt idx="21">
                   <c:v>1</c:v>
                 </c:pt>
-                <c:pt idx="22" formatCode="General">
+                <c:pt idx="22">
                   <c:v>0.95918367346938771</c:v>
                 </c:pt>
-                <c:pt idx="23" formatCode="General">
+                <c:pt idx="23">
                   <c:v>0.94482758620689655</c:v>
                 </c:pt>
-                <c:pt idx="24" formatCode="General">
+                <c:pt idx="24">
                   <c:v>0.95804195804195802</c:v>
                 </c:pt>
-                <c:pt idx="25" formatCode="General">
+                <c:pt idx="25">
                   <c:v>0.93661971830985913</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97241379310344822</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1549,11 +1587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272556632"/>
-        <c:axId val="272556240"/>
+        <c:axId val="456905376"/>
+        <c:axId val="456904984"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272555456"/>
+        <c:axId val="456904200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1667,12 +1705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272555848"/>
+        <c:crossAx val="456904592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272555848"/>
+        <c:axId val="456904592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1785,12 +1823,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272555456"/>
+        <c:crossAx val="456904200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272556240"/>
+        <c:axId val="456904984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1886,12 +1924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272556632"/>
+        <c:crossAx val="456905376"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272556632"/>
+        <c:axId val="456905376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1901,7 +1939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="272556240"/>
+        <c:crossAx val="456904984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2178,6 +2216,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2264,6 +2305,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>43.142253521112664</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.178160919117389</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2395,6 +2439,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2481,6 +2528,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>34.983333328273147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>35.399999998044223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2612,6 +2662,9 @@
                 <c:pt idx="25">
                   <c:v>42500</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>42501</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2698,6 +2751,9 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>58.716666667023674</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>68.833333330694586</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2712,11 +2768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="272557416"/>
-        <c:axId val="272557808"/>
+        <c:axId val="456906160"/>
+        <c:axId val="456906552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="272557416"/>
+        <c:axId val="456906160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2830,12 +2886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272557808"/>
+        <c:crossAx val="456906552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="272557808"/>
+        <c:axId val="456906552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2948,7 +3004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="272557416"/>
+        <c:crossAx val="456906160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4140,7 +4196,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4151,7 +4207,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4162,7 +4218,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8682935" cy="6308587"/>
+    <xdr:ext cx="8672413" cy="6294493"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4189,7 +4245,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8682935" cy="6308587"/>
+    <xdr:ext cx="8672413" cy="6294493"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4475,10 +4531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27:J27"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5017,7 +5073,7 @@
       <c r="F16">
         <v>130</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="8">
         <f t="shared" si="3"/>
         <v>0.92198581560283688</v>
       </c>
@@ -5050,7 +5106,7 @@
       <c r="F17">
         <v>38</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="8">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
@@ -5083,7 +5139,7 @@
       <c r="F18">
         <v>141</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="8">
         <f t="shared" si="3"/>
         <v>0.97916666666666663</v>
       </c>
@@ -5116,7 +5172,7 @@
       <c r="F19">
         <v>136</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="8">
         <f t="shared" si="3"/>
         <v>0.97841726618705038</v>
       </c>
@@ -5149,7 +5205,7 @@
       <c r="F20">
         <v>142</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="8">
         <f t="shared" si="3"/>
         <v>0.97931034482758617</v>
       </c>
@@ -5182,7 +5238,7 @@
       <c r="F21">
         <v>141</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="8">
         <f t="shared" si="3"/>
         <v>0.97241379310344822</v>
       </c>
@@ -5215,7 +5271,7 @@
       <c r="F22">
         <v>139</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22" s="8">
         <f t="shared" si="3"/>
         <v>0.96527777777777779</v>
       </c>
@@ -5248,7 +5304,7 @@
       <c r="F23">
         <v>146</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="9">
         <v>1</v>
       </c>
       <c r="H23" s="2">
@@ -5280,7 +5336,7 @@
       <c r="F24">
         <v>141</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="9">
         <v>0.95918367346938771</v>
       </c>
       <c r="H24" s="2">
@@ -5312,7 +5368,7 @@
       <c r="F25">
         <v>137</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="9">
         <v>0.94482758620689655</v>
       </c>
       <c r="H25" s="2">
@@ -5344,7 +5400,7 @@
       <c r="F26">
         <v>137</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="9">
         <v>0.95804195804195802</v>
       </c>
       <c r="H26" s="2">
@@ -5376,7 +5432,7 @@
       <c r="F27">
         <v>133</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="9">
         <v>0.93661971830985913</v>
       </c>
       <c r="H27" s="2">
@@ -5387,6 +5443,38 @@
       </c>
       <c r="J27" s="2">
         <v>58.716666667023674</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42501</v>
+      </c>
+      <c r="B28">
+        <v>145</v>
+      </c>
+      <c r="C28">
+        <v>141</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <v>141</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0.97241379310344822</v>
+      </c>
+      <c r="H28" s="2">
+        <v>43.178160919117389</v>
+      </c>
+      <c r="I28" s="2">
+        <v>35.399999998044223</v>
+      </c>
+      <c r="J28" s="2">
+        <v>68.833333330694586</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macosta\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -448,7 +448,7 @@
                   <c:v>142</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>145</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -671,7 +671,7 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -894,7 +894,7 @@
                   <c:v>133</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,8 +1353,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456904200"/>
-        <c:axId val="456904592"/>
+        <c:axId val="206117168"/>
+        <c:axId val="205697848"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1572,7 +1572,7 @@
                   <c:v>0.93661971830985913</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.97241379310344822</c:v>
+                  <c:v>0.97222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,11 +1587,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456905376"/>
-        <c:axId val="456904984"/>
+        <c:axId val="205708856"/>
+        <c:axId val="205702328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456904200"/>
+        <c:axId val="206117168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1705,12 +1705,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456904592"/>
+        <c:crossAx val="205697848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456904592"/>
+        <c:axId val="205697848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1823,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456904200"/>
+        <c:crossAx val="206117168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456904984"/>
+        <c:axId val="205702328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1924,12 +1924,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456905376"/>
+        <c:crossAx val="205708856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456905376"/>
+        <c:axId val="205708856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1939,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="456904984"/>
+        <c:crossAx val="205702328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2307,7 +2307,7 @@
                   <c:v>43.142253521112664</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43.178160919117389</c:v>
+                  <c:v>43.391666666163864</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,11 +2768,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="456906160"/>
-        <c:axId val="456906552"/>
+        <c:axId val="206048728"/>
+        <c:axId val="206049112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="456906160"/>
+        <c:axId val="206048728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2886,12 +2886,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456906552"/>
+        <c:crossAx val="206049112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="456906552"/>
+        <c:axId val="206049112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3004,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="456906160"/>
+        <c:crossAx val="206048728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4196,7 +4196,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4207,7 +4207,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="143" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4218,7 +4218,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672413" cy="6294493"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4245,7 +4245,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8672413" cy="6294493"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4534,7 +4534,7 @@
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="H28" sqref="H28:J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5450,10 +5450,10 @@
         <v>42501</v>
       </c>
       <c r="B28">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C28">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5462,13 +5462,13 @@
         <v>4</v>
       </c>
       <c r="F28">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G28" s="9">
-        <v>0.97241379310344822</v>
+        <v>0.97222222222222221</v>
       </c>
       <c r="H28" s="2">
-        <v>43.178160919117389</v>
+        <v>43.391666666163864</v>
       </c>
       <c r="I28" s="2">
         <v>35.399999998044223</v>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -62,8 +62,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -117,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -138,6 +139,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,6 +364,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -449,6 +456,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -583,6 +593,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -672,6 +685,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -806,6 +822,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -895,6 +914,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1029,6 +1051,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1117,6 +1142,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="26">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1250,6 +1278,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1339,6 +1370,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,8 +1387,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206117168"/>
-        <c:axId val="205697848"/>
+        <c:axId val="293812856"/>
+        <c:axId val="293814424"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1484,6 +1518,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1573,6 +1610,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>0.97222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="27" formatCode="0.0%">
+                  <c:v>0.95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1587,11 +1627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="205708856"/>
-        <c:axId val="205702328"/>
+        <c:axId val="293809328"/>
+        <c:axId val="293809720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206117168"/>
+        <c:axId val="293812856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1705,12 +1745,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205697848"/>
+        <c:crossAx val="293814424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205697848"/>
+        <c:axId val="293814424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1863,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206117168"/>
+        <c:crossAx val="293812856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205702328"/>
+        <c:axId val="293809720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1924,12 +1964,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="205708856"/>
+        <c:crossAx val="293809328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="205708856"/>
+        <c:axId val="293809328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1939,7 +1979,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205702328"/>
+        <c:crossAx val="293809720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2219,6 +2259,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2308,6 +2351,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>43.391666666163864</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>44.467661691188411</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2442,6 +2488,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2531,6 +2580,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>35.399999998044223</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>34.116666658082977</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2665,6 +2717,9 @@
                 <c:pt idx="26">
                   <c:v>42501</c:v>
                 </c:pt>
+                <c:pt idx="27">
+                  <c:v>42502</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2754,6 +2809,9 @@
                 </c:pt>
                 <c:pt idx="26">
                   <c:v>68.833333330694586</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>114.299999991199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2768,11 +2826,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206048728"/>
-        <c:axId val="206049112"/>
+        <c:axId val="245151544"/>
+        <c:axId val="245153112"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206048728"/>
+        <c:axId val="245151544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2886,12 +2944,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206049112"/>
+        <c:crossAx val="245153112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206049112"/>
+        <c:axId val="245153112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3004,7 +3062,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="206048728"/>
+        <c:crossAx val="245151544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4196,7 +4254,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4531,10 +4589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:J28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5477,6 +5535,38 @@
         <v>68.833333330694586</v>
       </c>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42502</v>
+      </c>
+      <c r="B29">
+        <v>141</v>
+      </c>
+      <c r="C29">
+        <v>134</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>7</v>
+      </c>
+      <c r="F29">
+        <v>134</v>
+      </c>
+      <c r="G29" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="H29" s="2">
+        <v>44.467661691188411</v>
+      </c>
+      <c r="I29" s="2">
+        <v>34.116666658082977</v>
+      </c>
+      <c r="J29" s="2">
+        <v>114.299999991199</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -137,10 +137,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1387,8 +1388,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293812856"/>
-        <c:axId val="293814424"/>
+        <c:axId val="347600912"/>
+        <c:axId val="347601304"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1627,11 +1628,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="293809328"/>
-        <c:axId val="293809720"/>
+        <c:axId val="347602088"/>
+        <c:axId val="347601696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="293812856"/>
+        <c:axId val="347600912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1745,12 +1746,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293814424"/>
+        <c:crossAx val="347601304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293814424"/>
+        <c:axId val="347601304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1863,12 +1864,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293812856"/>
+        <c:crossAx val="347600912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293809720"/>
+        <c:axId val="347601696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1964,12 +1965,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="293809328"/>
+        <c:crossAx val="347602088"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="293809328"/>
+        <c:axId val="347602088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1979,7 +1980,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="293809720"/>
+        <c:crossAx val="347601696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2826,11 +2827,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245151544"/>
-        <c:axId val="245153112"/>
+        <c:axId val="347602872"/>
+        <c:axId val="347603264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245151544"/>
+        <c:axId val="347602872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2944,12 +2945,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245153112"/>
+        <c:crossAx val="347603264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245153112"/>
+        <c:axId val="347603264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3062,7 +3063,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245151544"/>
+        <c:crossAx val="347602872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4254,7 +4255,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4276,7 +4277,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8663214" cy="6304643"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4591,8 +4592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5014,556 +5015,556 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>42481</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>127</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <v>121</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="4">
         <v>122</v>
       </c>
       <c r="G13" s="6">
         <f t="shared" si="2"/>
         <v>0.96062992125984248</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="5">
         <v>41.2875661375856</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="5">
         <v>34.016666666138917</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="5">
         <v>58.416666659759358</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>42482</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>72</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <v>61</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <v>9</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="4">
         <v>63</v>
       </c>
       <c r="G14" s="6">
         <f t="shared" si="2"/>
         <v>0.875</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="5">
         <v>43.831944444682449</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="5">
         <v>36.216666667023674</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="5">
         <v>84.883333331672475</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>42483</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="4">
         <v>95</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <v>81</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <v>14</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="4">
         <v>81</v>
       </c>
       <c r="G15" s="6">
         <f t="shared" ref="G15:G22" si="3">F15/B15</f>
         <v>0.85263157894736841</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="5">
         <v>44.743508772520151</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="5">
         <v>36.400000001303852</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="5">
         <v>67.266666664509103</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>42484</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="4">
         <v>141</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <v>128</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <v>11</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="4">
         <v>130</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="6">
         <f t="shared" si="3"/>
         <v>0.92198581560283688</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="5">
         <v>43.81430260078568</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="5">
         <v>35.666666674660519</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="5">
         <v>97.066666663158685</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="3">
         <v>42485</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="4">
         <v>40</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <v>38</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4">
         <v>0</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <v>2</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="4">
         <v>38</v>
       </c>
-      <c r="G17" s="8">
+      <c r="G17" s="6">
         <f t="shared" si="3"/>
         <v>0.95</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="5">
         <v>40.633333333495926</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="5">
         <v>36.56666666502133</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="5">
         <v>50.033333336468786</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="3">
         <v>42491</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
         <v>144</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <v>139</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4">
         <v>2</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <v>3</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="4">
         <v>141</v>
       </c>
-      <c r="G18" s="8">
+      <c r="G18" s="6">
         <f t="shared" si="3"/>
         <v>0.97916666666666663</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="5">
         <v>41.443055555428145</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="5">
         <v>30.483333334559575</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="5">
         <v>49.966666664695367</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="3">
         <v>42492</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>139</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <v>135</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4">
         <v>1</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <v>3</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="4">
         <v>136</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="6">
         <f t="shared" si="3"/>
         <v>0.97841726618705038</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="5">
         <v>41.887889688142756</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="5">
         <v>35.749999996041879</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="5">
         <v>49.916666673962027</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="3">
         <v>42493</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="4">
         <v>145</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <v>142</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4">
         <v>0</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <v>3</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="4">
         <v>142</v>
       </c>
-      <c r="G20" s="8">
+      <c r="G20" s="6">
         <f t="shared" si="3"/>
         <v>0.97931034482758617</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="5">
         <v>42.004050925243064</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="5">
         <v>35.883333329111338</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="5">
         <v>53.433333324501291</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="3">
         <v>42494</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>145</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <v>141</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4">
         <v>0</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <v>4</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="4">
         <v>141</v>
       </c>
-      <c r="G21" s="8">
+      <c r="G21" s="6">
         <f t="shared" si="3"/>
         <v>0.97241379310344822</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="5">
         <v>42.675172413760777</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="5">
         <v>35.500000000465661</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="5">
         <v>55.966666663298383</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="3">
         <v>42495</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>144</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <v>139</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="4">
         <v>0</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <v>5</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="4">
         <v>139</v>
       </c>
-      <c r="G22" s="8">
+      <c r="G22" s="6">
         <f t="shared" si="3"/>
         <v>0.96527777777777779</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="5">
         <v>41.983932853269792</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="5">
         <v>34.449999995995313</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="5">
         <v>53.816666663624346</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="3">
         <v>42496</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>146</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <v>146</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="4">
         <v>0</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <v>0</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="4">
         <v>146</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="8">
         <v>1</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="5">
         <v>43.054794521024768</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="5">
         <v>35.300000006100163</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="5">
         <v>57.366666665766388</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="3">
         <v>42497</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>147</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>141</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4">
         <v>0</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <v>6</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="4">
         <v>141</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="8">
         <v>0.95918367346938771</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="5">
         <v>42.212018140387357</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="5">
         <v>35.083333330694586</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="5">
         <v>52.933333333348855</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="3">
         <v>42498</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>145</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <v>137</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <v>8</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="4">
         <v>137</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="8">
         <v>0.94482758620689655</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="5">
         <v>42.282068966026038</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="5">
         <v>34.999999998835847</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="5">
         <v>57.783333335537463</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="3">
         <v>42499</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="4">
         <v>143</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <v>137</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4">
         <v>0</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <v>6</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="4">
         <v>137</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="8">
         <v>0.95804195804195802</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="5">
         <v>43.519580419690811</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="5">
         <v>36.116666675079614</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="5">
         <v>58.833333340007812</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="3">
         <v>42500</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>142</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <v>133</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4">
         <v>0</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <v>9</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="4">
         <v>133</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="8">
         <v>0.93661971830985913</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="5">
         <v>43.142253521112664</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="5">
         <v>34.983333328273147</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="5">
         <v>58.716666667023674</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="3">
         <v>42501</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>144</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <v>140</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <v>4</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="4">
         <v>140</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="8">
         <v>0.97222222222222221</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="5">
         <v>43.391666666163864</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="5">
         <v>35.399999998044223</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="5">
         <v>68.833333330694586</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="3">
         <v>42502</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="4">
         <v>141</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <v>134</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="4">
         <v>0</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <v>7</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="4">
         <v>134</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="9">
         <v>0.95</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="5">
         <v>44.467661691188411</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="5">
         <v>34.116666658082977</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="5">
         <v>114.299999991199</v>
       </c>
     </row>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\macosta\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -368,6 +368,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -460,6 +472,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -597,6 +621,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -689,6 +725,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -826,6 +874,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -918,6 +978,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1055,6 +1127,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1146,6 +1230,18 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="27">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="31">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1282,6 +1378,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1374,6 +1482,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1388,8 +1508,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347600912"/>
-        <c:axId val="347601304"/>
+        <c:axId val="300825480"/>
+        <c:axId val="300825872"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1522,6 +1642,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1614,6 +1746,18 @@
                 </c:pt>
                 <c:pt idx="27" formatCode="0.0%">
                   <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="28" formatCode="General">
+                  <c:v>0.88811188811188813</c:v>
+                </c:pt>
+                <c:pt idx="29" formatCode="General">
+                  <c:v>0.98620689655172411</c:v>
+                </c:pt>
+                <c:pt idx="30" formatCode="General">
+                  <c:v>0.92253521126760563</c:v>
+                </c:pt>
+                <c:pt idx="31" formatCode="General">
+                  <c:v>0.95488721804511278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1628,11 +1772,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347602088"/>
-        <c:axId val="347601696"/>
+        <c:axId val="300826656"/>
+        <c:axId val="300826264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347600912"/>
+        <c:axId val="300825480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1746,12 +1890,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347601304"/>
+        <c:crossAx val="300825872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347601304"/>
+        <c:axId val="300825872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1864,12 +2008,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347600912"/>
+        <c:crossAx val="300825480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347601696"/>
+        <c:axId val="300826264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1965,12 +2109,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347602088"/>
+        <c:crossAx val="300826656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347602088"/>
+        <c:axId val="300826656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1980,7 +2124,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347601696"/>
+        <c:crossAx val="300826264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2263,6 +2407,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2355,6 +2511,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>44.467661691188411</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42.152214452051197</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.423793103425474</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42.673591549260685</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>44.154761904593265</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2492,6 +2660,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2584,6 +2764,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>34.116666658082977</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.100000001257285</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>34.983333338750526</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>35.66666666418314</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35.399999998044223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2721,6 +2913,18 @@
                 <c:pt idx="27">
                   <c:v>42502</c:v>
                 </c:pt>
+                <c:pt idx="28">
+                  <c:v>42503</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42504</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42505</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42506</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2813,6 +3017,18 @@
                 </c:pt>
                 <c:pt idx="27">
                   <c:v>114.299999991199</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>60.266666673123837</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>56.049999995157123</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>57.20000000204891</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>76.633333330973983</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2827,11 +3043,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347602872"/>
-        <c:axId val="347603264"/>
+        <c:axId val="300827440"/>
+        <c:axId val="300827832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347602872"/>
+        <c:axId val="300827440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2945,12 +3161,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347603264"/>
+        <c:crossAx val="300827832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347603264"/>
+        <c:axId val="300827832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3063,7 +3279,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347602872"/>
+        <c:crossAx val="300827440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4255,7 +4471,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4277,7 +4493,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8663214" cy="6304643"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4590,10 +4806,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H30" sqref="H30:J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5568,6 +5784,134 @@
         <v>114.299999991199</v>
       </c>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>42503</v>
+      </c>
+      <c r="B30">
+        <v>143</v>
+      </c>
+      <c r="C30">
+        <v>127</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>16</v>
+      </c>
+      <c r="F30">
+        <v>127</v>
+      </c>
+      <c r="G30">
+        <v>0.88811188811188813</v>
+      </c>
+      <c r="H30" s="2">
+        <v>42.152214452051197</v>
+      </c>
+      <c r="I30" s="2">
+        <v>35.100000001257285</v>
+      </c>
+      <c r="J30" s="2">
+        <v>60.266666673123837</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42504</v>
+      </c>
+      <c r="B31">
+        <v>145</v>
+      </c>
+      <c r="C31">
+        <v>143</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>143</v>
+      </c>
+      <c r="G31">
+        <v>0.98620689655172411</v>
+      </c>
+      <c r="H31" s="2">
+        <v>42.423793103425474</v>
+      </c>
+      <c r="I31" s="2">
+        <v>34.983333338750526</v>
+      </c>
+      <c r="J31" s="2">
+        <v>56.049999995157123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>42505</v>
+      </c>
+      <c r="B32">
+        <v>142</v>
+      </c>
+      <c r="C32">
+        <v>131</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>11</v>
+      </c>
+      <c r="F32">
+        <v>131</v>
+      </c>
+      <c r="G32">
+        <v>0.92253521126760563</v>
+      </c>
+      <c r="H32" s="2">
+        <v>42.673591549260685</v>
+      </c>
+      <c r="I32" s="2">
+        <v>35.66666666418314</v>
+      </c>
+      <c r="J32" s="2">
+        <v>57.20000000204891</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42506</v>
+      </c>
+      <c r="B33">
+        <v>133</v>
+      </c>
+      <c r="C33">
+        <v>127</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>6</v>
+      </c>
+      <c r="F33">
+        <v>127</v>
+      </c>
+      <c r="G33">
+        <v>0.95488721804511278</v>
+      </c>
+      <c r="H33" s="2">
+        <v>44.154761904593265</v>
+      </c>
+      <c r="I33" s="2">
+        <v>35.399999998044223</v>
+      </c>
+      <c r="J33" s="2">
+        <v>76.633333330973983</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -380,6 +380,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -484,6 +487,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -633,6 +639,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -737,6 +746,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -886,6 +898,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -990,6 +1005,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1139,6 +1157,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1242,6 +1263,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="31">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1390,6 +1414,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1494,6 +1521,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1508,8 +1538,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300825480"/>
-        <c:axId val="300825872"/>
+        <c:axId val="294599304"/>
+        <c:axId val="294599696"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1654,6 +1684,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1758,6 +1791,9 @@
                 </c:pt>
                 <c:pt idx="31" formatCode="General">
                   <c:v>0.95488721804511278</c:v>
+                </c:pt>
+                <c:pt idx="32" formatCode="General">
+                  <c:v>0.94405594405594406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1772,11 +1808,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300826656"/>
-        <c:axId val="300826264"/>
+        <c:axId val="300150232"/>
+        <c:axId val="294600088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300825480"/>
+        <c:axId val="294599304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1890,12 +1926,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300825872"/>
+        <c:crossAx val="294599696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300825872"/>
+        <c:axId val="294599696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2008,12 +2044,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300825480"/>
+        <c:crossAx val="294599304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300826264"/>
+        <c:axId val="294600088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2109,12 +2145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300826656"/>
+        <c:crossAx val="300150232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300826656"/>
+        <c:axId val="300150232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2124,7 +2160,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="300826264"/>
+        <c:crossAx val="294600088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2240,7 +2276,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2419,6 +2454,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2523,6 +2561,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>44.154761904593265</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>43.071445221369565</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2672,6 +2713,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2776,6 +2820,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>35.399999998044223</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34.833333335118368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2925,6 +2972,9 @@
                 <c:pt idx="31">
                   <c:v>42506</c:v>
                 </c:pt>
+                <c:pt idx="32">
+                  <c:v>42507</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3029,6 +3079,9 @@
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>76.633333330973983</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>67.399999997578561</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3043,11 +3096,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300827440"/>
-        <c:axId val="300827832"/>
+        <c:axId val="300151016"/>
+        <c:axId val="300151408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300827440"/>
+        <c:axId val="300151016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3094,7 +3147,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3161,12 +3213,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300827832"/>
+        <c:crossAx val="300151408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300827832"/>
+        <c:axId val="300151408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3212,7 +3264,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3279,7 +3330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300827440"/>
+        <c:crossAx val="300151016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3293,7 +3344,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4471,7 +4521,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4493,7 +4543,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8680739" cy="6299489"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4806,10 +4856,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30:J30"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5912,6 +5962,38 @@
         <v>76.633333330973983</v>
       </c>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>42507</v>
+      </c>
+      <c r="B34">
+        <v>143</v>
+      </c>
+      <c r="C34">
+        <v>135</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>8</v>
+      </c>
+      <c r="F34">
+        <v>135</v>
+      </c>
+      <c r="G34">
+        <v>0.94405594405594406</v>
+      </c>
+      <c r="H34" s="2">
+        <v>43.071445221369565</v>
+      </c>
+      <c r="I34" s="2">
+        <v>34.833333335118368</v>
+      </c>
+      <c r="J34" s="2">
+        <v>67.399999997578561</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -383,6 +383,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -490,6 +493,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>133</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -642,6 +648,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -749,6 +758,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -901,6 +913,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1008,6 +1023,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1160,6 +1178,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1266,6 +1287,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1417,6 +1441,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1524,6 +1551,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1538,8 +1568,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="294599304"/>
-        <c:axId val="294599696"/>
+        <c:axId val="379129496"/>
+        <c:axId val="379129888"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1687,6 +1717,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1794,6 +1827,9 @@
                 </c:pt>
                 <c:pt idx="32" formatCode="General">
                   <c:v>0.94405594405594406</c:v>
+                </c:pt>
+                <c:pt idx="33" formatCode="General">
+                  <c:v>0.95488721804511278</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1808,11 +1844,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300150232"/>
-        <c:axId val="294600088"/>
+        <c:axId val="379130672"/>
+        <c:axId val="379130280"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="294599304"/>
+        <c:axId val="379129496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1926,12 +1962,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294599696"/>
+        <c:crossAx val="379129888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294599696"/>
+        <c:axId val="379129888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2044,12 +2080,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="294599304"/>
+        <c:crossAx val="379129496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="294600088"/>
+        <c:axId val="379130280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2145,12 +2181,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300150232"/>
+        <c:crossAx val="379130672"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300150232"/>
+        <c:axId val="379130672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2160,7 +2196,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="294600088"/>
+        <c:crossAx val="379130280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2276,6 +2312,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2457,6 +2494,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2564,6 +2604,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>43.071445221369565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.217167919802769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2716,6 +2759,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2823,6 +2869,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>34.833333335118368</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.550000001676381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2975,6 +3024,9 @@
                 <c:pt idx="32">
                   <c:v>42507</c:v>
                 </c:pt>
+                <c:pt idx="33">
+                  <c:v>42508</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3082,6 +3134,9 @@
                 </c:pt>
                 <c:pt idx="32">
                   <c:v>67.399999997578561</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>67.416666668141261</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3096,11 +3151,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="300151016"/>
-        <c:axId val="300151408"/>
+        <c:axId val="379131456"/>
+        <c:axId val="379131848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="300151016"/>
+        <c:axId val="379131456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3147,6 +3202,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3213,12 +3269,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300151408"/>
+        <c:crossAx val="379131848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="300151408"/>
+        <c:axId val="379131848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3264,6 +3320,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3330,7 +3387,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="300151016"/>
+        <c:crossAx val="379131456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3344,6 +3401,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4532,7 +4590,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4543,7 +4601,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680739" cy="6299489"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4570,7 +4628,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4856,10 +4914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5994,6 +6052,38 @@
         <v>67.399999997578561</v>
       </c>
     </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>42508</v>
+      </c>
+      <c r="B35">
+        <v>133</v>
+      </c>
+      <c r="C35">
+        <v>127</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>6</v>
+      </c>
+      <c r="F35">
+        <v>127</v>
+      </c>
+      <c r="G35">
+        <v>0.95488721804511278</v>
+      </c>
+      <c r="H35" s="2">
+        <v>44.217167919802769</v>
+      </c>
+      <c r="I35" s="2">
+        <v>35.550000001676381</v>
+      </c>
+      <c r="J35" s="2">
+        <v>67.416666668141261</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -118,7 +118,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -143,6 +143,9 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -386,6 +389,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -496,6 +502,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -651,6 +660,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -761,6 +773,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -916,6 +931,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1026,6 +1044,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1181,6 +1202,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1291,6 +1315,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1444,6 +1471,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1554,6 +1584,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1568,8 +1601,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379129496"/>
-        <c:axId val="379129888"/>
+        <c:axId val="327166352"/>
+        <c:axId val="327167136"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1720,6 +1753,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1830,6 +1866,9 @@
                 </c:pt>
                 <c:pt idx="33" formatCode="General">
                   <c:v>0.95488721804511278</c:v>
+                </c:pt>
+                <c:pt idx="34" formatCode="General">
+                  <c:v>0.91111111111111109</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,11 +1883,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379130672"/>
-        <c:axId val="379130280"/>
+        <c:axId val="327167920"/>
+        <c:axId val="327167528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379129496"/>
+        <c:axId val="327166352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -1962,12 +2001,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379129888"/>
+        <c:crossAx val="327167136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379129888"/>
+        <c:axId val="327167136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2080,12 +2119,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379129496"/>
+        <c:crossAx val="327166352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379130280"/>
+        <c:axId val="327167528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2181,12 +2220,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379130672"/>
+        <c:crossAx val="327167920"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379130672"/>
+        <c:axId val="327167920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2196,7 +2235,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="379130280"/>
+        <c:crossAx val="327167528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2497,6 +2536,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2607,6 +2649,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>44.217167919802769</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.520864197882581</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2762,6 +2807,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2872,6 +2920,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>35.550000001676381</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.399999998044223</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,6 +3078,9 @@
                 <c:pt idx="33">
                   <c:v>42508</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>42509</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3137,6 +3191,9 @@
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>67.416666668141261</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>61.166666663484648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3151,11 +3208,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="379131456"/>
-        <c:axId val="379131848"/>
+        <c:axId val="327168704"/>
+        <c:axId val="327169096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="379131456"/>
+        <c:axId val="327168704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3269,12 +3326,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379131848"/>
+        <c:crossAx val="327169096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="379131848"/>
+        <c:axId val="327169096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3387,7 +3444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="379131456"/>
+        <c:crossAx val="327168704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4579,7 +4636,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4601,7 +4658,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4914,10 +4971,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5896,31 +5953,31 @@
       <c r="A30" s="3">
         <v>42503</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="10">
         <v>143</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="10">
         <v>127</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="10">
         <v>0</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="10">
         <v>16</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="10">
         <v>127</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="10">
         <v>0.88811188811188813</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="11">
         <v>42.152214452051197</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="11">
         <v>35.100000001257285</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="11">
         <v>60.266666673123837</v>
       </c>
     </row>
@@ -5928,31 +5985,31 @@
       <c r="A31" s="3">
         <v>42504</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="10">
         <v>145</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="10">
         <v>143</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="10">
         <v>0</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="10">
         <v>2</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="10">
         <v>143</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="10">
         <v>0.98620689655172411</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="11">
         <v>42.423793103425474</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="11">
         <v>34.983333338750526</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="11">
         <v>56.049999995157123</v>
       </c>
     </row>
@@ -5960,31 +6017,31 @@
       <c r="A32" s="3">
         <v>42505</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="10">
         <v>142</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="10">
         <v>131</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="10">
         <v>0</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="10">
         <v>11</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="10">
         <v>131</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="10">
         <v>0.92253521126760563</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="11">
         <v>42.673591549260685</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="11">
         <v>35.66666666418314</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="11">
         <v>57.20000000204891</v>
       </c>
     </row>
@@ -5992,96 +6049,128 @@
       <c r="A33" s="3">
         <v>42506</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="10">
         <v>133</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="10">
         <v>127</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="10">
         <v>0</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="10">
         <v>6</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="10">
         <v>127</v>
       </c>
-      <c r="G33">
+      <c r="G33" s="10">
         <v>0.95488721804511278</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="11">
         <v>44.154761904593265</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="11">
         <v>35.399999998044223</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="11">
         <v>76.633333330973983</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+      <c r="A34" s="12">
         <v>42507</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="10">
         <v>143</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="10">
         <v>135</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="10">
         <v>0</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="10">
         <v>8</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="10">
         <v>135</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="10">
         <v>0.94405594405594406</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="11">
         <v>43.071445221369565</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="11">
         <v>34.833333335118368</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="11">
         <v>67.399999997578561</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+      <c r="A35" s="12">
         <v>42508</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="10">
         <v>133</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="10">
         <v>127</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="10">
         <v>0</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="10">
         <v>6</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="10">
         <v>127</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="10">
         <v>0.95488721804511278</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="11">
         <v>44.217167919802769</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="11">
         <v>35.550000001676381</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="11">
         <v>67.416666668141261</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>42509</v>
+      </c>
+      <c r="B36" s="10">
+        <v>135</v>
+      </c>
+      <c r="C36" s="10">
+        <v>122</v>
+      </c>
+      <c r="D36" s="10">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>12</v>
+      </c>
+      <c r="F36" s="10">
+        <v>123</v>
+      </c>
+      <c r="G36" s="10">
+        <v>0.91111111111111109</v>
+      </c>
+      <c r="H36" s="11">
+        <v>42.520864197882581</v>
+      </c>
+      <c r="I36" s="11">
+        <v>35.399999998044223</v>
+      </c>
+      <c r="J36" s="11">
+        <v>61.166666663484648</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -392,6 +392,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -505,6 +514,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -663,6 +681,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -776,6 +803,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -934,6 +970,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1047,6 +1092,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>121</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1205,6 +1259,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1318,6 +1381,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1474,6 +1546,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1587,6 +1668,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1601,8 +1691,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327166352"/>
-        <c:axId val="327167136"/>
+        <c:axId val="258090528"/>
+        <c:axId val="352458064"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1756,6 +1846,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1869,6 +1968,15 @@
                 </c:pt>
                 <c:pt idx="34" formatCode="General">
                   <c:v>0.91111111111111109</c:v>
+                </c:pt>
+                <c:pt idx="35" formatCode="General">
+                  <c:v>0.94927536231884058</c:v>
+                </c:pt>
+                <c:pt idx="36" formatCode="General">
+                  <c:v>0.89928057553956831</c:v>
+                </c:pt>
+                <c:pt idx="37" formatCode="General">
+                  <c:v>0.93076923076923079</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1883,11 +1991,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327167920"/>
-        <c:axId val="327167528"/>
+        <c:axId val="352458848"/>
+        <c:axId val="352458456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="327166352"/>
+        <c:axId val="258090528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2001,12 +2109,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327167136"/>
+        <c:crossAx val="352458064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327167136"/>
+        <c:axId val="352458064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2119,12 +2227,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327166352"/>
+        <c:crossAx val="258090528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327167528"/>
+        <c:axId val="352458456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2220,12 +2328,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327167920"/>
+        <c:crossAx val="352458848"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327167920"/>
+        <c:axId val="352458848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2235,7 +2343,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327167528"/>
+        <c:crossAx val="352458456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2539,6 +2647,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2652,6 +2769,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>42.520864197882581</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.964734298409894</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.517146282958322</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>44.905000000228533</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2810,6 +2936,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2923,6 +3058,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>35.399999998044223</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.516666667768732</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.033333332743496</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>35.216666663764045</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3081,6 +3225,15 @@
                 <c:pt idx="34">
                   <c:v>42509</c:v>
                 </c:pt>
+                <c:pt idx="35">
+                  <c:v>42510</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42511</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3194,6 +3347,15 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>61.166666663484648</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>63.233333331299946</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>126.35000000009313</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>65.900000003166497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3208,11 +3370,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327168704"/>
-        <c:axId val="327169096"/>
+        <c:axId val="352459632"/>
+        <c:axId val="352460024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="327168704"/>
+        <c:axId val="352459632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3326,12 +3488,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327169096"/>
+        <c:crossAx val="352460024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327169096"/>
+        <c:axId val="352460024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3444,7 +3606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327168704"/>
+        <c:crossAx val="352459632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4636,7 +4798,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4658,7 +4820,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -4971,15 +5133,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
@@ -6173,6 +6335,102 @@
         <v>61.166666663484648</v>
       </c>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>42510</v>
+      </c>
+      <c r="B37">
+        <v>138</v>
+      </c>
+      <c r="C37">
+        <v>130</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>7</v>
+      </c>
+      <c r="F37">
+        <v>131</v>
+      </c>
+      <c r="G37">
+        <v>0.94927536231884058</v>
+      </c>
+      <c r="H37" s="2">
+        <v>44.964734298409894</v>
+      </c>
+      <c r="I37" s="2">
+        <v>34.516666667768732</v>
+      </c>
+      <c r="J37" s="2">
+        <v>63.233333331299946</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>42511</v>
+      </c>
+      <c r="B38">
+        <v>139</v>
+      </c>
+      <c r="C38">
+        <v>125</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>125</v>
+      </c>
+      <c r="G38">
+        <v>0.89928057553956831</v>
+      </c>
+      <c r="H38" s="2">
+        <v>45.517146282958322</v>
+      </c>
+      <c r="I38" s="2">
+        <v>36.033333332743496</v>
+      </c>
+      <c r="J38" s="2">
+        <v>126.35000000009313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>42512</v>
+      </c>
+      <c r="B39">
+        <v>130</v>
+      </c>
+      <c r="C39">
+        <v>121</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>9</v>
+      </c>
+      <c r="F39">
+        <v>121</v>
+      </c>
+      <c r="G39">
+        <v>0.93076923076923079</v>
+      </c>
+      <c r="H39" s="2">
+        <v>44.905000000228533</v>
+      </c>
+      <c r="I39" s="2">
+        <v>35.216666663764045</v>
+      </c>
+      <c r="J39" s="2">
+        <v>65.900000003166497</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -401,6 +401,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -523,6 +526,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -690,6 +696,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -812,6 +821,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -979,6 +991,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1101,6 +1116,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1268,6 +1286,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1389,6 +1410,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="37">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="38">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1555,6 +1579,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1677,6 +1704,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1691,8 +1721,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="258090528"/>
-        <c:axId val="352458064"/>
+        <c:axId val="164320192"/>
+        <c:axId val="164320584"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1855,6 +1885,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1977,6 +2010,9 @@
                 </c:pt>
                 <c:pt idx="37" formatCode="General">
                   <c:v>0.93076923076923079</c:v>
+                </c:pt>
+                <c:pt idx="38" formatCode="General">
+                  <c:v>0.93939393939393945</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1991,11 +2027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352458848"/>
-        <c:axId val="352458456"/>
+        <c:axId val="164321368"/>
+        <c:axId val="164320976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="258090528"/>
+        <c:axId val="164320192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2109,12 +2145,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352458064"/>
+        <c:crossAx val="164320584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352458064"/>
+        <c:axId val="164320584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2227,12 +2263,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="258090528"/>
+        <c:crossAx val="164320192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352458456"/>
+        <c:axId val="164320976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2328,12 +2364,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352458848"/>
+        <c:crossAx val="164321368"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352458848"/>
+        <c:axId val="164321368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2379,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="352458456"/>
+        <c:crossAx val="164320976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2459,7 +2495,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2656,6 +2691,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2778,6 +2816,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>44.905000000228533</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>45.650378787990618</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2945,6 +2986,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3067,6 +3111,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>35.216666663764045</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.516666660550982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,6 +3281,9 @@
                 <c:pt idx="37">
                   <c:v>42512</c:v>
                 </c:pt>
+                <c:pt idx="38">
+                  <c:v>42513</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3356,6 +3406,9 @@
                 </c:pt>
                 <c:pt idx="37">
                   <c:v>65.900000003166497</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>143.45000000554137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3370,11 +3423,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="352459632"/>
-        <c:axId val="352460024"/>
+        <c:axId val="164322152"/>
+        <c:axId val="164322544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="352459632"/>
+        <c:axId val="164322152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3421,7 +3474,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3488,12 +3540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352460024"/>
+        <c:crossAx val="164322544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="352460024"/>
+        <c:axId val="164322544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3539,7 +3591,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3606,7 +3657,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="352459632"/>
+        <c:crossAx val="164322152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3620,7 +3671,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4798,7 +4848,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4820,7 +4870,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671560" cy="6294120"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5133,10 +5183,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:J39"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6431,6 +6481,38 @@
         <v>65.900000003166497</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>42513</v>
+      </c>
+      <c r="B40">
+        <v>132</v>
+      </c>
+      <c r="C40">
+        <v>124</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>8</v>
+      </c>
+      <c r="F40">
+        <v>124</v>
+      </c>
+      <c r="G40">
+        <v>0.93939393939393945</v>
+      </c>
+      <c r="H40" s="2">
+        <v>45.650378787990618</v>
+      </c>
+      <c r="I40" s="2">
+        <v>35.516666660550982</v>
+      </c>
+      <c r="J40" s="2">
+        <v>143.45000000554137</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -404,6 +404,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -529,6 +532,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,6 +705,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -824,6 +833,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -994,6 +1006,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1119,6 +1134,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>91</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1289,6 +1307,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1414,6 +1435,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1582,6 +1606,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1707,6 +1734,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1721,8 +1751,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164320192"/>
-        <c:axId val="164320584"/>
+        <c:axId val="244363544"/>
+        <c:axId val="390204272"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1888,6 +1918,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2013,6 +2046,9 @@
                 </c:pt>
                 <c:pt idx="38" formatCode="General">
                   <c:v>0.93939393939393945</c:v>
+                </c:pt>
+                <c:pt idx="39" formatCode="General">
+                  <c:v>0.78632478632478631</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2027,11 +2063,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164321368"/>
-        <c:axId val="164320976"/>
+        <c:axId val="390205056"/>
+        <c:axId val="390204664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164320192"/>
+        <c:axId val="244363544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2145,12 +2181,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164320584"/>
+        <c:crossAx val="390204272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164320584"/>
+        <c:axId val="390204272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,12 +2299,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164320192"/>
+        <c:crossAx val="244363544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164320976"/>
+        <c:axId val="390204664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2364,12 +2400,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164321368"/>
+        <c:crossAx val="390205056"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164321368"/>
+        <c:axId val="390205056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2379,7 +2415,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="164320976"/>
+        <c:crossAx val="390204664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2495,6 +2531,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2694,6 +2731,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2819,6 +2859,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>45.650378787990618</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.115099714529642</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2989,6 +3032,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3114,6 +3160,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>35.516666660550982</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>25.833333337213844</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,6 +3333,9 @@
                 <c:pt idx="38">
                   <c:v>42513</c:v>
                 </c:pt>
+                <c:pt idx="39">
+                  <c:v>42514</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3409,6 +3461,9 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>143.45000000554137</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>193.56666667386889</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3423,11 +3478,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="164322152"/>
-        <c:axId val="164322544"/>
+        <c:axId val="390205840"/>
+        <c:axId val="246009888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="164322152"/>
+        <c:axId val="390205840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3474,6 +3529,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3540,12 +3596,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164322544"/>
+        <c:crossAx val="246009888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="164322544"/>
+        <c:axId val="246009888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3591,6 +3647,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3657,7 +3714,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="164322152"/>
+        <c:crossAx val="390205840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3671,6 +3728,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4848,7 +4906,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5183,10 +5241,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H41" sqref="H41:J41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6513,6 +6571,38 @@
         <v>143.45000000554137</v>
       </c>
     </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>42514</v>
+      </c>
+      <c r="B41">
+        <v>117</v>
+      </c>
+      <c r="C41">
+        <v>91</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>92</v>
+      </c>
+      <c r="G41">
+        <v>0.78632478632478631</v>
+      </c>
+      <c r="H41" s="2">
+        <v>42.115099714529642</v>
+      </c>
+      <c r="I41" s="2">
+        <v>25.833333337213844</v>
+      </c>
+      <c r="J41" s="2">
+        <v>193.56666667386889</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -407,6 +407,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -535,6 +538,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -708,6 +714,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -836,6 +845,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1009,6 +1021,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1137,6 +1152,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>117</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1310,6 +1328,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1438,6 +1459,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1609,6 +1633,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1737,6 +1764,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1751,8 +1781,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="244363544"/>
-        <c:axId val="390204272"/>
+        <c:axId val="320617160"/>
+        <c:axId val="320617552"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1921,6 +1951,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2049,6 +2082,9 @@
                 </c:pt>
                 <c:pt idx="39" formatCode="General">
                   <c:v>0.78632478632478631</c:v>
+                </c:pt>
+                <c:pt idx="40" formatCode="General">
+                  <c:v>0.8125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2063,11 +2099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390205056"/>
-        <c:axId val="390204664"/>
+        <c:axId val="320618336"/>
+        <c:axId val="320617944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="244363544"/>
+        <c:axId val="320617160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2181,12 +2217,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390204272"/>
+        <c:crossAx val="320617552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390204272"/>
+        <c:axId val="320617552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2299,12 +2335,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="244363544"/>
+        <c:crossAx val="320617160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390204664"/>
+        <c:axId val="320617944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2400,12 +2436,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390205056"/>
+        <c:crossAx val="320618336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="390205056"/>
+        <c:axId val="320618336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2415,7 +2451,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="390204664"/>
+        <c:crossAx val="320617944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2734,6 +2770,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2862,6 +2901,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>42.115099714529642</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>43.560398861121101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3035,6 +3077,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3163,6 +3208,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>25.833333337213844</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.650000004097819</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3336,6 +3384,9 @@
                 <c:pt idx="39">
                   <c:v>42514</c:v>
                 </c:pt>
+                <c:pt idx="40">
+                  <c:v>42515</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3464,6 +3515,9 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>193.56666667386889</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>55.933333332650363</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3478,11 +3532,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="390205840"/>
-        <c:axId val="246009888"/>
+        <c:axId val="319520712"/>
+        <c:axId val="319521104"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="390205840"/>
+        <c:axId val="319520712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3596,12 +3650,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246009888"/>
+        <c:crossAx val="319521104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246009888"/>
+        <c:axId val="319521104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3714,7 +3768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="390205840"/>
+        <c:crossAx val="319520712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4906,7 +4960,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4917,7 +4971,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4955,7 +5009,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671560" cy="6294120"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5241,10 +5295,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H41" sqref="H41:J41"/>
+      <selection activeCell="H42" sqref="H42:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6603,6 +6657,38 @@
         <v>193.56666667386889</v>
       </c>
     </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>42515</v>
+      </c>
+      <c r="B42">
+        <v>144</v>
+      </c>
+      <c r="C42">
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>27</v>
+      </c>
+      <c r="F42">
+        <v>117</v>
+      </c>
+      <c r="G42">
+        <v>0.8125</v>
+      </c>
+      <c r="H42" s="2">
+        <v>43.560398861121101</v>
+      </c>
+      <c r="I42" s="2">
+        <v>35.650000004097819</v>
+      </c>
+      <c r="J42" s="2">
+        <v>55.933333332650363</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -410,6 +410,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -541,6 +544,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -717,6 +723,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -848,6 +857,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1024,6 +1036,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1155,6 +1170,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1331,6 +1349,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1461,6 +1482,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="40">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="41">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1636,6 +1660,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1767,6 +1794,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1781,8 +1811,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320617160"/>
-        <c:axId val="320617552"/>
+        <c:axId val="351659648"/>
+        <c:axId val="351660040"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1954,6 +1984,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2085,6 +2118,9 @@
                 </c:pt>
                 <c:pt idx="40" formatCode="General">
                   <c:v>0.8125</c:v>
+                </c:pt>
+                <c:pt idx="41" formatCode="General">
+                  <c:v>0.96350364963503654</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2099,11 +2135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320618336"/>
-        <c:axId val="320617944"/>
+        <c:axId val="256913384"/>
+        <c:axId val="256912992"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320617160"/>
+        <c:axId val="351659648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2217,12 +2253,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320617552"/>
+        <c:crossAx val="351660040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320617552"/>
+        <c:axId val="351660040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2335,12 +2371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320617160"/>
+        <c:crossAx val="351659648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320617944"/>
+        <c:axId val="256912992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2436,12 +2472,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320618336"/>
+        <c:crossAx val="256913384"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320618336"/>
+        <c:axId val="256913384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2487,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="320617944"/>
+        <c:crossAx val="256912992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2773,6 +2809,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2904,6 +2943,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>43.560398861121101</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>43.590404041090302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3080,6 +3122,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3211,6 +3256,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>35.650000004097819</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.899999999674037</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3387,6 +3435,9 @@
                 <c:pt idx="40">
                   <c:v>42515</c:v>
                 </c:pt>
+                <c:pt idx="41">
+                  <c:v>42516</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3518,6 +3569,9 @@
                 </c:pt>
                 <c:pt idx="40">
                   <c:v>55.933333332650363</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.800000002142042</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3532,11 +3586,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319520712"/>
-        <c:axId val="319521104"/>
+        <c:axId val="257752104"/>
+        <c:axId val="347935208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319520712"/>
+        <c:axId val="257752104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3650,12 +3704,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319521104"/>
+        <c:crossAx val="347935208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="319521104"/>
+        <c:axId val="347935208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3768,7 +3822,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319520712"/>
+        <c:crossAx val="257752104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4960,7 +5014,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4971,7 +5025,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4982,7 +5036,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5009,7 +5063,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8658311" cy="6281351"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5295,10 +5349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J42"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H42" sqref="H42:J42"/>
+      <selection activeCell="H43" sqref="H43:J43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6689,6 +6743,38 @@
         <v>55.933333332650363</v>
       </c>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42516</v>
+      </c>
+      <c r="B43">
+        <v>137</v>
+      </c>
+      <c r="C43">
+        <v>132</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>5</v>
+      </c>
+      <c r="F43">
+        <v>132</v>
+      </c>
+      <c r="G43">
+        <v>0.96350364963503654</v>
+      </c>
+      <c r="H43" s="2">
+        <v>43.590404041090302</v>
+      </c>
+      <c r="I43" s="2">
+        <v>35.899999999674037</v>
+      </c>
+      <c r="J43" s="2">
+        <v>59.800000002142042</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -90,7 +90,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -113,12 +113,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -143,9 +163,21 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,6 +445,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -547,6 +612,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,6 +824,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -860,6 +991,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1039,6 +1203,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1173,6 +1370,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>135</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1352,6 +1582,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1485,6 +1748,39 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="41">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1663,6 +1959,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1797,6 +2126,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1811,8 +2173,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="351659648"/>
-        <c:axId val="351660040"/>
+        <c:axId val="475704504"/>
+        <c:axId val="475704896"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -1987,6 +2349,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2121,6 +2516,39 @@
                 </c:pt>
                 <c:pt idx="41" formatCode="General">
                   <c:v>0.96350364963503654</c:v>
+                </c:pt>
+                <c:pt idx="42" formatCode="0.0%">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="43" formatCode="General">
+                  <c:v>0.9452054794520548</c:v>
+                </c:pt>
+                <c:pt idx="44" formatCode="General">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="45" formatCode="General">
+                  <c:v>0.900709219858156</c:v>
+                </c:pt>
+                <c:pt idx="46" formatCode="General">
+                  <c:v>0.94160583941605835</c:v>
+                </c:pt>
+                <c:pt idx="47" formatCode="General">
+                  <c:v>0.97222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.0%">
+                  <c:v>0.92361111111111116</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.0%">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.0%">
+                  <c:v>0.93150684931506844</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.0%">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.0%">
+                  <c:v>0.9375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2135,11 +2563,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256913384"/>
-        <c:axId val="256912992"/>
+        <c:axId val="475705680"/>
+        <c:axId val="475705288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="351659648"/>
+        <c:axId val="475704504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2253,12 +2681,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351660040"/>
+        <c:crossAx val="475704896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="351660040"/>
+        <c:axId val="475704896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2371,12 +2799,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351659648"/>
+        <c:crossAx val="475704504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256912992"/>
+        <c:axId val="475705288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2472,12 +2900,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256913384"/>
+        <c:crossAx val="475705680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="256913384"/>
+        <c:axId val="475705680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2487,7 +2915,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="256912992"/>
+        <c:crossAx val="475705288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2812,6 +3240,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2946,6 +3407,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>43.590404041090302</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.309558823504418</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.170289855177067</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42.745035461080754</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>44.086614173056013</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>44.44082687376067</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42.616666667529252</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>44.325814535981394</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>43.779135802217446</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>44.619362745562448</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>43.450362318519339</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>44.205845771591989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3125,6 +3619,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3259,6 +3786,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>35.899999999674037</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>36.333333329530433</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.550000001676381</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.866666669026017</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>34.899999996414408</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.66666666418314</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34.500000007683411</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>35.983333331532776</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>36.58333333558403</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>37.183333329157904</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>10.833333330228925</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>35.283333335537463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3438,6 +3998,39 @@
                 <c:pt idx="41">
                   <c:v>42516</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>42517</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42518</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42519</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42520</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42521</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42522</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42523</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42524</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42525</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42526</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42527</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3572,6 +4165,39 @@
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>59.800000002142042</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>55.783333329018205</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>156.43333332496695</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>53.766666672891006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>60.683333342894912</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>85.833333333721384</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>54.966666660038754</c:v>
+                </c:pt>
+                <c:pt idx="48" formatCode="0.00">
+                  <c:v>57.300000004470348</c:v>
+                </c:pt>
+                <c:pt idx="49" formatCode="0.00">
+                  <c:v>54.883333338657394</c:v>
+                </c:pt>
+                <c:pt idx="50" formatCode="0.00">
+                  <c:v>63.200000000651926</c:v>
+                </c:pt>
+                <c:pt idx="51" formatCode="0.00">
+                  <c:v>64.333333326503634</c:v>
+                </c:pt>
+                <c:pt idx="52" formatCode="0.00">
+                  <c:v>64.966666671680287</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3586,11 +4212,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="257752104"/>
-        <c:axId val="347935208"/>
+        <c:axId val="475706464"/>
+        <c:axId val="475706856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="257752104"/>
+        <c:axId val="475706464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3704,12 +4330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347935208"/>
+        <c:crossAx val="475706856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347935208"/>
+        <c:axId val="475706856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3822,7 +4448,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="257752104"/>
+        <c:crossAx val="475706464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5014,7 +5640,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5025,7 +5651,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="111" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5036,7 +5662,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658311" cy="6281351"/>
+    <xdr:ext cx="8665602" cy="6287932"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5063,7 +5689,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8658311" cy="6281351"/>
+    <xdr:ext cx="8668435" cy="6290612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5349,10 +5975,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H43" sqref="H43:J43"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="8" ySplit="23" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
+      <selection pane="bottomRight" activeCell="H54" sqref="H54:J54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6331,31 +6960,31 @@
       <c r="A30" s="3">
         <v>42503</v>
       </c>
-      <c r="B30" s="10">
+      <c r="B30" s="4">
         <v>143</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="4">
         <v>127</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="4">
         <v>0</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E30" s="4">
         <v>16</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F30" s="4">
         <v>127</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="4">
         <v>0.88811188811188813</v>
       </c>
-      <c r="H30" s="11">
+      <c r="H30" s="5">
         <v>42.152214452051197</v>
       </c>
-      <c r="I30" s="11">
+      <c r="I30" s="5">
         <v>35.100000001257285</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="5">
         <v>60.266666673123837</v>
       </c>
     </row>
@@ -6363,31 +6992,31 @@
       <c r="A31" s="3">
         <v>42504</v>
       </c>
-      <c r="B31" s="10">
+      <c r="B31" s="4">
         <v>145</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="4">
         <v>143</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="4">
         <v>0</v>
       </c>
-      <c r="E31" s="10">
+      <c r="E31" s="4">
         <v>2</v>
       </c>
-      <c r="F31" s="10">
+      <c r="F31" s="4">
         <v>143</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="4">
         <v>0.98620689655172411</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H31" s="5">
         <v>42.423793103425474</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I31" s="5">
         <v>34.983333338750526</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J31" s="5">
         <v>56.049999995157123</v>
       </c>
     </row>
@@ -6395,31 +7024,31 @@
       <c r="A32" s="3">
         <v>42505</v>
       </c>
-      <c r="B32" s="10">
+      <c r="B32" s="4">
         <v>142</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="4">
         <v>131</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D32" s="4">
         <v>0</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="4">
         <v>11</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F32" s="4">
         <v>131</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="4">
         <v>0.92253521126760563</v>
       </c>
-      <c r="H32" s="11">
+      <c r="H32" s="5">
         <v>42.673591549260685</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="5">
         <v>35.66666666418314</v>
       </c>
-      <c r="J32" s="11">
+      <c r="J32" s="5">
         <v>57.20000000204891</v>
       </c>
     </row>
@@ -6427,352 +7056,704 @@
       <c r="A33" s="3">
         <v>42506</v>
       </c>
-      <c r="B33" s="10">
+      <c r="B33" s="4">
         <v>133</v>
       </c>
-      <c r="C33" s="10">
+      <c r="C33" s="4">
         <v>127</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D33" s="4">
         <v>0</v>
       </c>
-      <c r="E33" s="10">
+      <c r="E33" s="4">
         <v>6</v>
       </c>
-      <c r="F33" s="10">
+      <c r="F33" s="4">
         <v>127</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="4">
         <v>0.95488721804511278</v>
       </c>
-      <c r="H33" s="11">
+      <c r="H33" s="5">
         <v>44.154761904593265</v>
       </c>
-      <c r="I33" s="11">
+      <c r="I33" s="5">
         <v>35.399999998044223</v>
       </c>
-      <c r="J33" s="11">
+      <c r="J33" s="5">
         <v>76.633333330973983</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="12">
+      <c r="A34" s="3">
         <v>42507</v>
       </c>
-      <c r="B34" s="10">
+      <c r="B34" s="4">
         <v>143</v>
       </c>
-      <c r="C34" s="10">
+      <c r="C34" s="4">
         <v>135</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D34" s="4">
         <v>0</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E34" s="4">
         <v>8</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F34" s="4">
         <v>135</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="4">
         <v>0.94405594405594406</v>
       </c>
-      <c r="H34" s="11">
+      <c r="H34" s="5">
         <v>43.071445221369565</v>
       </c>
-      <c r="I34" s="11">
+      <c r="I34" s="5">
         <v>34.833333335118368</v>
       </c>
-      <c r="J34" s="11">
+      <c r="J34" s="5">
         <v>67.399999997578561</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="12">
+      <c r="A35" s="3">
         <v>42508</v>
       </c>
-      <c r="B35" s="10">
+      <c r="B35" s="4">
         <v>133</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C35" s="4">
         <v>127</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D35" s="4">
         <v>0</v>
       </c>
-      <c r="E35" s="10">
+      <c r="E35" s="4">
         <v>6</v>
       </c>
-      <c r="F35" s="10">
+      <c r="F35" s="4">
         <v>127</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="4">
         <v>0.95488721804511278</v>
       </c>
-      <c r="H35" s="11">
+      <c r="H35" s="5">
         <v>44.217167919802769</v>
       </c>
-      <c r="I35" s="11">
+      <c r="I35" s="5">
         <v>35.550000001676381</v>
       </c>
-      <c r="J35" s="11">
+      <c r="J35" s="5">
         <v>67.416666668141261</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="12">
+      <c r="A36" s="3">
         <v>42509</v>
       </c>
-      <c r="B36" s="10">
+      <c r="B36" s="4">
         <v>135</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C36" s="4">
         <v>122</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D36" s="4">
         <v>1</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E36" s="4">
         <v>12</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F36" s="4">
         <v>123</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="4">
         <v>0.91111111111111109</v>
       </c>
-      <c r="H36" s="11">
+      <c r="H36" s="5">
         <v>42.520864197882581</v>
       </c>
-      <c r="I36" s="11">
+      <c r="I36" s="5">
         <v>35.399999998044223</v>
       </c>
-      <c r="J36" s="11">
+      <c r="J36" s="5">
         <v>61.166666663484648</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="12">
+      <c r="A37" s="3">
         <v>42510</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="4">
         <v>138</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <v>130</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="4">
         <v>1</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <v>7</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="4">
         <v>131</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="4">
         <v>0.94927536231884058</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="5">
         <v>44.964734298409894</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="5">
         <v>34.516666667768732</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="5">
         <v>63.233333331299946</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="12">
+      <c r="A38" s="3">
         <v>42511</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="4">
         <v>139</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <v>125</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="4">
         <v>0</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <v>14</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="4">
         <v>125</v>
       </c>
-      <c r="G38">
+      <c r="G38" s="4">
         <v>0.89928057553956831</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="5">
         <v>45.517146282958322</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="5">
         <v>36.033333332743496</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="5">
         <v>126.35000000009313</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="12">
+      <c r="A39" s="3">
         <v>42512</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="4">
         <v>130</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <v>121</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="4">
         <v>0</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <v>9</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="4">
         <v>121</v>
       </c>
-      <c r="G39">
+      <c r="G39" s="4">
         <v>0.93076923076923079</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="5">
         <v>44.905000000228533</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="5">
         <v>35.216666663764045</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="5">
         <v>65.900000003166497</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="12">
+      <c r="A40" s="3">
         <v>42513</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="4">
         <v>132</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <v>124</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="4">
         <v>0</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <v>8</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="4">
         <v>124</v>
       </c>
-      <c r="G40">
+      <c r="G40" s="4">
         <v>0.93939393939393945</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="5">
         <v>45.650378787990618</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="5">
         <v>35.516666660550982</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="5">
         <v>143.45000000554137</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="3">
         <v>42514</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="4">
         <v>117</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <v>91</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="4">
         <v>1</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <v>25</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="4">
         <v>92</v>
       </c>
-      <c r="G41">
+      <c r="G41" s="4">
         <v>0.78632478632478631</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="5">
         <v>42.115099714529642</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="5">
         <v>25.833333337213844</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="5">
         <v>193.56666667386889</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="12">
+      <c r="A42" s="3">
         <v>42515</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="4">
         <v>144</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <v>117</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="4">
         <v>0</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <v>27</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="4">
         <v>117</v>
       </c>
-      <c r="G42">
+      <c r="G42" s="4">
         <v>0.8125</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="5">
         <v>43.560398861121101</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="5">
         <v>35.650000004097819</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="5">
         <v>55.933333332650363</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+      <c r="A43" s="3">
         <v>42516</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="4">
         <v>137</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <v>132</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="4">
         <v>0</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <v>5</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="4">
         <v>132</v>
       </c>
-      <c r="G43">
+      <c r="G43" s="4">
         <v>0.96350364963503654</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="5">
         <v>43.590404041090302</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="5">
         <v>35.899999999674037</v>
       </c>
-      <c r="J43" s="2">
+      <c r="J43" s="5">
         <v>59.800000002142042</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <v>42517</v>
+      </c>
+      <c r="B44" s="10">
+        <v>144</v>
+      </c>
+      <c r="C44" s="10">
+        <v>136</v>
+      </c>
+      <c r="D44" s="10">
+        <v>0</v>
+      </c>
+      <c r="E44" s="10">
+        <v>8</v>
+      </c>
+      <c r="F44" s="10">
+        <v>136</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H44" s="5">
+        <v>43.309558823504418</v>
+      </c>
+      <c r="I44" s="5">
+        <v>36.333333329530433</v>
+      </c>
+      <c r="J44" s="5">
+        <v>55.783333329018205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <v>42518</v>
+      </c>
+      <c r="B45" s="4">
+        <v>146</v>
+      </c>
+      <c r="C45" s="4">
+        <v>138</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4">
+        <v>138</v>
+      </c>
+      <c r="G45" s="4">
+        <v>0.9452054794520548</v>
+      </c>
+      <c r="H45" s="5">
+        <v>44.170289855177067</v>
+      </c>
+      <c r="I45" s="5">
+        <v>35.550000001676381</v>
+      </c>
+      <c r="J45" s="5">
+        <v>156.43333332496695</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <v>42519</v>
+      </c>
+      <c r="B46" s="4">
+        <v>144</v>
+      </c>
+      <c r="C46" s="4">
+        <v>141</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0</v>
+      </c>
+      <c r="E46" s="4">
+        <v>3</v>
+      </c>
+      <c r="F46" s="4">
+        <v>141</v>
+      </c>
+      <c r="G46" s="4">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H46" s="5">
+        <v>42.745035461080754</v>
+      </c>
+      <c r="I46" s="5">
+        <v>35.866666669026017</v>
+      </c>
+      <c r="J46" s="5">
+        <v>53.766666672891006</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <v>42520</v>
+      </c>
+      <c r="B47" s="4">
+        <v>141</v>
+      </c>
+      <c r="C47" s="4">
+        <v>127</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0</v>
+      </c>
+      <c r="E47" s="4">
+        <v>14</v>
+      </c>
+      <c r="F47" s="4">
+        <v>127</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.900709219858156</v>
+      </c>
+      <c r="H47" s="5">
+        <v>44.086614173056013</v>
+      </c>
+      <c r="I47" s="5">
+        <v>34.899999996414408</v>
+      </c>
+      <c r="J47" s="5">
+        <v>60.683333342894912</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <v>42521</v>
+      </c>
+      <c r="B48" s="4">
+        <v>137</v>
+      </c>
+      <c r="C48" s="4">
+        <v>129</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0</v>
+      </c>
+      <c r="E48" s="4">
+        <v>8</v>
+      </c>
+      <c r="F48" s="4">
+        <v>129</v>
+      </c>
+      <c r="G48" s="4">
+        <v>0.94160583941605835</v>
+      </c>
+      <c r="H48" s="5">
+        <v>44.44082687376067</v>
+      </c>
+      <c r="I48" s="5">
+        <v>35.66666666418314</v>
+      </c>
+      <c r="J48" s="5">
+        <v>85.833333333721384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <v>42522</v>
+      </c>
+      <c r="B49" s="4">
+        <v>144</v>
+      </c>
+      <c r="C49" s="4">
+        <v>140</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0</v>
+      </c>
+      <c r="E49" s="4">
+        <v>4</v>
+      </c>
+      <c r="F49" s="4">
+        <v>140</v>
+      </c>
+      <c r="G49" s="4">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="H49" s="5">
+        <v>42.616666667529252</v>
+      </c>
+      <c r="I49" s="5">
+        <v>34.500000007683411</v>
+      </c>
+      <c r="J49" s="5">
+        <v>54.966666660038754</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <v>42523</v>
+      </c>
+      <c r="B50" s="11">
+        <v>144</v>
+      </c>
+      <c r="C50" s="11">
+        <v>133</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0</v>
+      </c>
+      <c r="E50" s="11">
+        <v>11</v>
+      </c>
+      <c r="F50" s="11">
+        <v>133</v>
+      </c>
+      <c r="G50" s="12">
+        <v>0.92361111111111116</v>
+      </c>
+      <c r="H50" s="13">
+        <v>44.325814535981394</v>
+      </c>
+      <c r="I50" s="13">
+        <v>35.983333331532776</v>
+      </c>
+      <c r="J50" s="14">
+        <v>57.300000004470348</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <v>42524</v>
+      </c>
+      <c r="B51" s="11">
+        <v>144</v>
+      </c>
+      <c r="C51" s="11">
+        <v>136</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0</v>
+      </c>
+      <c r="E51" s="11">
+        <v>8</v>
+      </c>
+      <c r="F51" s="11">
+        <v>136</v>
+      </c>
+      <c r="G51" s="12">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H51" s="13">
+        <v>43.779135802217446</v>
+      </c>
+      <c r="I51" s="13">
+        <v>36.58333333558403</v>
+      </c>
+      <c r="J51" s="14">
+        <v>54.883333338657394</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <v>42525</v>
+      </c>
+      <c r="B52" s="11">
+        <v>146</v>
+      </c>
+      <c r="C52" s="11">
+        <v>136</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0</v>
+      </c>
+      <c r="E52" s="11">
+        <v>10</v>
+      </c>
+      <c r="F52" s="11">
+        <v>136</v>
+      </c>
+      <c r="G52" s="12">
+        <v>0.93150684931506844</v>
+      </c>
+      <c r="H52" s="13">
+        <v>44.619362745562448</v>
+      </c>
+      <c r="I52" s="13">
+        <v>37.183333329157904</v>
+      </c>
+      <c r="J52" s="14">
+        <v>63.200000000651926</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <v>42526</v>
+      </c>
+      <c r="B53" s="11">
+        <v>144</v>
+      </c>
+      <c r="C53" s="11">
+        <v>138</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
+      <c r="E53" s="11">
+        <v>6</v>
+      </c>
+      <c r="F53" s="11">
+        <v>138</v>
+      </c>
+      <c r="G53" s="12">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H53" s="13">
+        <v>43.450362318519339</v>
+      </c>
+      <c r="I53" s="13">
+        <v>10.833333330228925</v>
+      </c>
+      <c r="J53" s="14">
+        <v>64.333333326503634</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <v>42527</v>
+      </c>
+      <c r="B54" s="11">
+        <v>144</v>
+      </c>
+      <c r="C54" s="11">
+        <v>135</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
+      <c r="E54" s="11">
+        <v>9</v>
+      </c>
+      <c r="F54" s="11">
+        <v>135</v>
+      </c>
+      <c r="G54" s="12">
+        <v>0.9375</v>
+      </c>
+      <c r="H54" s="13">
+        <v>44.205845771591989</v>
+      </c>
+      <c r="I54" s="13">
+        <v>35.283333335537463</v>
+      </c>
+      <c r="J54" s="14">
+        <v>64.966666671680287</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -138,7 +138,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -178,6 +178,12 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -478,6 +484,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -645,6 +660,15 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>132</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -857,6 +881,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1024,6 +1057,15 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1236,6 +1278,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1403,6 +1454,15 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1615,6 +1675,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1781,6 +1850,15 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1992,6 +2070,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2159,6 +2246,15 @@
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2173,8 +2269,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475704504"/>
-        <c:axId val="475704896"/>
+        <c:axId val="381081592"/>
+        <c:axId val="381081984"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2382,6 +2478,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2549,6 +2654,15 @@
                 </c:pt>
                 <c:pt idx="52" formatCode="0.0%">
                   <c:v>0.9375</c:v>
+                </c:pt>
+                <c:pt idx="53" formatCode="0.00%">
+                  <c:v>0.91666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="54" formatCode="0.0%">
+                  <c:v>0.93055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0.0%">
+                  <c:v>0.87121212121212122</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,11 +2677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475705680"/>
-        <c:axId val="475705288"/>
+        <c:axId val="381082768"/>
+        <c:axId val="381082376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475704504"/>
+        <c:axId val="381081592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2681,12 +2795,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475704896"/>
+        <c:crossAx val="381081984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475704896"/>
+        <c:axId val="381081984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2799,12 +2913,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475704504"/>
+        <c:crossAx val="381081592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475705288"/>
+        <c:axId val="381082376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2900,12 +3014,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475705680"/>
+        <c:crossAx val="381082768"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475705680"/>
+        <c:axId val="381082768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2915,7 +3029,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="475705288"/>
+        <c:crossAx val="381082376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3273,6 +3387,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3440,6 +3563,15 @@
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
                   <c:v>44.205845771591989</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.586489899316803</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.7338308456333</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0">
+                  <c:v>42.863768116571009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3652,6 +3784,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3819,6 +3960,15 @@
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
                   <c:v>35.283333335537463</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>36.516666663810611</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>36.216666667023674</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0">
+                  <c:v>31.633333341451362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4031,6 +4181,15 @@
                 <c:pt idx="52">
                   <c:v>42527</c:v>
                 </c:pt>
+                <c:pt idx="53">
+                  <c:v>42528</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42529</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42530</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4198,6 +4357,15 @@
                 </c:pt>
                 <c:pt idx="52" formatCode="0.00">
                   <c:v>64.966666671680287</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>58.450000000884756</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>59.116666666232049</c:v>
+                </c:pt>
+                <c:pt idx="55" formatCode="0">
+                  <c:v>59.699999999720603</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4212,11 +4380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="475706464"/>
-        <c:axId val="475706856"/>
+        <c:axId val="381083552"/>
+        <c:axId val="381083944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="475706464"/>
+        <c:axId val="381083552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4330,12 +4498,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475706856"/>
+        <c:crossAx val="381083944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="475706856"/>
+        <c:axId val="381083944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4448,7 +4616,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="475706464"/>
+        <c:crossAx val="381083552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5640,7 +5808,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5651,7 +5819,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5662,7 +5830,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665602" cy="6287932"/>
+    <xdr:ext cx="8668435" cy="6290612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5689,7 +5857,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8665602" cy="6287932"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5975,13 +6143,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="23" topLeftCell="I39" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="23" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="H54" sqref="H54:J54"/>
+      <selection pane="bottomRight" activeCell="B57" sqref="B57:G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7756,6 +7924,102 @@
         <v>64.966666671680287</v>
       </c>
     </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <v>42528</v>
+      </c>
+      <c r="B55" s="11">
+        <v>144</v>
+      </c>
+      <c r="C55" s="11">
+        <v>132</v>
+      </c>
+      <c r="D55" s="11">
+        <v>0</v>
+      </c>
+      <c r="E55" s="11">
+        <v>12</v>
+      </c>
+      <c r="F55" s="11">
+        <v>132</v>
+      </c>
+      <c r="G55" s="15">
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H55" s="2">
+        <v>43.586489899316803</v>
+      </c>
+      <c r="I55" s="2">
+        <v>36.516666663810611</v>
+      </c>
+      <c r="J55" s="2">
+        <v>58.450000000884756</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <v>42529</v>
+      </c>
+      <c r="B56" s="11">
+        <v>144</v>
+      </c>
+      <c r="C56" s="11">
+        <v>134</v>
+      </c>
+      <c r="D56" s="11">
+        <v>0</v>
+      </c>
+      <c r="E56" s="11">
+        <v>10</v>
+      </c>
+      <c r="F56" s="11">
+        <v>134</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="H56" s="2">
+        <v>44.7338308456333</v>
+      </c>
+      <c r="I56" s="2">
+        <v>36.216666667023674</v>
+      </c>
+      <c r="J56" s="2">
+        <v>59.116666666232049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <v>42530</v>
+      </c>
+      <c r="B57" s="11">
+        <v>132</v>
+      </c>
+      <c r="C57" s="11">
+        <v>115</v>
+      </c>
+      <c r="D57" s="11">
+        <v>0</v>
+      </c>
+      <c r="E57" s="11">
+        <v>17</v>
+      </c>
+      <c r="F57" s="11">
+        <v>115</v>
+      </c>
+      <c r="G57" s="17">
+        <v>0.87121212121212122</v>
+      </c>
+      <c r="H57" s="18">
+        <v>42.863768116571009</v>
+      </c>
+      <c r="I57" s="18">
+        <v>31.633333341451362</v>
+      </c>
+      <c r="J57" s="18">
+        <v>59.699999999720603</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -62,9 +62,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -90,7 +89,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -113,32 +112,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -154,36 +133,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,6 +442,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -669,6 +636,24 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,6 +875,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1053,7 +1056,7 @@
                   <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>138</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>135</c:v>
@@ -1066,6 +1069,24 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,6 +1308,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1450,7 +1489,7 @@
                   <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>138</c:v>
+                  <c:v>137</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>135</c:v>
@@ -1463,6 +1502,24 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1684,6 +1741,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1859,6 +1934,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="55">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="61">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2079,6 +2172,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2242,7 +2353,7 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="52">
                   <c:v>9</c:v>
@@ -2255,6 +2366,24 @@
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2269,8 +2398,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381081592"/>
-        <c:axId val="381081984"/>
+        <c:axId val="244499680"/>
+        <c:axId val="244500072"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2487,6 +2616,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2577,92 +2724,110 @@
                 <c:pt idx="26">
                   <c:v>0.97222222222222221</c:v>
                 </c:pt>
-                <c:pt idx="27" formatCode="0.0%">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="28" formatCode="General">
+                <c:pt idx="27">
+                  <c:v>0.95035460992907805</c:v>
+                </c:pt>
+                <c:pt idx="28">
                   <c:v>0.88811188811188813</c:v>
                 </c:pt>
-                <c:pt idx="29" formatCode="General">
+                <c:pt idx="29">
                   <c:v>0.98620689655172411</c:v>
                 </c:pt>
-                <c:pt idx="30" formatCode="General">
+                <c:pt idx="30">
                   <c:v>0.92253521126760563</c:v>
                 </c:pt>
-                <c:pt idx="31" formatCode="General">
+                <c:pt idx="31">
                   <c:v>0.95488721804511278</c:v>
                 </c:pt>
-                <c:pt idx="32" formatCode="General">
+                <c:pt idx="32">
                   <c:v>0.94405594405594406</c:v>
                 </c:pt>
-                <c:pt idx="33" formatCode="General">
+                <c:pt idx="33">
                   <c:v>0.95488721804511278</c:v>
                 </c:pt>
-                <c:pt idx="34" formatCode="General">
+                <c:pt idx="34">
                   <c:v>0.91111111111111109</c:v>
                 </c:pt>
-                <c:pt idx="35" formatCode="General">
+                <c:pt idx="35">
                   <c:v>0.94927536231884058</c:v>
                 </c:pt>
-                <c:pt idx="36" formatCode="General">
+                <c:pt idx="36">
                   <c:v>0.89928057553956831</c:v>
                 </c:pt>
-                <c:pt idx="37" formatCode="General">
+                <c:pt idx="37">
                   <c:v>0.93076923076923079</c:v>
                 </c:pt>
-                <c:pt idx="38" formatCode="General">
+                <c:pt idx="38">
                   <c:v>0.93939393939393945</c:v>
                 </c:pt>
-                <c:pt idx="39" formatCode="General">
+                <c:pt idx="39">
                   <c:v>0.78632478632478631</c:v>
                 </c:pt>
-                <c:pt idx="40" formatCode="General">
+                <c:pt idx="40">
                   <c:v>0.8125</c:v>
                 </c:pt>
-                <c:pt idx="41" formatCode="General">
+                <c:pt idx="41">
                   <c:v>0.96350364963503654</c:v>
                 </c:pt>
-                <c:pt idx="42" formatCode="0.0%">
+                <c:pt idx="42">
                   <c:v>0.94444444444444442</c:v>
                 </c:pt>
-                <c:pt idx="43" formatCode="General">
+                <c:pt idx="43">
                   <c:v>0.9452054794520548</c:v>
                 </c:pt>
-                <c:pt idx="44" formatCode="General">
+                <c:pt idx="44">
                   <c:v>0.97916666666666663</c:v>
                 </c:pt>
-                <c:pt idx="45" formatCode="General">
+                <c:pt idx="45">
                   <c:v>0.900709219858156</c:v>
                 </c:pt>
-                <c:pt idx="46" formatCode="General">
+                <c:pt idx="46">
                   <c:v>0.94160583941605835</c:v>
                 </c:pt>
-                <c:pt idx="47" formatCode="General">
+                <c:pt idx="47">
                   <c:v>0.97222222222222221</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="0.0%">
+                <c:pt idx="48">
                   <c:v>0.92361111111111116</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="0.0%">
+                <c:pt idx="49">
                   <c:v>0.94444444444444442</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.0%">
+                <c:pt idx="50">
                   <c:v>0.93150684931506844</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="0.0%">
-                  <c:v>0.95833333333333337</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.0%">
+                <c:pt idx="51">
+                  <c:v>0.95138888888888884</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>0.9375</c:v>
                 </c:pt>
-                <c:pt idx="53" formatCode="0.00%">
+                <c:pt idx="53">
                   <c:v>0.91666666666666663</c:v>
                 </c:pt>
-                <c:pt idx="54" formatCode="0.0%">
+                <c:pt idx="54">
                   <c:v>0.93055555555555558</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="0.0%">
+                <c:pt idx="55">
                   <c:v>0.87121212121212122</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.96575342465753422</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.95890410958904104</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.8623188405797102</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.82978723404255317</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.94366197183098588</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.85384615384615381</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,11 +2842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381082768"/>
-        <c:axId val="381082376"/>
+        <c:axId val="244500856"/>
+        <c:axId val="244500464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381081592"/>
+        <c:axId val="244499680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -2795,12 +2960,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381081984"/>
+        <c:crossAx val="244500072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381081984"/>
+        <c:axId val="244500072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2913,12 +3078,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381081592"/>
+        <c:crossAx val="244499680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381082376"/>
+        <c:axId val="244500464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3014,12 +3179,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381082768"/>
+        <c:crossAx val="244500856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381082768"/>
+        <c:axId val="244500856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3029,7 +3194,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="381082376"/>
+        <c:crossAx val="244500464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3396,6 +3561,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3435,7 +3618,7 @@
                 <c:pt idx="9">
                   <c:v>43.481077694218548</c:v>
                 </c:pt>
-                <c:pt idx="10" formatCode="0.00">
+                <c:pt idx="10">
                   <c:v>46.661111110900869</c:v>
                 </c:pt>
                 <c:pt idx="11">
@@ -3549,19 +3732,19 @@
                 <c:pt idx="47">
                   <c:v>42.616666667529252</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="0.00">
+                <c:pt idx="48">
                   <c:v>44.325814535981394</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="0.00">
+                <c:pt idx="49">
                   <c:v>43.779135802217446</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.00">
+                <c:pt idx="50">
                   <c:v>44.619362745562448</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="0.00">
-                  <c:v>43.450362318519339</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.00">
+                <c:pt idx="51">
+                  <c:v>43.473479318429114</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>44.205845771591989</c:v>
                 </c:pt>
                 <c:pt idx="53">
@@ -3570,8 +3753,26 @@
                 <c:pt idx="54">
                   <c:v>44.7338308456333</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="0">
+                <c:pt idx="55">
                   <c:v>42.863768116571009</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.50851063845441</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42.50851063845441</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.93983050772794</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.923789173167627</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.295646765715887</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>45.071321321286362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3793,6 +3994,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3946,19 +4165,19 @@
                 <c:pt idx="47">
                   <c:v>34.500000007683411</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="0.00">
+                <c:pt idx="48">
                   <c:v>35.983333331532776</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="0.00">
+                <c:pt idx="49">
                   <c:v>36.58333333558403</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.00">
+                <c:pt idx="50">
                   <c:v>37.183333329157904</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="0.00">
-                  <c:v>10.833333330228925</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.00">
+                <c:pt idx="51">
+                  <c:v>35.116666661342606</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>35.283333335537463</c:v>
                 </c:pt>
                 <c:pt idx="53">
@@ -3967,8 +4186,26 @@
                 <c:pt idx="54">
                   <c:v>36.216666667023674</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="0">
+                <c:pt idx="55">
                   <c:v>31.633333341451362</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.133333335164934</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.133333335164934</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37.46666666585952</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>36.783333329949528</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>36.400000001303852</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.516666663810611</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4190,6 +4427,24 @@
                 <c:pt idx="55">
                   <c:v>42530</c:v>
                 </c:pt>
+                <c:pt idx="56">
+                  <c:v>42531</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42532</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42533</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42534</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42535</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42536</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4343,19 +4598,19 @@
                 <c:pt idx="47">
                   <c:v>54.966666660038754</c:v>
                 </c:pt>
-                <c:pt idx="48" formatCode="0.00">
+                <c:pt idx="48">
                   <c:v>57.300000004470348</c:v>
                 </c:pt>
-                <c:pt idx="49" formatCode="0.00">
+                <c:pt idx="49">
                   <c:v>54.883333338657394</c:v>
                 </c:pt>
-                <c:pt idx="50" formatCode="0.00">
+                <c:pt idx="50">
                   <c:v>63.200000000651926</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="0.00">
-                  <c:v>64.333333326503634</c:v>
-                </c:pt>
-                <c:pt idx="52" formatCode="0.00">
+                <c:pt idx="51">
+                  <c:v>54.3999999971129</c:v>
+                </c:pt>
+                <c:pt idx="52">
                   <c:v>64.966666671680287</c:v>
                 </c:pt>
                 <c:pt idx="53">
@@ -4364,8 +4619,26 @@
                 <c:pt idx="54">
                   <c:v>59.116666666232049</c:v>
                 </c:pt>
-                <c:pt idx="55" formatCode="0">
+                <c:pt idx="55">
                   <c:v>59.699999999720603</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>59.566666666651145</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>59.566666666651145</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>62.350000001024455</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>76.250000002328306</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>79.533333338331431</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>82.933333336841315</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4380,11 +4653,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="381083552"/>
-        <c:axId val="381083944"/>
+        <c:axId val="244501640"/>
+        <c:axId val="103074848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="381083552"/>
+        <c:axId val="244501640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4498,12 +4771,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381083944"/>
+        <c:crossAx val="103074848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381083944"/>
+        <c:axId val="103074848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4616,7 +4889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381083552"/>
+        <c:crossAx val="244501640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5830,7 +6103,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8665602" cy="6287932"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -5857,7 +6130,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665602" cy="6287932"/>
+    <xdr:ext cx="8668435" cy="6290612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6143,13 +6416,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J57"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="23" topLeftCell="I48" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="23" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="B57" sqref="B57:G57"/>
+      <selection pane="bottomRight" activeCell="I58" sqref="I58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6560,7 +6833,7 @@
         <f t="shared" ref="G12:G14" si="2">F12/B12</f>
         <v>0.89430894308943087</v>
       </c>
-      <c r="H12" s="7">
+      <c r="H12" s="5">
         <v>46.661111110900869</v>
       </c>
       <c r="I12" s="5">
@@ -6656,7 +6929,7 @@
         <v>81</v>
       </c>
       <c r="G15" s="6">
-        <f t="shared" ref="G15:G22" si="3">F15/B15</f>
+        <f t="shared" ref="G15:G62" si="3">F15/B15</f>
         <v>0.85263157894736841</v>
       </c>
       <c r="H15" s="5">
@@ -6919,7 +7192,8 @@
       <c r="F23" s="4">
         <v>146</v>
       </c>
-      <c r="G23" s="8">
+      <c r="G23" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H23" s="5">
@@ -6951,7 +7225,8 @@
       <c r="F24" s="4">
         <v>141</v>
       </c>
-      <c r="G24" s="8">
+      <c r="G24" s="6">
+        <f t="shared" si="3"/>
         <v>0.95918367346938771</v>
       </c>
       <c r="H24" s="5">
@@ -6983,7 +7258,8 @@
       <c r="F25" s="4">
         <v>137</v>
       </c>
-      <c r="G25" s="8">
+      <c r="G25" s="6">
+        <f t="shared" si="3"/>
         <v>0.94482758620689655</v>
       </c>
       <c r="H25" s="5">
@@ -7015,7 +7291,8 @@
       <c r="F26" s="4">
         <v>137</v>
       </c>
-      <c r="G26" s="8">
+      <c r="G26" s="6">
+        <f t="shared" si="3"/>
         <v>0.95804195804195802</v>
       </c>
       <c r="H26" s="5">
@@ -7047,7 +7324,8 @@
       <c r="F27" s="4">
         <v>133</v>
       </c>
-      <c r="G27" s="8">
+      <c r="G27" s="6">
+        <f t="shared" si="3"/>
         <v>0.93661971830985913</v>
       </c>
       <c r="H27" s="5">
@@ -7079,7 +7357,8 @@
       <c r="F28" s="4">
         <v>140</v>
       </c>
-      <c r="G28" s="8">
+      <c r="G28" s="6">
+        <f t="shared" si="3"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="H28" s="5">
@@ -7111,8 +7390,9 @@
       <c r="F29" s="4">
         <v>134</v>
       </c>
-      <c r="G29" s="9">
-        <v>0.95</v>
+      <c r="G29" s="6">
+        <f t="shared" si="3"/>
+        <v>0.95035460992907805</v>
       </c>
       <c r="H29" s="5">
         <v>44.467661691188411</v>
@@ -7143,7 +7423,8 @@
       <c r="F30" s="4">
         <v>127</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
+        <f t="shared" si="3"/>
         <v>0.88811188811188813</v>
       </c>
       <c r="H30" s="5">
@@ -7175,7 +7456,8 @@
       <c r="F31" s="4">
         <v>143</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="6">
+        <f t="shared" si="3"/>
         <v>0.98620689655172411</v>
       </c>
       <c r="H31" s="5">
@@ -7207,7 +7489,8 @@
       <c r="F32" s="4">
         <v>131</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="6">
+        <f t="shared" si="3"/>
         <v>0.92253521126760563</v>
       </c>
       <c r="H32" s="5">
@@ -7239,7 +7522,8 @@
       <c r="F33" s="4">
         <v>127</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="6">
+        <f t="shared" si="3"/>
         <v>0.95488721804511278</v>
       </c>
       <c r="H33" s="5">
@@ -7271,7 +7555,8 @@
       <c r="F34" s="4">
         <v>135</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="6">
+        <f t="shared" si="3"/>
         <v>0.94405594405594406</v>
       </c>
       <c r="H34" s="5">
@@ -7303,7 +7588,8 @@
       <c r="F35" s="4">
         <v>127</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="6">
+        <f t="shared" si="3"/>
         <v>0.95488721804511278</v>
       </c>
       <c r="H35" s="5">
@@ -7335,7 +7621,8 @@
       <c r="F36" s="4">
         <v>123</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="6">
+        <f t="shared" si="3"/>
         <v>0.91111111111111109</v>
       </c>
       <c r="H36" s="5">
@@ -7367,7 +7654,8 @@
       <c r="F37" s="4">
         <v>131</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="6">
+        <f t="shared" si="3"/>
         <v>0.94927536231884058</v>
       </c>
       <c r="H37" s="5">
@@ -7399,7 +7687,8 @@
       <c r="F38" s="4">
         <v>125</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="6">
+        <f t="shared" si="3"/>
         <v>0.89928057553956831</v>
       </c>
       <c r="H38" s="5">
@@ -7431,7 +7720,8 @@
       <c r="F39" s="4">
         <v>121</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="6">
+        <f t="shared" si="3"/>
         <v>0.93076923076923079</v>
       </c>
       <c r="H39" s="5">
@@ -7463,7 +7753,8 @@
       <c r="F40" s="4">
         <v>124</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="6">
+        <f t="shared" si="3"/>
         <v>0.93939393939393945</v>
       </c>
       <c r="H40" s="5">
@@ -7495,7 +7786,8 @@
       <c r="F41" s="4">
         <v>92</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="6">
+        <f t="shared" si="3"/>
         <v>0.78632478632478631</v>
       </c>
       <c r="H41" s="5">
@@ -7527,7 +7819,8 @@
       <c r="F42" s="4">
         <v>117</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="6">
+        <f t="shared" si="3"/>
         <v>0.8125</v>
       </c>
       <c r="H42" s="5">
@@ -7559,7 +7852,8 @@
       <c r="F43" s="4">
         <v>132</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="6">
+        <f t="shared" si="3"/>
         <v>0.96350364963503654</v>
       </c>
       <c r="H43" s="5">
@@ -7576,22 +7870,23 @@
       <c r="A44" s="3">
         <v>42517</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B44" s="4">
         <v>144</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="4">
         <v>136</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D44" s="4">
         <v>0</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="4">
         <v>8</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F44" s="4">
         <v>136</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="6">
+        <f t="shared" si="3"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="H44" s="5">
@@ -7623,7 +7918,8 @@
       <c r="F45" s="4">
         <v>138</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="6">
+        <f t="shared" si="3"/>
         <v>0.9452054794520548</v>
       </c>
       <c r="H45" s="5">
@@ -7655,7 +7951,8 @@
       <c r="F46" s="4">
         <v>141</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="6">
+        <f t="shared" si="3"/>
         <v>0.97916666666666663</v>
       </c>
       <c r="H46" s="5">
@@ -7687,7 +7984,8 @@
       <c r="F47" s="4">
         <v>127</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="6">
+        <f t="shared" si="3"/>
         <v>0.900709219858156</v>
       </c>
       <c r="H47" s="5">
@@ -7719,7 +8017,8 @@
       <c r="F48" s="4">
         <v>129</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="6">
+        <f t="shared" si="3"/>
         <v>0.94160583941605835</v>
       </c>
       <c r="H48" s="5">
@@ -7751,7 +8050,8 @@
       <c r="F49" s="4">
         <v>140</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="6">
+        <f t="shared" si="3"/>
         <v>0.97222222222222221</v>
       </c>
       <c r="H49" s="5">
@@ -7768,31 +8068,32 @@
       <c r="A50" s="3">
         <v>42523</v>
       </c>
-      <c r="B50" s="11">
+      <c r="B50" s="4">
         <v>144</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="4">
         <v>133</v>
       </c>
       <c r="D50" s="4">
         <v>0</v>
       </c>
-      <c r="E50" s="11">
+      <c r="E50" s="4">
         <v>11</v>
       </c>
-      <c r="F50" s="11">
+      <c r="F50" s="4">
         <v>133</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="6">
+        <f t="shared" si="3"/>
         <v>0.92361111111111116</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="5">
         <v>44.325814535981394</v>
       </c>
-      <c r="I50" s="13">
+      <c r="I50" s="5">
         <v>35.983333331532776</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="5">
         <v>57.300000004470348</v>
       </c>
     </row>
@@ -7800,31 +8101,32 @@
       <c r="A51" s="3">
         <v>42524</v>
       </c>
-      <c r="B51" s="11">
+      <c r="B51" s="4">
         <v>144</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="4">
         <v>136</v>
       </c>
       <c r="D51" s="4">
         <v>0</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E51" s="4">
         <v>8</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F51" s="4">
         <v>136</v>
       </c>
-      <c r="G51" s="12">
+      <c r="G51" s="6">
+        <f t="shared" si="3"/>
         <v>0.94444444444444442</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="5">
         <v>43.779135802217446</v>
       </c>
-      <c r="I51" s="13">
+      <c r="I51" s="5">
         <v>36.58333333558403</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="5">
         <v>54.883333338657394</v>
       </c>
     </row>
@@ -7832,31 +8134,32 @@
       <c r="A52" s="3">
         <v>42525</v>
       </c>
-      <c r="B52" s="11">
+      <c r="B52" s="4">
         <v>146</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="4">
         <v>136</v>
       </c>
       <c r="D52" s="4">
         <v>0</v>
       </c>
-      <c r="E52" s="11">
+      <c r="E52" s="4">
         <v>10</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="4">
         <v>136</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G52" s="6">
+        <f t="shared" si="3"/>
         <v>0.93150684931506844</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="5">
         <v>44.619362745562448</v>
       </c>
-      <c r="I52" s="13">
+      <c r="I52" s="5">
         <v>37.183333329157904</v>
       </c>
-      <c r="J52" s="14">
+      <c r="J52" s="5">
         <v>63.200000000651926</v>
       </c>
     </row>
@@ -7864,63 +8167,65 @@
       <c r="A53" s="3">
         <v>42526</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="4">
         <v>144</v>
       </c>
-      <c r="C53" s="11">
-        <v>138</v>
+      <c r="C53" s="4">
+        <v>137</v>
       </c>
       <c r="D53" s="4">
         <v>0</v>
       </c>
-      <c r="E53" s="11">
-        <v>6</v>
-      </c>
-      <c r="F53" s="11">
-        <v>138</v>
-      </c>
-      <c r="G53" s="12">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="H53" s="13">
-        <v>43.450362318519339</v>
-      </c>
-      <c r="I53" s="13">
-        <v>10.833333330228925</v>
-      </c>
-      <c r="J53" s="14">
-        <v>64.333333326503634</v>
+      <c r="E53" s="4">
+        <v>7</v>
+      </c>
+      <c r="F53" s="4">
+        <v>137</v>
+      </c>
+      <c r="G53" s="6">
+        <f t="shared" si="3"/>
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H53" s="5">
+        <v>43.473479318429114</v>
+      </c>
+      <c r="I53" s="5">
+        <v>35.116666661342606</v>
+      </c>
+      <c r="J53" s="5">
+        <v>54.3999999971129</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42527</v>
       </c>
-      <c r="B54" s="11">
+      <c r="B54" s="4">
         <v>144</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="4">
         <v>135</v>
       </c>
       <c r="D54" s="4">
         <v>0</v>
       </c>
-      <c r="E54" s="11">
+      <c r="E54" s="4">
         <v>9</v>
       </c>
-      <c r="F54" s="11">
+      <c r="F54" s="4">
         <v>135</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G54" s="6">
+        <f t="shared" si="3"/>
         <v>0.9375</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="5">
         <v>44.205845771591989</v>
       </c>
-      <c r="I54" s="13">
+      <c r="I54" s="5">
         <v>35.283333335537463</v>
       </c>
-      <c r="J54" s="14">
+      <c r="J54" s="5">
         <v>64.966666671680287</v>
       </c>
     </row>
@@ -7928,31 +8233,32 @@
       <c r="A55" s="3">
         <v>42528</v>
       </c>
-      <c r="B55" s="11">
+      <c r="B55" s="4">
         <v>144</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="4">
         <v>132</v>
       </c>
-      <c r="D55" s="11">
+      <c r="D55" s="4">
         <v>0</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E55" s="4">
         <v>12</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="4">
         <v>132</v>
       </c>
-      <c r="G55" s="15">
+      <c r="G55" s="6">
+        <f t="shared" si="3"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="5">
         <v>43.586489899316803</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="5">
         <v>36.516666663810611</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="5">
         <v>58.450000000884756</v>
       </c>
     </row>
@@ -7960,31 +8266,32 @@
       <c r="A56" s="3">
         <v>42529</v>
       </c>
-      <c r="B56" s="11">
+      <c r="B56" s="4">
         <v>144</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="4">
         <v>134</v>
       </c>
-      <c r="D56" s="11">
+      <c r="D56" s="4">
         <v>0</v>
       </c>
-      <c r="E56" s="11">
+      <c r="E56" s="4">
         <v>10</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="4">
         <v>134</v>
       </c>
-      <c r="G56" s="16">
+      <c r="G56" s="6">
+        <f t="shared" si="3"/>
         <v>0.93055555555555558</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="5">
         <v>44.7338308456333</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="5">
         <v>36.216666667023674</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="5">
         <v>59.116666666232049</v>
       </c>
     </row>
@@ -7992,32 +8299,235 @@
       <c r="A57" s="3">
         <v>42530</v>
       </c>
-      <c r="B57" s="11">
+      <c r="B57" s="4">
         <v>132</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="4">
         <v>115</v>
       </c>
-      <c r="D57" s="11">
+      <c r="D57" s="4">
         <v>0</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E57" s="4">
         <v>17</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="4">
         <v>115</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G57" s="6">
+        <f t="shared" si="3"/>
         <v>0.87121212121212122</v>
       </c>
-      <c r="H57" s="18">
+      <c r="H57" s="5">
         <v>42.863768116571009</v>
       </c>
-      <c r="I57" s="18">
+      <c r="I57" s="5">
         <v>31.633333341451362</v>
       </c>
-      <c r="J57" s="18">
+      <c r="J57" s="5">
         <v>59.699999999720603</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <v>42531</v>
+      </c>
+      <c r="B58" s="4">
+        <v>146</v>
+      </c>
+      <c r="C58" s="4">
+        <v>141</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
+      <c r="E58" s="4">
+        <v>5</v>
+      </c>
+      <c r="F58" s="4">
+        <v>141</v>
+      </c>
+      <c r="G58" s="6">
+        <f t="shared" si="3"/>
+        <v>0.96575342465753422</v>
+      </c>
+      <c r="H58" s="5">
+        <v>42.50851063845441</v>
+      </c>
+      <c r="I58" s="5">
+        <v>36.133333335164934</v>
+      </c>
+      <c r="J58" s="5">
+        <v>59.566666666651145</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <v>42532</v>
+      </c>
+      <c r="B59" s="4">
+        <v>146</v>
+      </c>
+      <c r="C59" s="4">
+        <v>140</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
+      <c r="E59" s="4">
+        <v>6</v>
+      </c>
+      <c r="F59" s="4">
+        <v>140</v>
+      </c>
+      <c r="G59" s="6">
+        <f t="shared" si="3"/>
+        <v>0.95890410958904104</v>
+      </c>
+      <c r="H59" s="5">
+        <v>42.50851063845441</v>
+      </c>
+      <c r="I59" s="5">
+        <v>36.133333335164934</v>
+      </c>
+      <c r="J59" s="5">
+        <v>59.566666666651145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <v>42533</v>
+      </c>
+      <c r="B60" s="4">
+        <v>138</v>
+      </c>
+      <c r="C60" s="4">
+        <v>119</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
+      <c r="E60" s="4">
+        <v>19</v>
+      </c>
+      <c r="F60" s="4">
+        <f>C60</f>
+        <v>119</v>
+      </c>
+      <c r="G60" s="6">
+        <f t="shared" si="3"/>
+        <v>0.8623188405797102</v>
+      </c>
+      <c r="H60" s="5">
+        <v>44.93983050772794</v>
+      </c>
+      <c r="I60" s="5">
+        <v>37.46666666585952</v>
+      </c>
+      <c r="J60" s="5">
+        <v>62.350000001024455</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <v>42534</v>
+      </c>
+      <c r="B61" s="4">
+        <v>141</v>
+      </c>
+      <c r="C61" s="4">
+        <v>117</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
+      <c r="E61" s="4">
+        <v>24</v>
+      </c>
+      <c r="F61" s="4">
+        <f>C61</f>
+        <v>117</v>
+      </c>
+      <c r="G61" s="6">
+        <f t="shared" si="3"/>
+        <v>0.82978723404255317</v>
+      </c>
+      <c r="H61" s="5">
+        <v>44.923789173167627</v>
+      </c>
+      <c r="I61" s="5">
+        <v>36.783333329949528</v>
+      </c>
+      <c r="J61" s="5">
+        <v>76.250000002328306</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <v>42535</v>
+      </c>
+      <c r="B62" s="4">
+        <v>142</v>
+      </c>
+      <c r="C62" s="4">
+        <v>134</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
+      <c r="E62" s="4">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4">
+        <f>C62</f>
+        <v>134</v>
+      </c>
+      <c r="G62" s="6">
+        <f t="shared" si="3"/>
+        <v>0.94366197183098588</v>
+      </c>
+      <c r="H62" s="5">
+        <v>44.295646765715887</v>
+      </c>
+      <c r="I62" s="5">
+        <v>36.400000001303852</v>
+      </c>
+      <c r="J62" s="5">
+        <v>79.533333338331431</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <v>42536</v>
+      </c>
+      <c r="B63" s="4">
+        <v>130</v>
+      </c>
+      <c r="C63" s="4">
+        <v>111</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
+      <c r="E63" s="4">
+        <v>19</v>
+      </c>
+      <c r="F63" s="4">
+        <f>C63</f>
+        <v>111</v>
+      </c>
+      <c r="G63" s="6">
+        <f t="shared" ref="G63" si="4">F63/B63</f>
+        <v>0.85384615384615381</v>
+      </c>
+      <c r="H63" s="5">
+        <v>45.071321321286362</v>
+      </c>
+      <c r="I63" s="5">
+        <v>36.516666663810611</v>
+      </c>
+      <c r="J63" s="5">
+        <v>82.933333336841315</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -478,6 +478,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -690,6 +693,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>142</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,6 +953,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1159,6 +1168,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1416,6 +1428,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1628,6 +1643,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>126</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1885,6 +1903,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2096,6 +2117,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="67">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="68">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2352,6 +2376,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2564,6 +2591,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2578,8 +2608,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="227849832"/>
-        <c:axId val="227850224"/>
+        <c:axId val="308892480"/>
+        <c:axId val="308892872"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2832,6 +2862,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3044,6 +3077,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>0.78832116788321172</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.88732394366197187</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3058,11 +3094,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526206360"/>
-        <c:axId val="526205968"/>
+        <c:axId val="308893656"/>
+        <c:axId val="308893264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="227849832"/>
+        <c:axId val="308892480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3176,12 +3212,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227850224"/>
+        <c:crossAx val="308892872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="227850224"/>
+        <c:axId val="308892872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3294,12 +3330,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="227849832"/>
+        <c:crossAx val="308892480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526205968"/>
+        <c:axId val="308893264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3395,12 +3431,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526206360"/>
+        <c:crossAx val="308893656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526206360"/>
+        <c:axId val="308893656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3410,7 +3446,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="526205968"/>
+        <c:crossAx val="308893264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3813,6 +3849,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4025,6 +4064,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>45.62978395008637</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>44.351851851845694</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4282,6 +4324,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4494,6 +4539,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>36.333333329530433</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35.966666660970077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4751,6 +4799,9 @@
                 <c:pt idx="67">
                   <c:v>42542</c:v>
                 </c:pt>
+                <c:pt idx="68">
+                  <c:v>42543</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4963,6 +5014,9 @@
                 </c:pt>
                 <c:pt idx="67">
                   <c:v>61.383333338890225</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>56.366666662506759</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4977,11 +5031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="526207144"/>
-        <c:axId val="526207536"/>
+        <c:axId val="308894440"/>
+        <c:axId val="308894832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="526207144"/>
+        <c:axId val="308894440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -5095,12 +5149,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526207536"/>
+        <c:crossAx val="308894832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="526207536"/>
+        <c:axId val="308894832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5213,7 +5267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="526207144"/>
+        <c:crossAx val="308894440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6405,7 +6459,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6416,7 +6470,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="133" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6427,7 +6481,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665602" cy="6287932"/>
+    <xdr:ext cx="8668435" cy="6290612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6454,7 +6508,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665602" cy="6287932"/>
+    <xdr:ext cx="8668435" cy="6290612"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6740,13 +6794,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="8" ySplit="23" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="I64" sqref="I64"/>
+      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9058,6 +9112,40 @@
         <v>61.383333338890225</v>
       </c>
     </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>42543</v>
+      </c>
+      <c r="B70" s="4">
+        <v>142</v>
+      </c>
+      <c r="C70" s="4">
+        <v>126</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
+      <c r="E70" s="4">
+        <v>16</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" ref="F70" si="11">C70</f>
+        <v>126</v>
+      </c>
+      <c r="G70" s="6">
+        <f t="shared" ref="G70" si="12">F70/B70</f>
+        <v>0.88732394366197187</v>
+      </c>
+      <c r="H70" s="5">
+        <v>44.351851851845694</v>
+      </c>
+      <c r="I70" s="5">
+        <v>35.966666660970077</v>
+      </c>
+      <c r="J70" s="5">
+        <v>56.366666662506759</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wabtec\Documents\GitHub\eaglep3-reporting\EC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stu\Documents\GitHub\eaglep3-reporting\EC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Date</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Total Completed %</t>
+  </si>
+  <si>
+    <t>Wireless Crossing Completion %age</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -112,12 +115,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -131,6 +145,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -191,7 +212,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -481,6 +501,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -956,6 +991,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1431,6 +1481,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1906,6 +1971,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2379,6 +2459,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2608,8 +2703,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308892480"/>
-        <c:axId val="308892872"/>
+        <c:axId val="179976504"/>
+        <c:axId val="179976896"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2865,6 +2960,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3094,11 +3204,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308893656"/>
-        <c:axId val="308893264"/>
+        <c:axId val="179977680"/>
+        <c:axId val="179977288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308892480"/>
+        <c:axId val="179976504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3145,7 +3255,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3212,12 +3321,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308892872"/>
+        <c:crossAx val="179976896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308892872"/>
+        <c:axId val="179976896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3263,7 +3372,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3330,12 +3438,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308892480"/>
+        <c:crossAx val="179976504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308893264"/>
+        <c:axId val="179977288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3370,7 +3478,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3431,12 +3538,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308893656"/>
+        <c:crossAx val="179977680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308893656"/>
+        <c:axId val="179977680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3446,7 +3553,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="308893264"/>
+        <c:crossAx val="179977288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3460,7 +3567,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3562,7 +3668,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3852,6 +3957,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4327,6 +4447,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4802,6 +4937,21 @@
                 <c:pt idx="68">
                   <c:v>42543</c:v>
                 </c:pt>
+                <c:pt idx="69">
+                  <c:v>42544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42545</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42546</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42547</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42548</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5031,11 +5181,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308894440"/>
-        <c:axId val="308894832"/>
+        <c:axId val="230730320"/>
+        <c:axId val="230730712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308894440"/>
+        <c:axId val="230730320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -5082,7 +5232,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5149,12 +5298,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308894832"/>
+        <c:crossAx val="230730712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308894832"/>
+        <c:axId val="230730712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5200,7 +5349,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5267,7 +5415,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308894440"/>
+        <c:crossAx val="230730320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5281,7 +5429,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6794,13 +6941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:K79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" ySplit="23" topLeftCell="I54" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I1" sqref="I1"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24"/>
-      <selection pane="bottomRight" activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6817,7 +6961,7 @@
     <col min="10" max="10" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -6848,8 +6992,11 @@
       <c r="J1" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>42469</v>
       </c>
@@ -6881,8 +7028,9 @@
       <c r="J2" s="5">
         <v>59</v>
       </c>
+      <c r="K2" s="9"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f>A2+1</f>
         <v>42470</v>
@@ -6916,7 +7064,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <f t="shared" ref="A4:A11" si="1">A3+1</f>
         <v>42471</v>
@@ -6950,7 +7098,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <f t="shared" si="1"/>
         <v>42472</v>
@@ -6984,7 +7132,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="1"/>
         <v>42473</v>
@@ -7018,7 +7166,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <f t="shared" si="1"/>
         <v>42474</v>
@@ -7052,7 +7200,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="1"/>
         <v>42475</v>
@@ -7086,7 +7234,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="1"/>
         <v>42476</v>
@@ -7120,7 +7268,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="1"/>
         <v>42477</v>
@@ -7154,7 +7302,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="1"/>
         <v>42478</v>
@@ -7188,7 +7336,7 @@
         <v>90.383333328645676</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>42480</v>
       </c>
@@ -7221,7 +7369,7 @@
         <v>99.666666673729196</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>42481</v>
       </c>
@@ -7254,7 +7402,7 @@
         <v>58.416666659759358</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>42482</v>
       </c>
@@ -7287,7 +7435,7 @@
         <v>84.883333331672475</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>42483</v>
       </c>
@@ -7320,7 +7468,7 @@
         <v>67.266666664509103</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>42484</v>
       </c>
@@ -7353,7 +7501,7 @@
         <v>97.066666663158685</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>42485</v>
       </c>
@@ -7386,7 +7534,7 @@
         <v>50.033333336468786</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>42491</v>
       </c>
@@ -7418,8 +7566,11 @@
       <c r="J18" s="5">
         <v>49.966666664695367</v>
       </c>
+      <c r="K18" s="8">
+        <v>0.97916666666666663</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>42492</v>
       </c>
@@ -7451,8 +7602,11 @@
       <c r="J19" s="5">
         <v>49.916666673962027</v>
       </c>
+      <c r="K19" s="8">
+        <v>0.96185446009389675</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>42493</v>
       </c>
@@ -7484,8 +7638,11 @@
       <c r="J20" s="5">
         <v>53.433333324501291</v>
       </c>
+      <c r="K20" s="8">
+        <v>0.97902097902097907</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>42494</v>
       </c>
@@ -7517,8 +7674,11 @@
       <c r="J21" s="5">
         <v>55.966666663298383</v>
       </c>
+      <c r="K21" s="8">
+        <v>0.95862068965517244</v>
+      </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>42495</v>
       </c>
@@ -7550,8 +7710,11 @@
       <c r="J22" s="5">
         <v>53.816666663624346</v>
       </c>
+      <c r="K22" s="8">
+        <v>0.97280092592592604</v>
+      </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>42496</v>
       </c>
@@ -7583,8 +7746,11 @@
       <c r="J23" s="5">
         <v>57.366666665766388</v>
       </c>
+      <c r="K23" s="8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>42497</v>
       </c>
@@ -7616,8 +7782,11 @@
       <c r="J24" s="5">
         <v>52.933333333348855</v>
       </c>
+      <c r="K24" s="8">
+        <v>0.97569444444444442</v>
+      </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>42498</v>
       </c>
@@ -7649,8 +7818,11 @@
       <c r="J25" s="5">
         <v>57.783333335537463</v>
       </c>
+      <c r="K25" s="8">
+        <v>0.95659722222222221</v>
+      </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>42499</v>
       </c>
@@ -7682,8 +7854,11 @@
       <c r="J26" s="5">
         <v>58.833333340007812</v>
       </c>
+      <c r="K26" s="8">
+        <v>0.96238425925925908</v>
+      </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>42500</v>
       </c>
@@ -7715,8 +7890,11 @@
       <c r="J27" s="5">
         <v>58.716666667023674</v>
       </c>
+      <c r="K27" s="8">
+        <v>0.96354166666666663</v>
+      </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>42501</v>
       </c>
@@ -7748,8 +7926,11 @@
       <c r="J28" s="5">
         <v>68.833333330694586</v>
       </c>
+      <c r="K28" s="8">
+        <v>0.99421296296296291</v>
+      </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>42502</v>
       </c>
@@ -7781,8 +7962,11 @@
       <c r="J29" s="5">
         <v>114.299999991199</v>
       </c>
+      <c r="K29" s="8">
+        <v>0.97872340425531912</v>
+      </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>42503</v>
       </c>
@@ -7814,8 +7998,11 @@
       <c r="J30" s="5">
         <v>60.266666673123837</v>
       </c>
+      <c r="K30" s="8">
+        <v>0.93865740740740755</v>
+      </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>42504</v>
       </c>
@@ -7847,8 +8034,11 @@
       <c r="J31" s="5">
         <v>56.049999995157123</v>
       </c>
+      <c r="K31" s="8">
+        <v>0.98611111111111116</v>
+      </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>42505</v>
       </c>
@@ -7880,8 +8070,11 @@
       <c r="J32" s="5">
         <v>57.20000000204891</v>
       </c>
+      <c r="K32" s="8">
+        <v>0.91956018518518534</v>
+      </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>42506</v>
       </c>
@@ -7913,8 +8106,11 @@
       <c r="J33" s="5">
         <v>76.633333330973983</v>
       </c>
+      <c r="K33" s="8">
+        <v>0.97407407407407409</v>
+      </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>42507</v>
       </c>
@@ -7946,8 +8142,11 @@
       <c r="J34" s="5">
         <v>67.399999997578561</v>
       </c>
+      <c r="K34" s="8">
+        <v>0.96270396270396263</v>
+      </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>42508</v>
       </c>
@@ -7979,8 +8178,11 @@
       <c r="J35" s="5">
         <v>67.416666668141261</v>
       </c>
+      <c r="K35" s="8">
+        <v>0.94525547445255476</v>
+      </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>42509</v>
       </c>
@@ -8012,8 +8214,11 @@
       <c r="J36" s="5">
         <v>61.166666663484648</v>
       </c>
+      <c r="K36" s="8">
+        <v>0.91726190476190472</v>
+      </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>42510</v>
       </c>
@@ -8045,8 +8250,11 @@
       <c r="J37" s="5">
         <v>63.233333331299946</v>
       </c>
+      <c r="K37" s="8">
+        <v>0.93661971830985913</v>
+      </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>42511</v>
       </c>
@@ -8078,8 +8286,11 @@
       <c r="J38" s="5">
         <v>126.35000000009313</v>
       </c>
+      <c r="K38" s="8">
+        <v>0.9131701631701632</v>
+      </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>42512</v>
       </c>
@@ -8111,8 +8322,11 @@
       <c r="J39" s="5">
         <v>65.900000003166497</v>
       </c>
+      <c r="K39" s="8">
+        <v>0.9482323232323232</v>
+      </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>42513</v>
       </c>
@@ -8144,8 +8358,11 @@
       <c r="J40" s="5">
         <v>143.45000000554137</v>
       </c>
+      <c r="K40" s="8">
+        <v>0.95864661654135341</v>
+      </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>42514</v>
       </c>
@@ -8177,8 +8394,11 @@
       <c r="J41" s="5">
         <v>193.56666667386889</v>
       </c>
+      <c r="K41" s="8">
+        <v>0.85077519379844957</v>
+      </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>42515</v>
       </c>
@@ -8210,8 +8430,11 @@
       <c r="J42" s="5">
         <v>55.933333332650363</v>
       </c>
+      <c r="K42" s="8">
+        <v>0.78300865800865804</v>
+      </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42516</v>
       </c>
@@ -8243,8 +8466,11 @@
       <c r="J43" s="5">
         <v>59.800000002142042</v>
       </c>
+      <c r="K43" s="8">
+        <v>0.98369565217391308</v>
+      </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>42517</v>
       </c>
@@ -8276,8 +8502,11 @@
       <c r="J44" s="5">
         <v>55.783333329018205</v>
       </c>
+      <c r="K44" s="8">
+        <v>0.94333333333333336</v>
+      </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>42518</v>
       </c>
@@ -8309,8 +8538,11 @@
       <c r="J45" s="5">
         <v>156.43333332496695</v>
       </c>
+      <c r="K45" s="8">
+        <v>0.9600225225225224</v>
+      </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>42519</v>
       </c>
@@ -8342,8 +8574,11 @@
       <c r="J46" s="5">
         <v>53.766666672891006</v>
       </c>
+      <c r="K46" s="8">
+        <v>0.98032407407407418</v>
+      </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>42520</v>
       </c>
@@ -8375,8 +8610,11 @@
       <c r="J47" s="5">
         <v>60.683333342894912</v>
       </c>
+      <c r="K47" s="8">
+        <v>0.93083900226757355</v>
+      </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>42521</v>
       </c>
@@ -8407,6 +8645,9 @@
       </c>
       <c r="J48" s="5">
         <v>85.833333333721384</v>
+      </c>
+      <c r="K48" s="8">
+        <v>0.9642857142857143</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
@@ -9145,6 +9386,43 @@
       <c r="J70" s="5">
         <v>56.366666662506759</v>
       </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>42544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>42545</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>42546</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>42547</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>42548</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -126,12 +126,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -153,6 +181,21 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -212,6 +255,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -516,6 +560,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -731,6 +811,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>183</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>143</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,6 +1137,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1221,6 +1388,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1496,6 +1714,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1711,6 +1965,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>179</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1986,6 +2291,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2200,6 +2541,57 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="68">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="85">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2474,6 +2866,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2689,6 +3117,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2703,8 +3182,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179976504"/>
-        <c:axId val="179976896"/>
+        <c:axId val="326001904"/>
+        <c:axId val="327523216"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -2975,6 +3454,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3190,6 +3705,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>0.88732394366197187</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="General">
+                  <c:v>0.91489361702127658</c:v>
+                </c:pt>
+                <c:pt idx="70" formatCode="General">
+                  <c:v>0.90277777777777779</c:v>
+                </c:pt>
+                <c:pt idx="71" formatCode="General">
+                  <c:v>0.93706293706293708</c:v>
+                </c:pt>
+                <c:pt idx="72" formatCode="General">
+                  <c:v>0.94285714285714284</c:v>
+                </c:pt>
+                <c:pt idx="73" formatCode="General">
+                  <c:v>0.94326241134751776</c:v>
+                </c:pt>
+                <c:pt idx="74" formatCode="General">
+                  <c:v>0.92146596858638741</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="General">
+                  <c:v>0.91608391608391604</c:v>
+                </c:pt>
+                <c:pt idx="76" formatCode="General">
+                  <c:v>0.94890510948905105</c:v>
+                </c:pt>
+                <c:pt idx="77" formatCode="General">
+                  <c:v>0.88888888888888884</c:v>
+                </c:pt>
+                <c:pt idx="78" formatCode="General">
+                  <c:v>0.97814207650273222</c:v>
+                </c:pt>
+                <c:pt idx="79" formatCode="General">
+                  <c:v>0.94444444444444442</c:v>
+                </c:pt>
+                <c:pt idx="80" formatCode="General">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="81" formatCode="General">
+                  <c:v>0.7279411764705882</c:v>
+                </c:pt>
+                <c:pt idx="82" formatCode="General">
+                  <c:v>0.93055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="83" formatCode="General">
+                  <c:v>0.92253521126760563</c:v>
+                </c:pt>
+                <c:pt idx="84" formatCode="General">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="85" formatCode="General">
+                  <c:v>0.95804195804195802</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3204,11 +3770,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="179977680"/>
-        <c:axId val="179977288"/>
+        <c:axId val="327524000"/>
+        <c:axId val="327523608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="179976504"/>
+        <c:axId val="326001904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3255,6 +3821,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3321,12 +3888,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179976896"/>
+        <c:crossAx val="327523216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179976896"/>
+        <c:axId val="327523216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,6 +3939,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3438,12 +4006,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179976504"/>
+        <c:crossAx val="326001904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179977288"/>
+        <c:axId val="327523608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3478,6 +4046,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3538,12 +4107,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="179977680"/>
+        <c:crossAx val="327524000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="179977680"/>
+        <c:axId val="327524000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3553,7 +4122,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179977288"/>
+        <c:crossAx val="327523608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3567,6 +4136,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3668,6 +4238,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3972,6 +4543,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4187,6 +4794,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>44.351851851845694</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0">
+                  <c:v>41.555910166476835</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>41.423842592630535</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42.420862471323353</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>43.613452380805811</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>48.296335698278781</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0">
+                  <c:v>42.736374695840581</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>44.472749391681155</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>43.385061728612833</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>40.760746812421203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>43.81979166646488</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>43.255466792269942</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>46.187254902076404</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42.622337963184691</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.956807511548746</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>41.56851851803367</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>41.913519813638452</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4462,6 +5120,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4677,6 +5371,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>35.966666660970077</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0">
+                  <c:v>36.716666668653488</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.900000000372529</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>36.166666665812954</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>36.900000002933666</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>33.633333327015862</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>33.633333327015862</c:v>
+                </c:pt>
+                <c:pt idx="75" formatCode="0">
+                  <c:v>36.149999995250255</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>36.116666664602235</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.816666664555669</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.816666664555669</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>35.500000000465661</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>35.383333337958902</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>35.383333337958902</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>25.116666670655832</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>33.850000002421439</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>34.73333333269693</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>35.150000002468005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4952,6 +5697,42 @@
                 <c:pt idx="73">
                   <c:v>42548</c:v>
                 </c:pt>
+                <c:pt idx="74">
+                  <c:v>42549</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42550</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42551</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42552</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42553</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42554</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42555</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42556</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42557</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42558</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42559</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42560</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5167,6 +5948,57 @@
                 </c:pt>
                 <c:pt idx="68">
                   <c:v>56.366666662506759</c:v>
+                </c:pt>
+                <c:pt idx="69" formatCode="0">
+                  <c:v>59.249999999301508</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>56.516666666138917</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>57.866666667396203</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>61.716666676802561</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>61.716666676802561</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>56.549999996786937</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>56.549999996786937</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>61.86666666995734</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>79.099999997997656</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>55.249999996740371</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>57.883333337958902</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>55.34999999916181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5181,11 +6013,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="230730320"/>
-        <c:axId val="230730712"/>
+        <c:axId val="327524784"/>
+        <c:axId val="327525176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="230730320"/>
+        <c:axId val="327524784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -5232,6 +6064,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5298,12 +6131,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230730712"/>
+        <c:crossAx val="327525176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="230730712"/>
+        <c:axId val="327525176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5349,6 +6182,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -5415,7 +6249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="230730320"/>
+        <c:crossAx val="327524784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5429,6 +6263,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6606,7 +7441,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6617,7 +7452,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="139" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -6628,7 +7463,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6655,7 +7490,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668435" cy="6290612"/>
+    <xdr:ext cx="8671560" cy="6294120"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -6941,10 +7776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:K90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9353,7 +10188,7 @@
         <v>61.383333338890225</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>42543</v>
       </c>
@@ -9387,42 +10222,572 @@
         <v>56.366666662506759</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>42544</v>
+      </c>
+      <c r="B71">
+        <v>141</v>
+      </c>
+      <c r="C71">
+        <v>129</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>12</v>
+      </c>
+      <c r="F71">
+        <v>129</v>
+      </c>
+      <c r="G71">
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="H71" s="10">
+        <v>41.555910166476835</v>
+      </c>
+      <c r="I71" s="11">
+        <v>36.716666668653488</v>
+      </c>
+      <c r="J71" s="12">
+        <v>59.249999999301508</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>42545</v>
       </c>
+      <c r="B72">
+        <v>144</v>
+      </c>
+      <c r="C72">
+        <v>129</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>130</v>
+      </c>
+      <c r="G72">
+        <v>0.90277777777777779</v>
+      </c>
+      <c r="H72" s="2">
+        <v>41.423842592630535</v>
+      </c>
+      <c r="I72" s="2">
+        <v>32.900000000372529</v>
+      </c>
+      <c r="J72" s="2">
+        <v>56.516666666138917</v>
+      </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>42546</v>
       </c>
+      <c r="B73">
+        <v>143</v>
+      </c>
+      <c r="C73">
+        <v>134</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>9</v>
+      </c>
+      <c r="F73">
+        <v>134</v>
+      </c>
+      <c r="G73">
+        <v>0.93706293706293708</v>
+      </c>
+      <c r="H73" s="2">
+        <v>42.420862471323353</v>
+      </c>
+      <c r="I73" s="2">
+        <v>36.166666665812954</v>
+      </c>
+      <c r="J73" s="2">
+        <v>57.866666667396203</v>
+      </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>42547</v>
       </c>
+      <c r="B74">
+        <v>140</v>
+      </c>
+      <c r="C74">
+        <v>132</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>8</v>
+      </c>
+      <c r="F74">
+        <v>132</v>
+      </c>
+      <c r="G74">
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="H74" s="2">
+        <v>43.613452380805811</v>
+      </c>
+      <c r="I74" s="2">
+        <v>36.900000002933666</v>
+      </c>
+      <c r="J74" s="2">
+        <v>61.716666676802561</v>
+      </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>42548</v>
       </c>
+      <c r="B75">
+        <v>141</v>
+      </c>
+      <c r="C75">
+        <v>133</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>8</v>
+      </c>
+      <c r="F75">
+        <v>133</v>
+      </c>
+      <c r="G75">
+        <v>0.94326241134751776</v>
+      </c>
+      <c r="H75" s="2">
+        <v>48.296335698278781</v>
+      </c>
+      <c r="I75" s="2">
+        <v>33.633333327015862</v>
+      </c>
+      <c r="J75" s="2">
+        <v>61.716666676802561</v>
+      </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <f>A75+1</f>
+        <v>42549</v>
+      </c>
+      <c r="B76">
+        <v>191</v>
+      </c>
+      <c r="C76">
+        <v>176</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>15</v>
+      </c>
+      <c r="F76">
+        <v>176</v>
+      </c>
+      <c r="G76">
+        <v>0.92146596858638741</v>
+      </c>
+      <c r="H76" s="2">
+        <v>41</v>
+      </c>
+      <c r="I76" s="2">
+        <v>33.633333327015862</v>
+      </c>
+      <c r="J76" s="2">
+        <v>56.549999996786937</v>
+      </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
+    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <f t="shared" ref="A77:A90" si="13">A76+1</f>
+        <v>42550</v>
+      </c>
+      <c r="B77">
+        <v>143</v>
+      </c>
+      <c r="C77">
+        <v>131</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>12</v>
+      </c>
+      <c r="F77">
+        <v>131</v>
+      </c>
+      <c r="G77">
+        <v>0.91608391608391604</v>
+      </c>
+      <c r="H77" s="13">
+        <f>AVERAGE(H78,H76)</f>
+        <v>42.736374695840581</v>
+      </c>
+      <c r="I77" s="14">
+        <v>36.149999995250255</v>
+      </c>
+      <c r="J77" s="2">
+        <v>56.549999996786937</v>
+      </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="3">
+        <f t="shared" si="13"/>
+        <v>42551</v>
+      </c>
+      <c r="B78">
+        <v>137</v>
+      </c>
+      <c r="C78">
+        <v>130</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>7</v>
+      </c>
+      <c r="F78">
+        <v>130</v>
+      </c>
+      <c r="G78">
+        <v>0.94890510948905105</v>
+      </c>
+      <c r="H78" s="2">
+        <v>44.472749391681155</v>
+      </c>
+      <c r="I78" s="2">
+        <v>36.116666664602235</v>
+      </c>
+      <c r="J78" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="3">
+        <f t="shared" si="13"/>
+        <v>42552</v>
+      </c>
+      <c r="B79">
+        <v>135</v>
+      </c>
+      <c r="C79">
+        <v>120</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>15</v>
+      </c>
+      <c r="F79">
+        <v>120</v>
+      </c>
+      <c r="G79">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="H79" s="2">
+        <v>43.385061728612833</v>
+      </c>
+      <c r="I79" s="2">
+        <v>34.816666664555669</v>
+      </c>
+      <c r="J79" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="13"/>
+        <v>42553</v>
+      </c>
+      <c r="B80">
+        <v>183</v>
+      </c>
+      <c r="C80">
+        <v>179</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80">
+        <v>179</v>
+      </c>
+      <c r="G80">
+        <v>0.97814207650273222</v>
+      </c>
+      <c r="H80" s="2">
+        <v>40.760746812421203</v>
+      </c>
+      <c r="I80" s="2">
+        <v>34.816666664555669</v>
+      </c>
+      <c r="J80" s="2">
+        <v>61.86666666995734</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="13"/>
+        <v>42554</v>
+      </c>
+      <c r="B81">
+        <v>144</v>
+      </c>
+      <c r="C81">
+        <v>136</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <v>136</v>
+      </c>
+      <c r="G81">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H81" s="2">
+        <v>43.81979166646488</v>
+      </c>
+      <c r="I81" s="2">
+        <v>35.500000000465661</v>
+      </c>
+      <c r="J81" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="13"/>
+        <v>42555</v>
+      </c>
+      <c r="B82">
+        <v>144</v>
+      </c>
+      <c r="C82">
+        <v>138</v>
+      </c>
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>6</v>
+      </c>
+      <c r="F82">
+        <v>138</v>
+      </c>
+      <c r="G82">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H82" s="2">
+        <f>AVERAGE(H83:H85)</f>
+        <v>43.255466792269942</v>
+      </c>
+      <c r="I82" s="2">
+        <v>35.383333337958902</v>
+      </c>
+      <c r="J82" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="13"/>
+        <v>42556</v>
+      </c>
+      <c r="B83">
+        <v>136</v>
+      </c>
+      <c r="C83">
+        <v>99</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>37</v>
+      </c>
+      <c r="F83">
+        <v>99</v>
+      </c>
+      <c r="G83">
+        <v>0.7279411764705882</v>
+      </c>
+      <c r="H83" s="2">
+        <v>46.187254902076404</v>
+      </c>
+      <c r="I83" s="2">
+        <v>35.383333337958902</v>
+      </c>
+      <c r="J83" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="13"/>
+        <v>42557</v>
+      </c>
+      <c r="B84">
+        <v>144</v>
+      </c>
+      <c r="C84">
+        <v>134</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>10</v>
+      </c>
+      <c r="F84">
+        <v>134</v>
+      </c>
+      <c r="G84">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="H84" s="2">
+        <v>42.622337963184691</v>
+      </c>
+      <c r="I84" s="2">
+        <v>25.116666670655832</v>
+      </c>
+      <c r="J84" s="2">
+        <v>79.099999997997656</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="13"/>
+        <v>42558</v>
+      </c>
+      <c r="B85">
+        <v>142</v>
+      </c>
+      <c r="C85">
+        <v>131</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>131</v>
+      </c>
+      <c r="G85">
+        <v>0.92253521126760563</v>
+      </c>
+      <c r="H85" s="2">
+        <v>40.956807511548746</v>
+      </c>
+      <c r="I85" s="2">
+        <v>33.850000002421439</v>
+      </c>
+      <c r="J85" s="2">
+        <v>55.249999996740371</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="13"/>
+        <v>42559</v>
+      </c>
+      <c r="B86">
+        <v>144</v>
+      </c>
+      <c r="C86">
+        <v>138</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>6</v>
+      </c>
+      <c r="F86">
+        <v>138</v>
+      </c>
+      <c r="G86">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H86" s="2">
+        <v>41.56851851803367</v>
+      </c>
+      <c r="I86" s="2">
+        <v>34.73333333269693</v>
+      </c>
+      <c r="J86" s="2">
+        <v>57.883333337958902</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="13"/>
+        <v>42560</v>
+      </c>
+      <c r="B87">
+        <v>143</v>
+      </c>
+      <c r="C87">
+        <v>137</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>6</v>
+      </c>
+      <c r="F87">
+        <v>137</v>
+      </c>
+      <c r="G87">
+        <v>0.95804195804195802</v>
+      </c>
+      <c r="H87" s="2">
+        <v>41.913519813638452</v>
+      </c>
+      <c r="I87" s="2">
+        <v>35.150000002468005</v>
+      </c>
+      <c r="J87" s="2">
+        <v>55.34999999916181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -596,6 +596,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -862,6 +898,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1173,6 +1224,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1439,6 +1526,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1750,6 +1852,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2016,6 +2154,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>131</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2327,6 +2480,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2592,6 +2781,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="85">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2902,6 +3106,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3168,6 +3408,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,8 +3437,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="326001904"/>
-        <c:axId val="327523216"/>
+        <c:axId val="347605392"/>
+        <c:axId val="347605784"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3490,6 +3745,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3756,6 +4047,21 @@
                 </c:pt>
                 <c:pt idx="85" formatCode="General">
                   <c:v>0.95804195804195802</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="General">
+                  <c:v>0.92907801418439717</c:v>
+                </c:pt>
+                <c:pt idx="87" formatCode="General">
+                  <c:v>0.90344827586206899</c:v>
+                </c:pt>
+                <c:pt idx="88" formatCode="General">
+                  <c:v>0.91970802919708028</c:v>
+                </c:pt>
+                <c:pt idx="89" formatCode="General">
+                  <c:v>0.97241379310344822</c:v>
+                </c:pt>
+                <c:pt idx="90" formatCode="General">
+                  <c:v>0.94244604316546765</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3770,11 +4076,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327524000"/>
-        <c:axId val="327523608"/>
+        <c:axId val="347606568"/>
+        <c:axId val="347606176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="326001904"/>
+        <c:axId val="347605392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -3888,12 +4194,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327523216"/>
+        <c:crossAx val="347605784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327523216"/>
+        <c:axId val="347605784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4006,12 +4312,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="326001904"/>
+        <c:crossAx val="347605392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327523608"/>
+        <c:axId val="347606176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4107,12 +4413,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327524000"/>
+        <c:crossAx val="347606568"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327524000"/>
+        <c:axId val="347606568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4122,7 +4428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="327523608"/>
+        <c:crossAx val="347606176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4238,7 +4544,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4579,6 +4884,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4845,6 +5186,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>41.913519813638452</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0">
+                  <c:v>43.312411347968862</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.382068964925693</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.175661375696237</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42.63965517234314</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42.303435113831988</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5156,6 +5512,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5422,6 +5814,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>35.150000002468005</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0">
+                  <c:v>35.866666658548638</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35.61666666297242</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>34.599999999627471</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>35.216666663764045</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>35.283333335537463</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5733,6 +6140,42 @@
                 <c:pt idx="85">
                   <c:v>42560</c:v>
                 </c:pt>
+                <c:pt idx="86">
+                  <c:v>42561</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42562</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42563</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42564</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42565</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42566</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42567</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42568</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42569</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42570</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42571</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42572</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -5999,6 +6442,21 @@
                 </c:pt>
                 <c:pt idx="85">
                   <c:v>55.34999999916181</c:v>
+                </c:pt>
+                <c:pt idx="86" formatCode="0">
+                  <c:v>60.066666668280959</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>55.083333333022892</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>55.533333333441988</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>55.000000001164153</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6013,11 +6471,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="327524784"/>
-        <c:axId val="327525176"/>
+        <c:axId val="347607352"/>
+        <c:axId val="347607744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="327524784"/>
+        <c:axId val="347607352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -6064,7 +6522,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6131,12 +6588,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327525176"/>
+        <c:crossAx val="347607744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="327525176"/>
+        <c:axId val="347607744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6182,7 +6639,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6249,7 +6705,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="327524784"/>
+        <c:crossAx val="347607352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6263,7 +6719,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7441,7 +7896,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7452,7 +7907,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7463,7 +7918,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671560" cy="6294120"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7490,7 +7945,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8671560" cy="6294120"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7776,10 +8231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K90"/>
+  <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="H83" sqref="H83"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92:J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10417,7 +10872,7 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <f t="shared" ref="A77:A90" si="13">A76+1</f>
+        <f t="shared" ref="A77:A110" si="13">A76+1</f>
         <v>42550</v>
       </c>
       <c r="B77">
@@ -10747,7 +11202,7 @@
         <v>57.883333337958902</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <f t="shared" si="13"/>
         <v>42560</v>
@@ -10780,14 +11235,278 @@
         <v>55.34999999916181</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+    <row r="88" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <f t="shared" si="13"/>
+        <v>42561</v>
+      </c>
+      <c r="B88">
+        <v>141</v>
+      </c>
+      <c r="C88">
+        <v>131</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>131</v>
+      </c>
+      <c r="G88">
+        <v>0.92907801418439717</v>
+      </c>
+      <c r="H88" s="13">
+        <v>43.312411347968862</v>
+      </c>
+      <c r="I88" s="14">
+        <v>35.866666658548638</v>
+      </c>
+      <c r="J88" s="12">
+        <v>60.066666668280959</v>
+      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="3">
+        <f t="shared" si="13"/>
+        <v>42562</v>
+      </c>
+      <c r="B89">
+        <v>145</v>
+      </c>
+      <c r="C89">
+        <v>131</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>131</v>
+      </c>
+      <c r="G89">
+        <v>0.90344827586206899</v>
+      </c>
+      <c r="H89" s="2">
+        <v>43.382068964925693</v>
+      </c>
+      <c r="I89" s="2">
+        <v>35.61666666297242</v>
+      </c>
+      <c r="J89" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="3">
+        <f t="shared" si="13"/>
+        <v>42563</v>
+      </c>
+      <c r="B90">
+        <v>137</v>
+      </c>
+      <c r="C90">
+        <v>126</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>126</v>
+      </c>
+      <c r="G90">
+        <v>0.91970802919708028</v>
+      </c>
+      <c r="H90" s="2">
+        <v>43.175661375696237</v>
+      </c>
+      <c r="I90" s="2">
+        <v>34.599999999627471</v>
+      </c>
+      <c r="J90" s="2">
+        <v>55.083333333022892</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="13"/>
+        <v>42564</v>
+      </c>
+      <c r="B91">
+        <v>145</v>
+      </c>
+      <c r="C91">
+        <v>141</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>141</v>
+      </c>
+      <c r="G91">
+        <v>0.97241379310344822</v>
+      </c>
+      <c r="H91" s="2">
+        <v>42.63965517234314</v>
+      </c>
+      <c r="I91" s="2">
+        <v>35.216666663764045</v>
+      </c>
+      <c r="J91" s="2">
+        <v>55.533333333441988</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="13"/>
+        <v>42565</v>
+      </c>
+      <c r="B92">
+        <v>139</v>
+      </c>
+      <c r="C92">
+        <v>131</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>8</v>
+      </c>
+      <c r="F92">
+        <v>131</v>
+      </c>
+      <c r="G92">
+        <v>0.94244604316546765</v>
+      </c>
+      <c r="H92" s="2">
+        <v>42.303435113831988</v>
+      </c>
+      <c r="I92" s="2">
+        <v>35.283333335537463</v>
+      </c>
+      <c r="J92" s="2">
+        <v>55.000000001164153</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="13"/>
+        <v>42566</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="13"/>
+        <v>42567</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="13"/>
+        <v>42568</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="13"/>
+        <v>42569</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="13"/>
+        <v>42570</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="13"/>
+        <v>42571</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="13"/>
+        <v>42572</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f t="shared" si="13"/>
+        <v>42573</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f t="shared" si="13"/>
+        <v>42574</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f t="shared" si="13"/>
+        <v>42575</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f t="shared" si="13"/>
+        <v>42576</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="13"/>
+        <v>42577</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f t="shared" si="13"/>
+        <v>42578</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="13"/>
+        <v>42579</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f t="shared" si="13"/>
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f t="shared" si="13"/>
+        <v>42581</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="13"/>
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f t="shared" si="13"/>
+        <v>42583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -914,6 +914,12 @@
                 <c:pt idx="90">
                   <c:v>139</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1542,6 +1548,12 @@
                 <c:pt idx="90">
                   <c:v>131</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>116</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2170,6 +2182,12 @@
                 <c:pt idx="90">
                   <c:v>131</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>116</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2798,6 +2816,12 @@
                 <c:pt idx="90">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3424,6 +3448,12 @@
                 <c:pt idx="90">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3437,8 +3467,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347605392"/>
-        <c:axId val="347605784"/>
+        <c:axId val="223163160"/>
+        <c:axId val="223163552"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4063,6 +4093,12 @@
                 <c:pt idx="90" formatCode="General">
                   <c:v>0.94244604316546765</c:v>
                 </c:pt>
+                <c:pt idx="91" formatCode="General">
+                  <c:v>0.92142857142857137</c:v>
+                </c:pt>
+                <c:pt idx="92" formatCode="General">
+                  <c:v>0.87878787878787878</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4076,11 +4112,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347606568"/>
-        <c:axId val="347606176"/>
+        <c:axId val="223164336"/>
+        <c:axId val="223163944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347605392"/>
+        <c:axId val="223163160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4194,12 +4230,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347605784"/>
+        <c:crossAx val="223163552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347605784"/>
+        <c:axId val="223163552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4312,12 +4348,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347605392"/>
+        <c:crossAx val="223163160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347606176"/>
+        <c:axId val="223163944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4413,12 +4449,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347606568"/>
+        <c:crossAx val="223164336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347606568"/>
+        <c:axId val="223164336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4428,7 +4464,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="347606176"/>
+        <c:crossAx val="223163944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5202,6 +5238,12 @@
                 <c:pt idx="90">
                   <c:v>42.303435113831988</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>41.640714285421254</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>46.292297979790334</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5830,6 +5872,12 @@
                 <c:pt idx="90">
                   <c:v>35.283333335537463</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>35.116666671819985</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>35.283333335537463</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6458,6 +6506,12 @@
                 <c:pt idx="90">
                   <c:v>55.000000001164153</c:v>
                 </c:pt>
+                <c:pt idx="91">
+                  <c:v>55.500000002793968</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>65.916666673729196</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6471,11 +6525,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="347607352"/>
-        <c:axId val="347607744"/>
+        <c:axId val="223165120"/>
+        <c:axId val="223165512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="347607352"/>
+        <c:axId val="223165120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -6588,12 +6642,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347607744"/>
+        <c:crossAx val="223165512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="347607744"/>
+        <c:axId val="223165512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6705,7 +6759,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="347607352"/>
+        <c:crossAx val="223165120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7896,7 +7950,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8233,8 +8287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H92" sqref="H92:J92"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94:J94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11405,11 +11459,65 @@
         <f t="shared" si="13"/>
         <v>42566</v>
       </c>
+      <c r="B93">
+        <v>140</v>
+      </c>
+      <c r="C93">
+        <v>129</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>11</v>
+      </c>
+      <c r="F93">
+        <v>129</v>
+      </c>
+      <c r="G93">
+        <v>0.92142857142857137</v>
+      </c>
+      <c r="H93" s="2">
+        <v>41.640714285421254</v>
+      </c>
+      <c r="I93" s="2">
+        <v>35.116666671819985</v>
+      </c>
+      <c r="J93" s="2">
+        <v>55.500000002793968</v>
+      </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <f t="shared" si="13"/>
         <v>42567</v>
+      </c>
+      <c r="B94">
+        <v>132</v>
+      </c>
+      <c r="C94">
+        <v>116</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>116</v>
+      </c>
+      <c r="G94">
+        <v>0.87878787878787878</v>
+      </c>
+      <c r="H94" s="2">
+        <v>46.292297979790334</v>
+      </c>
+      <c r="I94" s="2">
+        <v>35.283333335537463</v>
+      </c>
+      <c r="J94" s="2">
+        <v>65.916666673729196</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -920,6 +920,15 @@
                 <c:pt idx="92">
                   <c:v>132</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>143</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1554,6 +1563,15 @@
                 <c:pt idx="92">
                   <c:v>116</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2188,6 +2206,15 @@
                 <c:pt idx="92">
                   <c:v>116</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2822,6 +2849,15 @@
                 <c:pt idx="92">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3454,6 +3490,15 @@
                 <c:pt idx="92">
                   <c:v>16</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3467,8 +3512,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223163160"/>
-        <c:axId val="223163552"/>
+        <c:axId val="171799184"/>
+        <c:axId val="171799576"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4099,6 +4144,15 @@
                 <c:pt idx="92" formatCode="General">
                   <c:v>0.87878787878787878</c:v>
                 </c:pt>
+                <c:pt idx="93" formatCode="General">
+                  <c:v>0.79720279720279719</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="General">
+                  <c:v>0.95238095238095233</c:v>
+                </c:pt>
+                <c:pt idx="95" formatCode="General">
+                  <c:v>0.92307692307692313</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4112,11 +4166,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223164336"/>
-        <c:axId val="223163944"/>
+        <c:axId val="219744144"/>
+        <c:axId val="219743752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223163160"/>
+        <c:axId val="171799184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4230,12 +4284,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223163552"/>
+        <c:crossAx val="171799576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223163552"/>
+        <c:axId val="171799576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4348,12 +4402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223163160"/>
+        <c:crossAx val="171799184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223163944"/>
+        <c:axId val="219743752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4449,12 +4503,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223164336"/>
+        <c:crossAx val="219744144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223164336"/>
+        <c:axId val="219744144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4464,7 +4518,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="223163944"/>
+        <c:crossAx val="219743752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5244,6 +5298,15 @@
                 <c:pt idx="92">
                   <c:v>46.292297979790334</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.209502923694487</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0">
+                  <c:v>42.766785714841845</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42.880429292748552</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5878,6 +5941,15 @@
                 <c:pt idx="92">
                   <c:v>35.283333335537463</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>35.250000004889444</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>35.250000004889444</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>35.200000003678724</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6512,6 +6584,15 @@
                 <c:pt idx="92">
                   <c:v>65.916666673729196</c:v>
                 </c:pt>
+                <c:pt idx="93">
+                  <c:v>61.283333336468786</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="0">
+                  <c:v>57.916666658129543</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>60.399999995715916</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6525,11 +6606,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="223165120"/>
-        <c:axId val="223165512"/>
+        <c:axId val="219744928"/>
+        <c:axId val="219745320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="223165120"/>
+        <c:axId val="219744928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -6642,12 +6723,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223165512"/>
+        <c:crossAx val="219745320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="223165512"/>
+        <c:axId val="219745320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6759,7 +6840,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="223165120"/>
+        <c:crossAx val="219744928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7950,7 +8031,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7961,7 +8042,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7972,7 +8053,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -7999,7 +8080,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8287,8 +8368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94:J94"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="H97" sqref="H97:J97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9994,7 +10075,7 @@
         <v>0.9642857142857143</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>42522</v>
       </c>
@@ -10026,8 +10107,11 @@
       <c r="J49" s="5">
         <v>54.966666660038754</v>
       </c>
+      <c r="K49">
+        <v>0.9726027397260274</v>
+      </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>42523</v>
       </c>
@@ -10059,8 +10143,11 @@
       <c r="J50" s="5">
         <v>57.300000004470348</v>
       </c>
+      <c r="K50">
+        <v>0.95319634703196343</v>
+      </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>42524</v>
       </c>
@@ -10092,8 +10179,11 @@
       <c r="J51" s="5">
         <v>54.883333338657394</v>
       </c>
+      <c r="K51">
+        <v>0.96561771561771548</v>
+      </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>42525</v>
       </c>
@@ -10125,8 +10215,11 @@
       <c r="J52" s="5">
         <v>63.200000000651926</v>
       </c>
+      <c r="K52">
+        <v>0.95777027027027029</v>
+      </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>42526</v>
       </c>
@@ -10158,8 +10251,11 @@
       <c r="J53" s="5">
         <v>54.3999999971129</v>
       </c>
+      <c r="K53">
+        <v>0.95578231292517002</v>
+      </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>42527</v>
       </c>
@@ -10191,8 +10287,11 @@
       <c r="J54" s="5">
         <v>64.966666671680287</v>
       </c>
+      <c r="K54">
+        <v>0.94482758620689655</v>
+      </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>42528</v>
       </c>
@@ -10224,8 +10323,11 @@
       <c r="J55" s="5">
         <v>58.450000000884756</v>
       </c>
+      <c r="K55">
+        <v>0.93055555555555558</v>
+      </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>42529</v>
       </c>
@@ -10257,8 +10359,11 @@
       <c r="J56" s="5">
         <v>59.116666666232049</v>
       </c>
+      <c r="K56">
+        <v>0.91666666666666663</v>
+      </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>42530</v>
       </c>
@@ -10290,8 +10395,11 @@
       <c r="J57" s="5">
         <v>59.699999999720603</v>
       </c>
+      <c r="K57">
+        <v>0.93221393034825872</v>
+      </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>42531</v>
       </c>
@@ -10323,8 +10431,11 @@
       <c r="J58" s="5">
         <v>59.566666666651145</v>
       </c>
+      <c r="K58">
+        <v>0.96166666666666667</v>
+      </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>42532</v>
       </c>
@@ -10356,8 +10467,11 @@
       <c r="J59" s="5">
         <v>59.566666666651145</v>
       </c>
+      <c r="K59">
+        <v>0.98582766439909308</v>
+      </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>42533</v>
       </c>
@@ -10390,8 +10504,11 @@
       <c r="J60" s="5">
         <v>62.350000001024455</v>
       </c>
+      <c r="K60">
+        <v>0.91079812206572752</v>
+      </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>42534</v>
       </c>
@@ -10424,8 +10541,11 @@
       <c r="J61" s="5">
         <v>76.250000002328306</v>
       </c>
+      <c r="K61">
+        <v>0.90653153153153165</v>
+      </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>42535</v>
       </c>
@@ -10458,8 +10578,11 @@
       <c r="J62" s="5">
         <v>79.533333338331431</v>
       </c>
+      <c r="K62">
+        <v>0.95517241379310347</v>
+      </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>42536</v>
       </c>
@@ -10492,8 +10615,11 @@
       <c r="J63" s="5">
         <v>82.933333336841315</v>
       </c>
+      <c r="K63">
+        <v>0.89786967418546371</v>
+      </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>42537</v>
       </c>
@@ -10526,8 +10652,11 @@
       <c r="J64" s="5">
         <v>52.400000001071021</v>
       </c>
+      <c r="K64">
+        <v>0.85486111111111107</v>
+      </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>42538</v>
       </c>
@@ -10560,8 +10689,11 @@
       <c r="J65" s="5">
         <v>57.866666667396203</v>
       </c>
+      <c r="K65">
+        <v>0.85486111111111107</v>
+      </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>42539</v>
       </c>
@@ -10594,8 +10726,11 @@
       <c r="J66" s="5">
         <v>62.866666673216969</v>
       </c>
+      <c r="K66">
+        <v>0.92194835680751186</v>
+      </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>42540</v>
       </c>
@@ -10628,8 +10763,11 @@
       <c r="J67" s="5">
         <v>66.58333332859911</v>
       </c>
+      <c r="K67">
+        <v>0.91608391608391604</v>
+      </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>42541</v>
       </c>
@@ -10662,8 +10800,11 @@
       <c r="J68" s="5">
         <v>54.199999992270023</v>
       </c>
+      <c r="K68">
+        <v>0.96009389671361489</v>
+      </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>42542</v>
       </c>
@@ -10696,8 +10837,11 @@
       <c r="J69" s="5">
         <v>61.383333338890225</v>
       </c>
+      <c r="K69">
+        <v>0.88260340632603396</v>
+      </c>
     </row>
-    <row r="70" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>42543</v>
       </c>
@@ -10730,8 +10874,11 @@
       <c r="J70" s="5">
         <v>56.366666662506759</v>
       </c>
+      <c r="K70">
+        <v>0.93838028169014087</v>
+      </c>
     </row>
-    <row r="71" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>42544</v>
       </c>
@@ -10762,8 +10909,11 @@
       <c r="J71" s="12">
         <v>59.249999999301508</v>
       </c>
+      <c r="K71">
+        <v>0.96276595744680848</v>
+      </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>42545</v>
       </c>
@@ -10794,8 +10944,11 @@
       <c r="J72" s="2">
         <v>56.516666666138917</v>
       </c>
+      <c r="K72">
+        <v>0.90136054421768708</v>
+      </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>42546</v>
       </c>
@@ -10826,8 +10979,11 @@
       <c r="J73" s="2">
         <v>57.866666667396203</v>
       </c>
+      <c r="K73">
+        <v>0.96270396270396286</v>
+      </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>42547</v>
       </c>
@@ -10858,8 +11014,11 @@
       <c r="J74" s="2">
         <v>61.716666676802561</v>
       </c>
+      <c r="K74">
+        <v>0.98928571428571432</v>
+      </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>42548</v>
       </c>
@@ -10890,8 +11049,11 @@
       <c r="J75" s="2">
         <v>61.716666676802561</v>
       </c>
+      <c r="K75">
+        <v>0.96759259259259267</v>
+      </c>
     </row>
-    <row r="76" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <f>A75+1</f>
         <v>42549</v>
@@ -10923,8 +11085,11 @@
       <c r="J76" s="2">
         <v>56.549999996786937</v>
       </c>
+      <c r="K76">
+        <v>0.91608391608391604</v>
+      </c>
     </row>
-    <row r="77" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <f t="shared" ref="A77:A110" si="13">A76+1</f>
         <v>42550</v>
@@ -10957,8 +11122,11 @@
       <c r="J77" s="2">
         <v>56.549999996786937</v>
       </c>
+      <c r="K77">
+        <v>0.96347031963470309</v>
+      </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <f t="shared" si="13"/>
         <v>42551</v>
@@ -10990,8 +11158,11 @@
       <c r="J78" s="2">
         <v>60</v>
       </c>
+      <c r="K78">
+        <v>0.98661800486618001</v>
+      </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <f t="shared" si="13"/>
         <v>42552</v>
@@ -11024,7 +11195,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <f t="shared" si="13"/>
         <v>42553</v>
@@ -11520,97 +11691,178 @@
         <v>65.916666673729196</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <f t="shared" si="13"/>
         <v>42568</v>
       </c>
+      <c r="B95">
+        <v>143</v>
+      </c>
+      <c r="C95">
+        <v>114</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>29</v>
+      </c>
+      <c r="F95">
+        <v>114</v>
+      </c>
+      <c r="G95">
+        <v>0.79720279720279719</v>
+      </c>
+      <c r="H95" s="2">
+        <v>43.209502923694487</v>
+      </c>
+      <c r="I95" s="2">
+        <v>35.250000004889444</v>
+      </c>
+      <c r="J95" s="2">
+        <v>61.283333336468786</v>
+      </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <f t="shared" si="13"/>
         <v>42569</v>
       </c>
+      <c r="B96">
+        <v>146</v>
+      </c>
+      <c r="C96">
+        <v>140</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>7</v>
+      </c>
+      <c r="F96">
+        <v>140</v>
+      </c>
+      <c r="G96">
+        <v>0.95238095238095233</v>
+      </c>
+      <c r="H96" s="13">
+        <v>42.766785714841845</v>
+      </c>
+      <c r="I96" s="2">
+        <v>35.250000004889444</v>
+      </c>
+      <c r="J96" s="12">
+        <v>57.916666658129543</v>
+      </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <f t="shared" si="13"/>
         <v>42570</v>
       </c>
+      <c r="B97">
+        <v>143</v>
+      </c>
+      <c r="C97">
+        <v>132</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>11</v>
+      </c>
+      <c r="F97">
+        <v>132</v>
+      </c>
+      <c r="G97">
+        <v>0.92307692307692313</v>
+      </c>
+      <c r="H97" s="2">
+        <v>42.880429292748552</v>
+      </c>
+      <c r="I97" s="2">
+        <v>35.200000003678724</v>
+      </c>
+      <c r="J97" s="2">
+        <v>60.399999995715916</v>
+      </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <f t="shared" si="13"/>
         <v>42571</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f t="shared" si="13"/>
         <v>42572</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <f t="shared" si="13"/>
         <v>42573</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f t="shared" si="13"/>
         <v>42574</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f t="shared" si="13"/>
         <v>42575</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <f t="shared" si="13"/>
         <v>42576</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <f t="shared" si="13"/>
         <v>42577</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f t="shared" si="13"/>
         <v>42578</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f t="shared" si="13"/>
         <v>42579</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <f t="shared" si="13"/>
         <v>42580</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <f t="shared" si="13"/>
         <v>42581</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <f t="shared" si="13"/>
         <v>42582</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <f t="shared" si="13"/>
         <v>42583</v>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Completion Stats" sheetId="2" r:id="rId2"/>
     <sheet name="Trip Length Stats" sheetId="5" r:id="rId3"/>
+    <sheet name="DE.1.0.7.0 comparisons" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -929,6 +930,12 @@
                 <c:pt idx="95">
                   <c:v>143</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>138</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1572,6 +1579,12 @@
                 <c:pt idx="95">
                   <c:v>132</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2215,6 +2228,12 @@
                 <c:pt idx="95">
                   <c:v>132</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>132</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2858,6 +2877,12 @@
                 <c:pt idx="95">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3499,6 +3524,12 @@
                 <c:pt idx="95">
                   <c:v>11</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3512,8 +3543,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="171799184"/>
-        <c:axId val="171799576"/>
+        <c:axId val="284666480"/>
+        <c:axId val="359120504"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4153,6 +4184,12 @@
                 <c:pt idx="95" formatCode="General">
                   <c:v>0.92307692307692313</c:v>
                 </c:pt>
+                <c:pt idx="96" formatCode="General">
+                  <c:v>0.93006993006993011</c:v>
+                </c:pt>
+                <c:pt idx="97" formatCode="General">
+                  <c:v>0.95652173913043481</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4166,11 +4203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219744144"/>
-        <c:axId val="219743752"/>
+        <c:axId val="359121288"/>
+        <c:axId val="359120896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="171799184"/>
+        <c:axId val="284666480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4284,12 +4321,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171799576"/>
+        <c:crossAx val="359120504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="171799576"/>
+        <c:axId val="359120504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4402,12 +4439,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="171799184"/>
+        <c:crossAx val="284666480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219743752"/>
+        <c:axId val="359120896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4503,12 +4540,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219744144"/>
+        <c:crossAx val="359121288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219744144"/>
+        <c:axId val="359121288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4518,7 +4555,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="219743752"/>
+        <c:crossAx val="359120896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4634,6 +4671,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5307,6 +5345,12 @@
                 <c:pt idx="95">
                   <c:v>42.880429292748552</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>43.965037593896383</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>46.900252525837544</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -5950,6 +5994,12 @@
                 <c:pt idx="95">
                   <c:v>35.200000003678724</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>35.333333326270804</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>34.966666668187827</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6593,6 +6643,12 @@
                 <c:pt idx="95">
                   <c:v>60.399999995715916</c:v>
                 </c:pt>
+                <c:pt idx="96">
+                  <c:v>64.599999992642552</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>107.68333333893679</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6606,11 +6662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="219744928"/>
-        <c:axId val="219745320"/>
+        <c:axId val="359122072"/>
+        <c:axId val="359122464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="219744928"/>
+        <c:axId val="359122072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -6657,6 +6713,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6723,12 +6780,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219745320"/>
+        <c:crossAx val="359122464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="219745320"/>
+        <c:axId val="359122464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6774,6 +6831,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6840,7 +6898,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="219744928"/>
+        <c:crossAx val="359122072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6854,6 +6912,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8031,7 +8090,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="113" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8053,7 +8112,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8368,8 +8427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="H97" sqref="H97:J97"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H103" sqref="H102:H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11795,36 +11854,198 @@
         <f t="shared" si="13"/>
         <v>42571</v>
       </c>
+      <c r="B98">
+        <v>143</v>
+      </c>
+      <c r="C98">
+        <v>133</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>10</v>
+      </c>
+      <c r="F98">
+        <v>133</v>
+      </c>
+      <c r="G98">
+        <v>0.93006993006993011</v>
+      </c>
+      <c r="H98" s="2">
+        <v>43.965037593896383</v>
+      </c>
+      <c r="I98" s="2">
+        <v>35.333333326270804</v>
+      </c>
+      <c r="J98" s="2">
+        <v>64.599999992642552</v>
+      </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <f t="shared" si="13"/>
         <v>42572</v>
       </c>
+      <c r="B99">
+        <v>138</v>
+      </c>
+      <c r="C99">
+        <v>132</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>132</v>
+      </c>
+      <c r="G99">
+        <v>0.95652173913043481</v>
+      </c>
+      <c r="H99" s="2">
+        <v>46.900252525837544</v>
+      </c>
+      <c r="I99" s="2">
+        <v>34.966666668187827</v>
+      </c>
+      <c r="J99" s="2">
+        <v>107.68333333893679</v>
+      </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <f t="shared" si="13"/>
         <v>42573</v>
       </c>
+      <c r="B100">
+        <v>140</v>
+      </c>
+      <c r="C100">
+        <v>137</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>3</v>
+      </c>
+      <c r="F100">
+        <v>137</v>
+      </c>
+      <c r="G100">
+        <v>0.97857142857142854</v>
+      </c>
+      <c r="H100" s="2">
+        <v>42.51934306543103</v>
+      </c>
+      <c r="I100" s="2">
+        <v>34.800000004470348</v>
+      </c>
+      <c r="J100" s="2">
+        <v>55.33333332859911</v>
+      </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <f t="shared" si="13"/>
         <v>42574</v>
       </c>
+      <c r="B101">
+        <v>140</v>
+      </c>
+      <c r="C101">
+        <v>134</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>134</v>
+      </c>
+      <c r="G101">
+        <v>0.95714285714285718</v>
+      </c>
+      <c r="H101" s="2">
+        <v>43.084999999655075</v>
+      </c>
+      <c r="I101" s="2">
+        <v>35.016666669398546</v>
+      </c>
+      <c r="J101" s="2">
+        <v>79.049999996786937</v>
+      </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <f t="shared" si="13"/>
         <v>42575</v>
       </c>
+      <c r="B102">
+        <v>145</v>
+      </c>
+      <c r="C102">
+        <v>143</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>143</v>
+      </c>
+      <c r="G102">
+        <v>0.98620689655172411</v>
+      </c>
+      <c r="H102" s="2">
+        <v>43.229836829566771</v>
+      </c>
+      <c r="I102" s="2">
+        <v>35.416666668606922</v>
+      </c>
+      <c r="J102" s="2">
+        <v>62.133333336096257</v>
+      </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <f t="shared" si="13"/>
         <v>42576</v>
       </c>
+      <c r="B103">
+        <v>138</v>
+      </c>
+      <c r="C103">
+        <v>131</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>7</v>
+      </c>
+      <c r="F103">
+        <v>131</v>
+      </c>
+      <c r="G103">
+        <v>0.94927536231884058</v>
+      </c>
+      <c r="H103" s="2">
+        <v>44.978371500455282</v>
+      </c>
+      <c r="I103" s="2">
+        <v>36.083333323476836</v>
+      </c>
+      <c r="J103" s="2">
+        <v>64.74999999627471</v>
+      </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
@@ -11872,4 +12093,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="Completion Stats" sheetId="2" r:id="rId2"/>
-    <sheet name="Trip Length Stats" sheetId="5" r:id="rId3"/>
-    <sheet name="DE.1.0.7.0 comparisons" sheetId="6" r:id="rId4"/>
+    <sheet name="EC Data" sheetId="1" r:id="rId1"/>
+    <sheet name="EC Completion Stats" sheetId="2" r:id="rId2"/>
+    <sheet name="EC Trip Length Stats" sheetId="5" r:id="rId3"/>
+    <sheet name="NW Data" sheetId="7" r:id="rId4"/>
+    <sheet name="NW Completion Stats" sheetId="8" r:id="rId5"/>
+    <sheet name="NW Trip Length Stats" sheetId="9" r:id="rId6"/>
+    <sheet name="DE.1.0.7.0 comparisons" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -61,15 +64,34 @@
   <si>
     <t>Wireless Crossing Completion %age</t>
   </si>
+  <si>
+    <t>Period Start</t>
+  </si>
+  <si>
+    <t>Period End</t>
+  </si>
+  <si>
+    <t>Average Run Time</t>
+  </si>
+  <si>
+    <t>Average Min</t>
+  </si>
+  <si>
+    <t>Average Max</t>
+  </si>
+  <si>
+    <t>Difference (sec)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,13 +106,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -160,7 +196,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -198,6 +234,13 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,7 +294,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RTDC PTC System Performance - Completion</a:t>
+              <a:t>RTDC EC PTC System Performance - Completion</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -297,7 +340,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$B$1</c:f>
+              <c:f>'EC Data'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -335,10 +378,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$999</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -632,16 +675,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$B$2:$B$99</c:f>
+              <c:f>'EC Data'!$B$2:$B$999</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>136</c:v>
                 </c:pt>
@@ -935,6 +1011,21 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -946,7 +1037,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$F$1</c:f>
+              <c:f>'EC Data'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -984,7 +1075,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$99</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="98"/>
@@ -1287,7 +1378,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$F$2:$F$99</c:f>
+              <c:f>'EC Data'!$F$2:$F$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="98"/>
@@ -1595,7 +1686,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$C$1</c:f>
+              <c:f>'EC Data'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1633,10 +1724,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$999</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -1930,16 +2021,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$C$2:$C$99</c:f>
+              <c:f>'EC Data'!$C$2:$C$999</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>120</c:v>
                 </c:pt>
@@ -2233,6 +2357,21 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>136</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2244,7 +2383,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$D$1</c:f>
+              <c:f>'EC Data'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2282,10 +2421,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$999</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -2579,16 +2718,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$D$2:$D$99</c:f>
+              <c:f>'EC Data'!$D$2:$D$999</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>14</c:v>
                 </c:pt>
@@ -2881,6 +3053,21 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="97">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2893,7 +3080,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$E$1</c:f>
+              <c:f>'EC Data'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2929,10 +3116,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$999</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -3226,16 +3413,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$E$2:$E$99</c:f>
+              <c:f>'EC Data'!$E$2:$E$999</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -3529,6 +3749,21 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3543,8 +3778,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="284666480"/>
-        <c:axId val="359120504"/>
+        <c:axId val="248040112"/>
+        <c:axId val="200146304"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -3554,7 +3789,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$G$1</c:f>
+              <c:f>'EC Data'!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3589,10 +3824,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$999</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -3886,16 +4121,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$G$2:$G$99</c:f>
+              <c:f>'EC Data'!$G$2:$G$999</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="998"/>
                 <c:pt idx="0">
                   <c:v>0.98529411764705888</c:v>
                 </c:pt>
@@ -4189,6 +4457,21 @@
                 </c:pt>
                 <c:pt idx="97" formatCode="General">
                   <c:v>0.95652173913043481</c:v>
+                </c:pt>
+                <c:pt idx="98" formatCode="General">
+                  <c:v>0.97857142857142854</c:v>
+                </c:pt>
+                <c:pt idx="99" formatCode="General">
+                  <c:v>0.95714285714285718</c:v>
+                </c:pt>
+                <c:pt idx="100" formatCode="General">
+                  <c:v>0.98620689655172411</c:v>
+                </c:pt>
+                <c:pt idx="101" formatCode="General">
+                  <c:v>0.94927536231884058</c:v>
+                </c:pt>
+                <c:pt idx="102" formatCode="General">
+                  <c:v>0.94444444444444442</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4203,11 +4486,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359121288"/>
-        <c:axId val="359120896"/>
+        <c:axId val="343988704"/>
+        <c:axId val="200146696"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="284666480"/>
+        <c:axId val="248040112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4321,12 +4604,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359120504"/>
+        <c:crossAx val="200146304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359120504"/>
+        <c:axId val="200146304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4439,12 +4722,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="284666480"/>
+        <c:crossAx val="248040112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359120896"/>
+        <c:axId val="200146696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4540,12 +4823,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359121288"/>
+        <c:crossAx val="343988704"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359121288"/>
+        <c:axId val="343988704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4555,7 +4838,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="359120896"/>
+        <c:crossAx val="200146696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4666,7 +4949,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>RTDC PTC System Performance - Trip Length</a:t>
+              <a:t>RTDC EC PTC System Performance - Trip Length</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4712,7 +4995,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$H$1</c:f>
+              <c:f>'EC Data'!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4750,10 +5033,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -5047,16 +5330,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$H$2:$H$99</c:f>
+              <c:f>'EC Data'!$H$2:$H$110</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>41.87</c:v>
                 </c:pt>
@@ -5350,6 +5666,21 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>46.900252525837544</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42.51934306543103</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>43.084999999655075</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>43.229836829566771</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>44.978371500455282</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>43.517518248222089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5361,7 +5692,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$I$1</c:f>
+              <c:f>'EC Data'!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5399,10 +5730,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -5696,16 +6027,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$I$2:$I$99</c:f>
+              <c:f>'EC Data'!$I$2:$I$110</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>31</c:v>
                 </c:pt>
@@ -5999,6 +6363,21 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>34.966666668187827</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>34.800000004470348</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>35.016666669398546</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>35.416666668606922</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>36.083333323476836</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>35.883333329111338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6010,7 +6389,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Data!$J$1</c:f>
+              <c:f>'EC Data'!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -6048,10 +6427,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Data!$A$2:$A$99</c:f>
+              <c:f>'EC Data'!$A$2:$A$110</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>42469</c:v>
                 </c:pt>
@@ -6345,16 +6724,49 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>42572</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42573</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42574</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42583</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Data!$J$2:$J$99</c:f>
+              <c:f>'EC Data'!$J$2:$J$110</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="98"/>
+                <c:ptCount val="109"/>
                 <c:pt idx="0">
                   <c:v>59</c:v>
                 </c:pt>
@@ -6648,6 +7060,21 @@
                 </c:pt>
                 <c:pt idx="97">
                   <c:v>107.68333333893679</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>55.33333332859911</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>79.049999996786937</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>62.133333336096257</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>64.74999999627471</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>59.166666667442769</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6662,11 +7089,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="359122072"/>
-        <c:axId val="359122464"/>
+        <c:axId val="198391096"/>
+        <c:axId val="198391488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="359122072"/>
+        <c:axId val="198391096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -6780,12 +7207,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359122464"/>
+        <c:crossAx val="198391488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="359122464"/>
+        <c:axId val="198391488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6898,7 +7325,4601 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="359122072"/>
+        <c:crossAx val="198391096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTDC EC PTC System Performance - Completion</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total PTC Runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$999</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42687</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42688</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$B$2:$B$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Completed</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$99</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$F$2:$F$99</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="98"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Single Init Runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$999</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42687</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42688</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$C$2:$C$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Multiple Init Runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$999</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42687</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42688</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$D$2:$D$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cut Out Runs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:srgbClr val="FF0000"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$999</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42687</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42688</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$E$2:$E$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="343834720"/>
+        <c:axId val="78199440"/>
+      </c:scatterChart>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Completed %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$999</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>42684</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42685</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42686</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42687</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42688</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42689</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42690</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42691</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$G$2:$G$999</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="998"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.971830985915493</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="255885768"/>
+        <c:axId val="255885376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="343834720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42650"/>
+          <c:min val="42575"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78199440"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="78199440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Runs</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="343834720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="255885376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="accent6"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Total Completed %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="accent6"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="255885768"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="255885768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="255885376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>RTDC EC PTC System Performance - Trip Length</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed Trip Length Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$H$2:$H$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>21.285858586515214</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.708212559941508</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.53939393962818</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed Trip Length Min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$I$2:$I$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>14.216666668653488</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.750000000931323</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.383333332370967</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'NW Data'!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Completed Trip Length Max</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+                <a:miter lim="800000"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'NW Data'!$A$2:$A$110</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>42575</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42576</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42577</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42578</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42579</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>42580</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42581</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>42582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>42583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42595</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42596</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>42597</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42598</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42599</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42600</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42602</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>42603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42604</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>42605</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>42606</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>42607</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>42608</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42609</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>42610</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>42611</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42612</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42613</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42614</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>42615</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42616</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42617</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>42618</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>42619</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>42620</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42621</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>42622</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>42623</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>42624</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42625</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>42626</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>42627</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42628</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>42629</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42630</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42631</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>42632</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42633</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>42634</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>42635</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>42636</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42637</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42638</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>42639</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>42640</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42641</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>42642</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42643</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>42644</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42645</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42646</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42647</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42648</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>42649</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42650</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42651</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>42652</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>42653</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>42654</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>42655</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>42656</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>42657</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>42658</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>42659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>42660</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>42661</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>42662</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>42663</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>42664</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>42665</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42666</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>42667</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>42668</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42669</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42670</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42671</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42672</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42673</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42674</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>42675</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>42676</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>42677</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>42678</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>42679</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>42680</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>42681</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>42682</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>42683</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'NW Data'!$J$2:$J$110</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="109"/>
+                <c:pt idx="0">
+                  <c:v>36.449999992037192</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47.033333337167278</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51.199999992968515</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="411055664"/>
+        <c:axId val="411056056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="411055664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="42650"/>
+          <c:min val="42575"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Date</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="m/d;@" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411056056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="411056056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Run Time (Minutes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="411055664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7015,6 +12036,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -8086,6 +13187,1038 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
@@ -8102,6 +14235,28 @@
   <sheetPr/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8139,7 +14294,61 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
     <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -8427,8 +14636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="H103" sqref="H102:H103"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="D105" sqref="D105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12052,12 +18261,40 @@
         <f t="shared" si="13"/>
         <v>42577</v>
       </c>
+      <c r="B104">
+        <v>144</v>
+      </c>
+      <c r="C104">
+        <v>136</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>8</v>
+      </c>
+      <c r="F104">
+        <v>136</v>
+      </c>
+      <c r="G104">
+        <v>0.94444444444444442</v>
+      </c>
+      <c r="H104" s="2">
+        <v>43.517518248222089</v>
+      </c>
+      <c r="I104" s="2">
+        <v>35.883333329111338</v>
+      </c>
+      <c r="J104" s="2">
+        <v>59.166666667442769</v>
+      </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <f t="shared" si="13"/>
         <v>42578</v>
       </c>
+      <c r="H105" s="15"/>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
@@ -12097,12 +18334,949 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" customWidth="1"/>
+    <col min="8" max="8" width="29.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="25.85546875" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>42575</v>
+      </c>
+      <c r="B2">
+        <v>33</v>
+      </c>
+      <c r="C2">
+        <v>33</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>33</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" s="2">
+        <v>21.285858586515214</v>
+      </c>
+      <c r="I2" s="2">
+        <v>14.216666668653488</v>
+      </c>
+      <c r="J2" s="2">
+        <v>36.449999992037192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <f t="shared" ref="A3:A66" si="0">A2+1</f>
+        <v>42576</v>
+      </c>
+      <c r="B3">
+        <v>71</v>
+      </c>
+      <c r="C3">
+        <v>69</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>69</v>
+      </c>
+      <c r="G3">
+        <v>0.971830985915493</v>
+      </c>
+      <c r="H3" s="2">
+        <v>21.708212559941508</v>
+      </c>
+      <c r="I3" s="2">
+        <v>14.750000000931323</v>
+      </c>
+      <c r="J3" s="2">
+        <v>47.033333337167278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <f t="shared" si="0"/>
+        <v>42577</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>44</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>44</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2">
+        <v>21.53939393962818</v>
+      </c>
+      <c r="I4" s="2">
+        <v>14.383333332370967</v>
+      </c>
+      <c r="J4" s="2">
+        <v>51.199999992968515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <f t="shared" si="0"/>
+        <v>42578</v>
+      </c>
+      <c r="H5" s="15"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <f t="shared" si="0"/>
+        <v>42579</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <f t="shared" si="0"/>
+        <v>42580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <f t="shared" si="0"/>
+        <v>42581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f t="shared" si="0"/>
+        <v>42582</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <f t="shared" si="0"/>
+        <v>42583</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <f t="shared" si="0"/>
+        <v>42584</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <f t="shared" si="0"/>
+        <v>42585</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <f t="shared" si="0"/>
+        <v>42586</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <f t="shared" si="0"/>
+        <v>42587</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <f t="shared" si="0"/>
+        <v>42588</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <f t="shared" si="0"/>
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="0"/>
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <f t="shared" si="0"/>
+        <v>42591</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f t="shared" si="0"/>
+        <v>42592</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <f t="shared" si="0"/>
+        <v>42593</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <f t="shared" si="0"/>
+        <v>42594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <f t="shared" si="0"/>
+        <v>42595</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f t="shared" si="0"/>
+        <v>42596</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <f t="shared" si="0"/>
+        <v>42597</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <f t="shared" si="0"/>
+        <v>42598</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <f t="shared" si="0"/>
+        <v>42599</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <f t="shared" si="0"/>
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <f t="shared" si="0"/>
+        <v>42601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <f t="shared" si="0"/>
+        <v>42602</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <f t="shared" si="0"/>
+        <v>42603</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <f t="shared" si="0"/>
+        <v>42604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <f t="shared" si="0"/>
+        <v>42605</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f t="shared" si="0"/>
+        <v>42606</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <f t="shared" si="0"/>
+        <v>42607</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <f t="shared" si="0"/>
+        <v>42608</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <f t="shared" si="0"/>
+        <v>42609</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f t="shared" si="0"/>
+        <v>42610</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <f t="shared" si="0"/>
+        <v>42611</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3">
+        <f t="shared" si="0"/>
+        <v>42612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <f t="shared" si="0"/>
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3">
+        <f t="shared" si="0"/>
+        <v>42614</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <f t="shared" si="0"/>
+        <v>42615</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3">
+        <f t="shared" si="0"/>
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f t="shared" si="0"/>
+        <v>42617</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="3">
+        <f t="shared" si="0"/>
+        <v>42618</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="3">
+        <f t="shared" si="0"/>
+        <v>42619</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="3">
+        <f t="shared" si="0"/>
+        <v>42620</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f t="shared" si="0"/>
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3">
+        <f t="shared" si="0"/>
+        <v>42622</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3">
+        <f t="shared" si="0"/>
+        <v>42623</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f t="shared" si="0"/>
+        <v>42624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f t="shared" si="0"/>
+        <v>42625</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3">
+        <f t="shared" si="0"/>
+        <v>42626</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f t="shared" si="0"/>
+        <v>42627</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f t="shared" si="0"/>
+        <v>42628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3">
+        <f t="shared" si="0"/>
+        <v>42629</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3">
+        <f t="shared" si="0"/>
+        <v>42630</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f t="shared" si="0"/>
+        <v>42631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3">
+        <f t="shared" si="0"/>
+        <v>42632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3">
+        <f t="shared" si="0"/>
+        <v>42633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3">
+        <f t="shared" si="0"/>
+        <v>42634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3">
+        <f t="shared" si="0"/>
+        <v>42635</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3">
+        <f t="shared" si="0"/>
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3">
+        <f t="shared" si="0"/>
+        <v>42637</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3">
+        <f t="shared" si="0"/>
+        <v>42638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3">
+        <f t="shared" si="0"/>
+        <v>42639</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3">
+        <f t="shared" ref="A67:A119" si="1">A66+1</f>
+        <v>42640</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <f t="shared" si="1"/>
+        <v>42641</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <f t="shared" si="1"/>
+        <v>42642</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <f t="shared" si="1"/>
+        <v>42643</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <f t="shared" si="1"/>
+        <v>42644</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <f t="shared" si="1"/>
+        <v>42645</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <f t="shared" si="1"/>
+        <v>42646</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <f t="shared" si="1"/>
+        <v>42647</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <f t="shared" si="1"/>
+        <v>42648</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <f t="shared" si="1"/>
+        <v>42649</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <f t="shared" si="1"/>
+        <v>42650</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <f t="shared" si="1"/>
+        <v>42651</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <f t="shared" si="1"/>
+        <v>42652</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <f t="shared" si="1"/>
+        <v>42653</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <f t="shared" si="1"/>
+        <v>42654</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <f t="shared" si="1"/>
+        <v>42655</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
+        <f t="shared" si="1"/>
+        <v>42656</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
+        <f t="shared" si="1"/>
+        <v>42657</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
+        <f t="shared" si="1"/>
+        <v>42658</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <f t="shared" si="1"/>
+        <v>42659</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <f t="shared" si="1"/>
+        <v>42660</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <f t="shared" si="1"/>
+        <v>42661</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <f t="shared" si="1"/>
+        <v>42662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <f t="shared" si="1"/>
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="3">
+        <f t="shared" si="1"/>
+        <v>42664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3">
+        <f t="shared" si="1"/>
+        <v>42665</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3">
+        <f t="shared" si="1"/>
+        <v>42666</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3">
+        <f t="shared" si="1"/>
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="3">
+        <f t="shared" si="1"/>
+        <v>42668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="3">
+        <f t="shared" si="1"/>
+        <v>42669</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f t="shared" si="1"/>
+        <v>42670</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3">
+        <f t="shared" si="1"/>
+        <v>42671</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3">
+        <f t="shared" si="1"/>
+        <v>42672</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f t="shared" si="1"/>
+        <v>42673</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f t="shared" si="1"/>
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="3">
+        <f t="shared" si="1"/>
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f t="shared" si="1"/>
+        <v>42676</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f t="shared" si="1"/>
+        <v>42677</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3">
+        <f t="shared" si="1"/>
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3">
+        <f t="shared" si="1"/>
+        <v>42679</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f t="shared" si="1"/>
+        <v>42680</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="3">
+        <f t="shared" si="1"/>
+        <v>42681</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="3">
+        <f t="shared" si="1"/>
+        <v>42682</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="3">
+        <f t="shared" si="1"/>
+        <v>42683</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f t="shared" si="1"/>
+        <v>42684</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f t="shared" si="1"/>
+        <v>42685</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <f t="shared" si="1"/>
+        <v>42686</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f t="shared" si="1"/>
+        <v>42687</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f t="shared" si="1"/>
+        <v>42688</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f t="shared" si="1"/>
+        <v>42689</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="1"/>
+        <v>42690</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f t="shared" si="1"/>
+        <v>42691</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f t="shared" si="1"/>
+        <v>42692</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17">
+        <v>42544</v>
+      </c>
+      <c r="B2" s="17">
+        <v>42574</v>
+      </c>
+      <c r="C2" s="18">
+        <f>AVERAGE('EC Data'!H71:H101)</f>
+        <v>43.163278337463559</v>
+      </c>
+      <c r="D2" s="18">
+        <f>AVERAGE('EC Data'!I71:I101)</f>
+        <v>34.831182795967308</v>
+      </c>
+      <c r="E2" s="18">
+        <f>AVERAGE('EC Data'!J71:J101)</f>
+        <v>61.128494623920787</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>42575</v>
+      </c>
+      <c r="B3" s="17">
+        <v>42577</v>
+      </c>
+      <c r="C3" s="18">
+        <f>AVERAGE('EC Data'!H102:H999)</f>
+        <v>43.908575526081371</v>
+      </c>
+      <c r="D3" s="18">
+        <f>AVERAGE('EC Data'!I102:I999)</f>
+        <v>35.794444440398365</v>
+      </c>
+      <c r="E3" s="18">
+        <f>AVERAGE('EC Data'!J102:J999)</f>
+        <v>62.016666666604578</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="21">
+        <f>(C3-C2)*60</f>
+        <v>44.717831317068715</v>
+      </c>
+      <c r="D4" s="21">
+        <f t="shared" ref="D4:E4" si="0">(D3-D2)*60</f>
+        <v>57.795698665863426</v>
+      </c>
+      <c r="E4" s="21">
+        <f t="shared" si="0"/>
+        <v>53.290322561027494</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
   </bookViews>
   <sheets>
     <sheet name="EC Data" sheetId="1" r:id="rId1"/>
@@ -1027,6 +1027,12 @@
                 <c:pt idx="102">
                   <c:v>144</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2373,6 +2379,12 @@
                 <c:pt idx="102">
                   <c:v>136</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>141</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3070,6 +3082,12 @@
                 <c:pt idx="102">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3765,6 +3783,12 @@
                 <c:pt idx="102">
                   <c:v>8</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3778,8 +3802,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="248040112"/>
-        <c:axId val="200146304"/>
+        <c:axId val="202757544"/>
+        <c:axId val="202750880"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4473,6 +4497,12 @@
                 <c:pt idx="102" formatCode="General">
                   <c:v>0.94444444444444442</c:v>
                 </c:pt>
+                <c:pt idx="103" formatCode="General">
+                  <c:v>0.93055555555555558</c:v>
+                </c:pt>
+                <c:pt idx="104" formatCode="General">
+                  <c:v>0.97916666666666663</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4486,11 +4516,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343988704"/>
-        <c:axId val="200146696"/>
+        <c:axId val="202755584"/>
+        <c:axId val="202757152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="248040112"/>
+        <c:axId val="202757544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4604,12 +4634,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="200146304"/>
+        <c:crossAx val="202750880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200146304"/>
+        <c:axId val="202750880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4722,12 +4752,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="248040112"/>
+        <c:crossAx val="202757544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="200146696"/>
+        <c:axId val="202757152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4823,12 +4853,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343988704"/>
+        <c:crossAx val="202755584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="343988704"/>
+        <c:axId val="202755584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4838,7 +4868,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="200146696"/>
+        <c:crossAx val="202757152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4954,7 +4984,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5682,6 +5711,12 @@
                 <c:pt idx="102">
                   <c:v>43.517518248222089</c:v>
                 </c:pt>
+                <c:pt idx="103" formatCode="0.000000000000000">
+                  <c:v>44.479353234098888</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>43.317257683312995</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6379,6 +6414,12 @@
                 <c:pt idx="102">
                   <c:v>35.883333329111338</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>35.816666667815298</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>35.233333334326744</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7076,6 +7117,12 @@
                 <c:pt idx="102">
                   <c:v>59.166666667442769</c:v>
                 </c:pt>
+                <c:pt idx="103">
+                  <c:v>61.566666662693024</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>57.933333328692243</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7089,11 +7136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="198391096"/>
-        <c:axId val="198391488"/>
+        <c:axId val="202033344"/>
+        <c:axId val="202032168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="198391096"/>
+        <c:axId val="202033344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -7140,7 +7187,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7207,12 +7253,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198391488"/>
+        <c:crossAx val="202032168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="198391488"/>
+        <c:axId val="202032168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7258,7 +7304,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7325,7 +7370,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="198391096"/>
+        <c:crossAx val="202033344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7339,7 +7384,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7441,7 +7485,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7896,6 +7939,12 @@
                 <c:pt idx="2">
                   <c:v>44</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8260,6 +8309,12 @@
                 <c:pt idx="2">
                   <c:v>44</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8684,6 +8739,12 @@
                 <c:pt idx="2">
                   <c:v>44</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9108,6 +9169,12 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9530,6 +9597,12 @@
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9543,8 +9616,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="343834720"/>
-        <c:axId val="78199440"/>
+        <c:axId val="201691440"/>
+        <c:axId val="203634656"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -9965,6 +10038,12 @@
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97872340425531912</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.97872340425531912</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9978,11 +10057,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="255885768"/>
-        <c:axId val="255885376"/>
+        <c:axId val="202528560"/>
+        <c:axId val="282819560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="343834720"/>
+        <c:axId val="201691440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42650"/>
@@ -10030,7 +10109,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10097,12 +10175,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78199440"/>
+        <c:crossAx val="203634656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="78199440"/>
+        <c:axId val="203634656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10148,7 +10226,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10215,12 +10292,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="343834720"/>
+        <c:crossAx val="201691440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255885376"/>
+        <c:axId val="282819560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10255,7 +10332,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10316,12 +10392,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="255885768"/>
+        <c:crossAx val="202528560"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="255885768"/>
+        <c:axId val="202528560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10331,7 +10407,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="255885376"/>
+        <c:crossAx val="282819560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10345,7 +10421,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10447,7 +10522,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10875,6 +10949,12 @@
                 <c:pt idx="2">
                   <c:v>21.53939393962818</c:v>
                 </c:pt>
+                <c:pt idx="3" formatCode="0.000000000000000">
+                  <c:v>21.774275361904468</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.50760869562383</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11272,6 +11352,12 @@
                 <c:pt idx="2">
                   <c:v>14.383333332370967</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.416666663018987</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.06666666502133</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11669,6 +11755,12 @@
                 <c:pt idx="2">
                   <c:v>51.199999992968515</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>76.600000000325963</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>37.116666657384485</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11682,11 +11774,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="411055664"/>
-        <c:axId val="411056056"/>
+        <c:axId val="342583248"/>
+        <c:axId val="342583640"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="411055664"/>
+        <c:axId val="342583248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42650"/>
@@ -11734,7 +11826,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11801,12 +11892,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411056056"/>
+        <c:crossAx val="342583640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="411056056"/>
+        <c:axId val="342583640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11852,7 +11943,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11919,7 +12009,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="411055664"/>
+        <c:crossAx val="342583248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -11933,7 +12023,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14223,7 +14312,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14256,7 +14345,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14267,7 +14356,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14294,7 +14383,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14348,7 +14437,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14636,8 +14725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K110"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="D105" sqref="D105"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105:G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18294,12 +18383,65 @@
         <f t="shared" si="13"/>
         <v>42578</v>
       </c>
-      <c r="H105" s="15"/>
+      <c r="B105">
+        <v>144</v>
+      </c>
+      <c r="C105">
+        <v>134</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>10</v>
+      </c>
+      <c r="F105">
+        <v>134</v>
+      </c>
+      <c r="G105">
+        <v>0.93055555555555558</v>
+      </c>
+      <c r="H105" s="15">
+        <v>44.479353234098888</v>
+      </c>
+      <c r="I105" s="2">
+        <v>35.816666667815298</v>
+      </c>
+      <c r="J105" s="2">
+        <v>61.566666662693024</v>
+      </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <f t="shared" si="13"/>
         <v>42579</v>
+      </c>
+      <c r="B106">
+        <v>144</v>
+      </c>
+      <c r="C106">
+        <v>141</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>3</v>
+      </c>
+      <c r="F106">
+        <v>141</v>
+      </c>
+      <c r="G106">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="H106" s="2">
+        <v>43.317257683312995</v>
+      </c>
+      <c r="I106" s="2">
+        <v>35.233333334326744</v>
+      </c>
+      <c r="J106" s="2">
+        <v>57.933333328692243</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
@@ -18337,7 +18479,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H6" sqref="H6:J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18492,12 +18634,65 @@
         <f t="shared" si="0"/>
         <v>42578</v>
       </c>
-      <c r="H5" s="15"/>
+      <c r="B5">
+        <v>47</v>
+      </c>
+      <c r="C5">
+        <v>46</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>46</v>
+      </c>
+      <c r="G5">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H5" s="15">
+        <v>21.774275361904468</v>
+      </c>
+      <c r="I5" s="2">
+        <v>14.416666663018987</v>
+      </c>
+      <c r="J5" s="2">
+        <v>76.600000000325963</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>42579</v>
+      </c>
+      <c r="B6">
+        <v>47</v>
+      </c>
+      <c r="C6">
+        <v>46</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
+      </c>
+      <c r="G6">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H6" s="2">
+        <v>19.50760869562383</v>
+      </c>
+      <c r="I6" s="2">
+        <v>14.06666666502133</v>
+      </c>
+      <c r="J6" s="2">
+        <v>37.116666657384485</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
@@ -19247,15 +19442,15 @@
       </c>
       <c r="C3" s="18">
         <f>AVERAGE('EC Data'!H102:H999)</f>
-        <v>43.908575526081371</v>
+        <v>43.904467499131201</v>
       </c>
       <c r="D3" s="18">
         <f>AVERAGE('EC Data'!I102:I999)</f>
-        <v>35.794444440398365</v>
+        <v>35.686666664667428</v>
       </c>
       <c r="E3" s="18">
         <f>AVERAGE('EC Data'!J102:J999)</f>
-        <v>62.016666666604578</v>
+        <v>61.1099999982398</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19265,15 +19460,15 @@
       </c>
       <c r="C4" s="21">
         <f>(C3-C2)*60</f>
-        <v>44.717831317068715</v>
+        <v>44.471349700058482</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:E4" si="0">(D3-D2)*60</f>
-        <v>57.795698665863426</v>
+        <v>51.329032122007163</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>53.290322561027494</v>
+        <v>-1.1096775408591952</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13125" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="EC Data" sheetId="1" r:id="rId1"/>
@@ -709,6 +709,42 @@
                 <c:pt idx="108">
                   <c:v>42583</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1031,6 +1067,24 @@
                   <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="104">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
@@ -2061,6 +2115,42 @@
                 <c:pt idx="108">
                   <c:v>42583</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2384,6 +2474,24 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>137</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2764,6 +2872,42 @@
                 <c:pt idx="108">
                   <c:v>42583</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3086,6 +3230,24 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="104">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="110">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3465,6 +3627,42 @@
                 <c:pt idx="108">
                   <c:v>42583</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3788,6 +3986,24 @@
                 </c:pt>
                 <c:pt idx="104">
                   <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,8 +4018,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202757544"/>
-        <c:axId val="202750880"/>
+        <c:axId val="329440712"/>
+        <c:axId val="329651200"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4179,6 +4395,42 @@
                 <c:pt idx="108">
                   <c:v>42583</c:v>
                 </c:pt>
+                <c:pt idx="109">
+                  <c:v>42584</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>42585</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>42586</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>42587</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>42588</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>42589</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>42590</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>42591</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>42592</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>42593</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>42594</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>42595</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4502,6 +4754,24 @@
                 </c:pt>
                 <c:pt idx="104" formatCode="General">
                   <c:v>0.97916666666666663</c:v>
+                </c:pt>
+                <c:pt idx="105" formatCode="General">
+                  <c:v>0.97945205479452058</c:v>
+                </c:pt>
+                <c:pt idx="106" formatCode="General">
+                  <c:v>0.98630136986301364</c:v>
+                </c:pt>
+                <c:pt idx="107" formatCode="General">
+                  <c:v>0.89583333333333337</c:v>
+                </c:pt>
+                <c:pt idx="108" formatCode="General">
+                  <c:v>0.97222222222222221</c:v>
+                </c:pt>
+                <c:pt idx="109" formatCode="General">
+                  <c:v>0.95833333333333337</c:v>
+                </c:pt>
+                <c:pt idx="110" formatCode="General">
+                  <c:v>0.95138888888888884</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4516,11 +4786,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202755584"/>
-        <c:axId val="202757152"/>
+        <c:axId val="329651984"/>
+        <c:axId val="329651592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202757544"/>
+        <c:axId val="329440712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4634,12 +4904,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202750880"/>
+        <c:crossAx val="329651200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202750880"/>
+        <c:axId val="329651200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4752,12 +5022,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202757544"/>
+        <c:crossAx val="329440712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202757152"/>
+        <c:axId val="329651592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -4853,12 +5123,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202755584"/>
+        <c:crossAx val="329651984"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202755584"/>
+        <c:axId val="329651984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4868,7 +5138,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202757152"/>
+        <c:crossAx val="329651592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4984,6 +5254,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5717,6 +5988,18 @@
                 <c:pt idx="104">
                   <c:v>43.317257683312995</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>43.175757575374732</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>43.780092592714936</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>44.854780362003893</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>44.596904762421865</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6420,6 +6703,18 @@
                 <c:pt idx="104">
                   <c:v>35.233333334326744</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>34.999999998835847</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34.883333336329088</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>36.466666662599891</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>36.033333332743496</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7123,6 +7418,18 @@
                 <c:pt idx="104">
                   <c:v>57.933333328692243</c:v>
                 </c:pt>
+                <c:pt idx="105">
+                  <c:v>64.69999999506399</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>55.833333330228925</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>65.233333337819204</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>61.750000007450581</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -7136,11 +7443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202033344"/>
-        <c:axId val="202032168"/>
+        <c:axId val="329652768"/>
+        <c:axId val="381496720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202033344"/>
+        <c:axId val="329652768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -7187,6 +7494,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7253,12 +7561,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202032168"/>
+        <c:crossAx val="381496720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202032168"/>
+        <c:axId val="381496720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7304,6 +7612,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7370,7 +7679,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202033344"/>
+        <c:crossAx val="329652768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7384,6 +7693,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7485,6 +7795,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7945,6 +8256,24 @@
                 <c:pt idx="4">
                   <c:v>47</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>46</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8315,6 +8644,24 @@
                 <c:pt idx="4">
                   <c:v>46</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8745,6 +9092,24 @@
                 <c:pt idx="4">
                   <c:v>46</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9175,6 +9540,24 @@
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9603,6 +9986,24 @@
                 <c:pt idx="4">
                   <c:v>1</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9616,8 +10017,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="201691440"/>
-        <c:axId val="203634656"/>
+        <c:axId val="260293600"/>
+        <c:axId val="260293992"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10044,6 +10445,24 @@
                 <c:pt idx="4">
                   <c:v>0.97872340425531912</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97872340425531912</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.97297297297297303</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.95744680851063835</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93478260869565222</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10057,11 +10476,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202528560"/>
-        <c:axId val="282819560"/>
+        <c:axId val="259747224"/>
+        <c:axId val="259746832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="201691440"/>
+        <c:axId val="260293600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42650"/>
@@ -10109,6 +10528,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10175,12 +10595,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="203634656"/>
+        <c:crossAx val="260293992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="203634656"/>
+        <c:axId val="260293992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10226,6 +10646,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10292,12 +10713,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="201691440"/>
+        <c:crossAx val="260293600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="282819560"/>
+        <c:axId val="259746832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10332,6 +10753,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10392,12 +10814,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="202528560"/>
+        <c:crossAx val="259747224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202528560"/>
+        <c:axId val="259747224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10407,7 +10829,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="282819560"/>
+        <c:crossAx val="259746832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10421,6 +10843,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10522,6 +10945,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10955,6 +11379,24 @@
                 <c:pt idx="4">
                   <c:v>19.50760869562383</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>23.689492753575273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20.625771605866721</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18.192156863412546</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.543617020217464</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>20.8611111107748</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>21.612592593766749</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11358,6 +11800,24 @@
                 <c:pt idx="4">
                   <c:v>14.06666666502133</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.083333338843659</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.983333329902962</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14.166666667442769</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13.966666662599891</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14.383333332370967</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14.949999995296821</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11761,6 +12221,24 @@
                 <c:pt idx="4">
                   <c:v>37.116666657384485</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>39.33333333930932</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.050000004004687</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.599999993806705</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>36.833333331160247</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36.466666662599891</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>83.133333331206813</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11774,11 +12252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="342583248"/>
-        <c:axId val="342583640"/>
+        <c:axId val="256660440"/>
+        <c:axId val="260321784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="342583248"/>
+        <c:axId val="256660440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42650"/>
@@ -11826,6 +12304,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -11892,12 +12371,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342583640"/>
+        <c:crossAx val="260321784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="342583640"/>
+        <c:axId val="260321784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11943,6 +12422,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12009,7 +12489,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="342583248"/>
+        <c:crossAx val="256660440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12023,6 +12503,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14312,7 +14793,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14356,7 +14837,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8664408" cy="6291513"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14410,7 +14891,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8665221" cy="6288186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14723,10 +15204,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K110"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105:G105"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112:J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17448,7 +17929,7 @@
     </row>
     <row r="77" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <f t="shared" ref="A77:A110" si="13">A76+1</f>
+        <f t="shared" ref="A77:A122" si="13">A76+1</f>
         <v>42550</v>
       </c>
       <c r="B77">
@@ -18449,23 +18930,257 @@
         <f t="shared" si="13"/>
         <v>42580</v>
       </c>
+      <c r="B107">
+        <v>146</v>
+      </c>
+      <c r="C107">
+        <v>143</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>3</v>
+      </c>
+      <c r="F107">
+        <v>143</v>
+      </c>
+      <c r="G107">
+        <v>0.97945205479452058</v>
+      </c>
+      <c r="H107" s="2">
+        <v>43.175757575374732</v>
+      </c>
+      <c r="I107" s="2">
+        <v>34.999999998835847</v>
+      </c>
+      <c r="J107" s="2">
+        <v>64.69999999506399</v>
+      </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <f t="shared" si="13"/>
         <v>42581</v>
       </c>
+      <c r="B108">
+        <v>146</v>
+      </c>
+      <c r="C108">
+        <v>144</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>144</v>
+      </c>
+      <c r="G108">
+        <v>0.98630136986301364</v>
+      </c>
+      <c r="H108" s="2">
+        <v>43.780092592714936</v>
+      </c>
+      <c r="I108" s="2">
+        <v>34.883333336329088</v>
+      </c>
+      <c r="J108" s="2">
+        <v>55.833333330228925</v>
+      </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <f t="shared" si="13"/>
         <v>42582</v>
       </c>
+      <c r="B109">
+        <v>144</v>
+      </c>
+      <c r="C109">
+        <v>129</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>129</v>
+      </c>
+      <c r="G109">
+        <v>0.89583333333333337</v>
+      </c>
+      <c r="H109" s="2">
+        <v>44.854780362003893</v>
+      </c>
+      <c r="I109" s="2">
+        <v>36.466666662599891</v>
+      </c>
+      <c r="J109" s="2">
+        <v>65.233333337819204</v>
+      </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <f t="shared" si="13"/>
         <v>42583</v>
+      </c>
+      <c r="B110">
+        <v>144</v>
+      </c>
+      <c r="C110">
+        <v>140</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110">
+        <v>140</v>
+      </c>
+      <c r="G110">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="H110" s="2">
+        <v>44.596904762421865</v>
+      </c>
+      <c r="I110" s="2">
+        <v>36.033333332743496</v>
+      </c>
+      <c r="J110" s="2">
+        <v>61.750000007450581</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f t="shared" si="13"/>
+        <v>42584</v>
+      </c>
+      <c r="B111">
+        <v>144</v>
+      </c>
+      <c r="C111">
+        <v>138</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111">
+        <v>138</v>
+      </c>
+      <c r="G111">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="H111" s="2">
+        <v>44.651086956424557</v>
+      </c>
+      <c r="I111" s="2">
+        <v>35.316666676662862</v>
+      </c>
+      <c r="J111" s="2">
+        <v>63.133333328878507</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="3">
+        <f t="shared" si="13"/>
+        <v>42585</v>
+      </c>
+      <c r="B112">
+        <v>144</v>
+      </c>
+      <c r="C112">
+        <v>137</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>7</v>
+      </c>
+      <c r="F112">
+        <v>137</v>
+      </c>
+      <c r="G112">
+        <v>0.95138888888888884</v>
+      </c>
+      <c r="H112" s="2">
+        <v>44.736131386895984</v>
+      </c>
+      <c r="I112" s="2">
+        <v>18.583333339774981</v>
+      </c>
+      <c r="J112" s="2">
+        <v>61.550000002607703</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="3">
+        <f t="shared" si="13"/>
+        <v>42586</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="3">
+        <f t="shared" si="13"/>
+        <v>42587</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f t="shared" si="13"/>
+        <v>42588</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="3">
+        <f t="shared" si="13"/>
+        <v>42589</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3">
+        <f t="shared" si="13"/>
+        <v>42590</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3">
+        <f t="shared" si="13"/>
+        <v>42591</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3">
+        <f t="shared" si="13"/>
+        <v>42592</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3">
+        <f t="shared" si="13"/>
+        <v>42593</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3">
+        <f t="shared" si="13"/>
+        <v>42594</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f t="shared" si="13"/>
+        <v>42595</v>
       </c>
     </row>
   </sheetData>
@@ -18479,7 +19194,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6:J6"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18700,35 +19415,197 @@
         <f t="shared" si="0"/>
         <v>42580</v>
       </c>
+      <c r="B7">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>46</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>0.97872340425531912</v>
+      </c>
+      <c r="H7" s="2">
+        <v>23.689492753575273</v>
+      </c>
+      <c r="I7" s="2">
+        <v>15.083333338843659</v>
+      </c>
+      <c r="J7" s="2">
+        <v>39.33333333930932</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>42581</v>
       </c>
+      <c r="B8">
+        <v>111</v>
+      </c>
+      <c r="C8">
+        <v>108</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>108</v>
+      </c>
+      <c r="G8">
+        <v>0.97297297297297303</v>
+      </c>
+      <c r="H8" s="2">
+        <v>20.625771605866721</v>
+      </c>
+      <c r="I8" s="2">
+        <v>12.983333329902962</v>
+      </c>
+      <c r="J8" s="2">
+        <v>78.050000004004687</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>42582</v>
       </c>
+      <c r="B9">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9" s="2">
+        <v>18.192156863412546</v>
+      </c>
+      <c r="I9" s="2">
+        <v>14.166666667442769</v>
+      </c>
+      <c r="J9" s="2">
+        <v>29.599999993806705</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>42583</v>
       </c>
+      <c r="B10">
+        <v>47</v>
+      </c>
+      <c r="C10">
+        <v>47</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>47</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="2">
+        <v>18.543617020217464</v>
+      </c>
+      <c r="I10" s="2">
+        <v>13.966666662599891</v>
+      </c>
+      <c r="J10" s="2">
+        <v>36.833333331160247</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>42584</v>
       </c>
+      <c r="B11">
+        <v>47</v>
+      </c>
+      <c r="C11">
+        <v>45</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>45</v>
+      </c>
+      <c r="G11">
+        <v>0.95744680851063835</v>
+      </c>
+      <c r="H11" s="2">
+        <v>20.8611111107748</v>
+      </c>
+      <c r="I11" s="2">
+        <v>14.383333332370967</v>
+      </c>
+      <c r="J11" s="2">
+        <v>36.466666662599891</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>42585</v>
+      </c>
+      <c r="B12">
+        <v>46</v>
+      </c>
+      <c r="C12">
+        <v>43</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>43</v>
+      </c>
+      <c r="G12">
+        <v>0.93478260869565222</v>
+      </c>
+      <c r="H12" s="2">
+        <v>21.612592593766749</v>
+      </c>
+      <c r="I12" s="2">
+        <v>14.949999995296821</v>
+      </c>
+      <c r="J12" s="2">
+        <v>83.133333331206813</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -19442,15 +20319,15 @@
       </c>
       <c r="C3" s="18">
         <f>AVERAGE('EC Data'!H102:H999)</f>
-        <v>43.904467499131201</v>
+        <v>44.119735557408355</v>
       </c>
       <c r="D3" s="18">
         <f>AVERAGE('EC Data'!I102:I999)</f>
-        <v>35.686666664667428</v>
+        <v>34.065151515480302</v>
       </c>
       <c r="E3" s="18">
         <f>AVERAGE('EC Data'!J102:J999)</f>
-        <v>61.1099999982398</v>
+        <v>61.613636363022536</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -19460,15 +20337,15 @@
       </c>
       <c r="C4" s="21">
         <f>(C3-C2)*60</f>
-        <v>44.471349700058482</v>
+        <v>57.387433196687709</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:E4" si="0">(D3-D2)*60</f>
-        <v>51.329032122007163</v>
+        <v>-45.961876829220358</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>-1.1096775408591952</v>
+        <v>29.108504346104951</v>
       </c>
     </row>
   </sheetData>

--- a/EC/Train Run Trends.xlsx
+++ b/EC/Train Run Trends.xlsx
@@ -1087,6 +1087,9 @@
                 <c:pt idx="110">
                   <c:v>144</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>144</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2493,6 +2496,9 @@
                 <c:pt idx="110">
                   <c:v>137</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>139</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3250,6 +3256,9 @@
                 <c:pt idx="110">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4005,6 +4014,9 @@
                 <c:pt idx="110">
                   <c:v>7</c:v>
                 </c:pt>
+                <c:pt idx="111">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4018,8 +4030,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329440712"/>
-        <c:axId val="329651200"/>
+        <c:axId val="199432424"/>
+        <c:axId val="199431248"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -4773,6 +4785,9 @@
                 <c:pt idx="110" formatCode="General">
                   <c:v>0.95138888888888884</c:v>
                 </c:pt>
+                <c:pt idx="111" formatCode="General">
+                  <c:v>0.96527777777777779</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4786,11 +4801,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329651984"/>
-        <c:axId val="329651592"/>
+        <c:axId val="199430464"/>
+        <c:axId val="199430856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329440712"/>
+        <c:axId val="199432424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -4904,12 +4919,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329651200"/>
+        <c:crossAx val="199431248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329651200"/>
+        <c:axId val="199431248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5022,12 +5037,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329440712"/>
+        <c:crossAx val="199432424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329651592"/>
+        <c:axId val="199430856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -5123,12 +5138,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329651984"/>
+        <c:crossAx val="199430464"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329651984"/>
+        <c:axId val="199430464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5138,7 +5153,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="329651592"/>
+        <c:crossAx val="199430856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5254,7 +5269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7443,11 +7457,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="329652768"/>
-        <c:axId val="381496720"/>
+        <c:axId val="250458696"/>
+        <c:axId val="250457912"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="329652768"/>
+        <c:axId val="250458696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="42469"/>
@@ -7494,7 +7508,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7561,12 +7574,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="381496720"/>
+        <c:crossAx val="250457912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="381496720"/>
+        <c:axId val="250457912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7612,7 +7625,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7679,7 +7691,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329652768"/>
+        <c:crossAx val="250458696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7693,7 +7705,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7795,7 +7806,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8274,6 +8284,9 @@
                 <c:pt idx="10">
                   <c:v>46</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -8662,6 +8675,9 @@
                 <c:pt idx="10">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9110,6 +9126,9 @@
                 <c:pt idx="10">
                   <c:v>43</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>43</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -9558,6 +9577,9 @@
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10004,6 +10026,9 @@
                 <c:pt idx="10">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10017,8 +10042,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="260293600"/>
-        <c:axId val="260293992"/>
+        <c:axId val="250459480"/>
+        <c:axId val="250459872"/>
       </c:scatterChart>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
@@ -10463,6 +10488,9 @@
                 <c:pt idx="10">
                   <c:v>0.93478260869565222</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.91489361702127658</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -10476,11 +10504,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="259747224"/>
-        <c:axId val="259746832"/>
+        <c:axId val="250460656"/>
+        <c:axId val="250460264"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="260293600"/>
+        <c:axId val="250459480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42650"/>
@@ -10528,7 +10556,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10595,12 +10622,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260293992"/>
+        <c:crossAx val="250459872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260293992"/>
+        <c:axId val="250459872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10646,7 +10673,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10713,12 +10739,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260293600"/>
+        <c:crossAx val="250459480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259746832"/>
+        <c:axId val="250460264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -10753,7 +10779,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -10814,12 +10839,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="259747224"/>
+        <c:crossAx val="250460656"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="259747224"/>
+        <c:axId val="250460656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10829,7 +10854,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="259746832"/>
+        <c:crossAx val="250460264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10843,7 +10868,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10945,7 +10969,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11397,6 +11420,9 @@
                 <c:pt idx="10">
                   <c:v>21.612592593766749</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.543410853358246</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -11818,6 +11844,9 @@
                 <c:pt idx="10">
                   <c:v>14.949999995296821</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>15.716666673542932</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12239,6 +12268,9 @@
                 <c:pt idx="10">
                   <c:v>83.133333331206813</c:v>
                 </c:pt>
+                <c:pt idx="11">
+                  <c:v>37.116666667861864</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -12252,11 +12284,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="256660440"/>
-        <c:axId val="260321784"/>
+        <c:axId val="248497936"/>
+        <c:axId val="248497544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="256660440"/>
+        <c:axId val="248497936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="42650"/>
@@ -12304,7 +12336,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12371,12 +12402,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="260321784"/>
+        <c:crossAx val="248497544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="260321784"/>
+        <c:axId val="248497544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12422,7 +12453,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -12489,7 +12519,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="256660440"/>
+        <c:crossAx val="248497936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -12503,7 +12533,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14793,7 +14822,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="119" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="114" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -14837,7 +14866,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8668550" cy="6291303"/>
+    <xdr:ext cx="8664408" cy="6291513"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -14891,7 +14920,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8665221" cy="6288186"/>
+    <xdr:ext cx="8668550" cy="6291303"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -15207,7 +15236,7 @@
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112:J112"/>
+      <selection activeCell="B114" sqref="B114:J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19123,61 +19152,88 @@
         <v>61.550000002607703</v>
       </c>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <f t="shared" si="13"/>
         <v>42586</v>
       </c>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B113">
+        <v>144</v>
+      </c>
+      <c r="C113">
+        <v>139</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>5</v>
+      </c>
+      <c r="F113">
+        <v>139</v>
+      </c>
+      <c r="G113">
+        <v>0.96527777777777779</v>
+      </c>
+      <c r="H113" s="2">
+        <v>43.6847721820399</v>
+      </c>
+      <c r="I113" s="2">
+        <v>35.399999998044223</v>
+      </c>
+      <c r="J113" s="2">
+        <v>57.699999993201345</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <f t="shared" si="13"/>
         <v>42587</v>
       </c>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <f t="shared" si="13"/>
         <v>42588</v>
       </c>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <f t="shared" si="13"/>
         <v>42589</v>
       </c>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <f t="shared" si="13"/>
         <v>42590</v>
       </c>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <f t="shared" si="13"/>
         <v>42591</v>
       </c>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <f t="shared" si="13"/>
         <v>42592</v>
       </c>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <f t="shared" si="13"/>
         <v>42593</v>
       </c>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <f t="shared" si="13"/>
         <v>42594</v>
       </c>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <f t="shared" si="13"/>
         <v>42595</v>
@@ -19194,7 +19250,7 @@
   <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="B13" sqref="B13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19612,6 +19668,33 @@
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>42586</v>
+      </c>
+      <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+      <c r="F13">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>0.91489361702127658</v>
+      </c>
+      <c r="H13" s="2">
+        <v>22.543410853358246</v>
+      </c>
+      <c r="I13" s="2">
+        <v>15.716666673542932</v>
+      </c>
+      <c r="J13" s="2">
+        <v>37.116666667861864</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
@@ -20319,15 +20402,15 @@
       </c>
       <c r="C3" s="18">
         <f>AVERAGE('EC Data'!H102:H999)</f>
-        <v>44.119735557408355</v>
+        <v>44.083488609460979</v>
       </c>
       <c r="D3" s="18">
         <f>AVERAGE('EC Data'!I102:I999)</f>
-        <v>34.065151515480302</v>
+        <v>34.176388889027294</v>
       </c>
       <c r="E3" s="18">
         <f>AVERAGE('EC Data'!J102:J999)</f>
-        <v>61.613636363022536</v>
+        <v>61.287499998870771</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -20337,15 +20420,15 @@
       </c>
       <c r="C4" s="21">
         <f>(C3-C2)*60</f>
-        <v>57.387433196687709</v>
+        <v>55.212616319845154</v>
       </c>
       <c r="D4" s="21">
         <f t="shared" ref="D4:E4" si="0">(D3-D2)*60</f>
-        <v>-45.961876829220358</v>
+        <v>-39.287634416400863</v>
       </c>
       <c r="E4" s="21">
         <f t="shared" si="0"/>
-        <v>29.108504346104951</v>
+        <v>9.5403224969990674</v>
       </c>
     </row>
   </sheetData>
